--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>1.57</v>
@@ -722,10 +722,10 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.91</v>
@@ -740,10 +740,10 @@
         <v>4.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -752,7 +752,7 @@
         <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>9</v>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1025,10 +1025,10 @@
         <v>2.05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
@@ -1064,13 +1064,13 @@
         <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL4" t="n">
         <v>9.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
@@ -1145,10 +1145,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
@@ -1163,10 +1163,10 @@
         <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y5" t="n">
         <v>7</v>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1766,16 +1766,16 @@
         <v>126</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>23</v>
@@ -1824,28 +1824,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1881,7 +1881,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
@@ -1896,13 +1896,13 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>7.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
@@ -1920,7 +1920,7 @@
         <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>34</v>
@@ -1987,10 +1987,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
@@ -2192,7 +2192,7 @@
         <v>6.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
@@ -2273,16 +2273,16 @@
         <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2414,13 +2414,13 @@
         <v>2.63</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
         <v>3.5</v>
@@ -2435,7 +2435,7 @@
         <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U14" t="n">
         <v>1.4</v>
@@ -2555,13 +2555,13 @@
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
         <v>3.5</v>
@@ -2576,7 +2576,7 @@
         <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
@@ -2696,13 +2696,13 @@
         <v>2.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>3.5</v>
@@ -2717,7 +2717,7 @@
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2841,28 +2841,28 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S17" t="n">
         <v>2.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U17" t="n">
         <v>1.33</v>
@@ -2971,10 +2971,10 @@
         <v>5.75</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J18" t="n">
         <v>5.5</v>
@@ -2989,25 +2989,25 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R18" t="n">
         <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U18" t="n">
         <v>1.33</v>
@@ -3131,28 +3131,28 @@
         <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
         <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
         <v>2.35</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
         <v>1.29</v>
@@ -3288,10 +3288,10 @@
         <v>2.38</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>5.5</v>
@@ -3431,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S21" t="n">
         <v>2.38</v>
@@ -3564,22 +3564,22 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3717,10 +3717,10 @@
         <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
         <v>2.75</v>
@@ -3858,10 +3858,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
@@ -4006,7 +4006,7 @@
         <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
         <v>5.5</v>
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -4140,13 +4140,13 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
         <v>2.75</v>
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -4289,28 +4289,28 @@
         <v>8.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
         <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U27" t="n">
         <v>1.36</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -4438,16 +4438,16 @@
         <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q28" t="n">
         <v>2.88</v>
@@ -4459,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
@@ -4587,13 +4587,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
         <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P29" t="n">
         <v>2.5</v>
@@ -4608,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U29" t="n">
         <v>1.57</v>
@@ -4718,10 +4718,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I30" t="n">
         <v>3.6</v>
@@ -4736,13 +4736,13 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4757,7 +4757,7 @@
         <v>6.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U30" t="n">
         <v>1.67</v>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H31" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.75</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -4877,16 +4877,16 @@
         <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
         <v>3.6</v>
@@ -4898,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
         <v>1.83</v>
@@ -6591,10 +6591,10 @@
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
         <v>2.05</v>
@@ -6603,10 +6603,10 @@
         <v>1.75</v>
       </c>
       <c r="S43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U43" t="n">
         <v>1.44</v>
@@ -6726,10 +6726,10 @@
         <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
@@ -7850,10 +7850,10 @@
         <v>7</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
@@ -8279,16 +8279,16 @@
         <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R55" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S55" t="n">
         <v>3.25</v>
@@ -8414,10 +8414,10 @@
         <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -8503,10 +8503,10 @@
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="57">
@@ -8823,16 +8823,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K59" t="n">
         <v>2.2</v>
@@ -8841,10 +8841,10 @@
         <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -8877,10 +8877,10 @@
         <v>1.83</v>
       </c>
       <c r="Y59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
@@ -8910,7 +8910,7 @@
         <v>301</v>
       </c>
       <c r="AJ59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK59" t="n">
         <v>23</v>
@@ -9139,10 +9139,10 @@
         <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
         <v>1.25</v>
@@ -9288,16 +9288,16 @@
         <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P62" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q62" t="n">
         <v>2.7</v>
@@ -9324,13 +9324,13 @@
         <v>1.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z62" t="n">
         <v>7</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
         <v>13</v>
@@ -9342,13 +9342,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
       </c>
       <c r="AG62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH62" t="n">
         <v>101</v>
@@ -9381,10 +9381,10 @@
         <v>1.2</v>
       </c>
       <c r="AR62" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="63">
@@ -9419,13 +9419,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
@@ -9437,10 +9437,10 @@
         <v>3.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.5</v>
@@ -9482,7 +9482,7 @@
         <v>11</v>
       </c>
       <c r="AB63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC63" t="n">
         <v>23</v>
@@ -9491,7 +9491,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF63" t="n">
         <v>6</v>
@@ -10003,22 +10003,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="H67" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I67" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="K67" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -10051,61 +10051,61 @@
         <v>3.1</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X67" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y67" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA67" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC67" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD67" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE67" t="n">
         <v>9.25</v>
       </c>
       <c r="AF67" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI67" t="n">
         <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AK67" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AL67" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM67" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AN67" t="n">
         <v>12</v>
       </c>
       <c r="AO67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10144,22 +10144,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H68" t="n">
         <v>5.4</v>
       </c>
       <c r="I68" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="J68" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="K68" t="n">
         <v>2.55</v>
       </c>
       <c r="L68" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
@@ -10168,22 +10168,22 @@
         <v>9.75</v>
       </c>
       <c r="O68" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P68" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R68" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S68" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T68" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U68" t="n">
         <v>1.3</v>
@@ -10198,31 +10198,31 @@
         <v>1.72</v>
       </c>
       <c r="Y68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z68" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA68" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB68" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC68" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD68" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE68" t="n">
         <v>9.75</v>
       </c>
       <c r="AF68" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH68" t="n">
         <v>120</v>
@@ -10243,7 +10243,7 @@
         <v>8.25</v>
       </c>
       <c r="AN68" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO68" t="n">
         <v>30</v>
@@ -10456,7 +10456,7 @@
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R70" t="n">
         <v>2.4</v>
@@ -10531,10 +10531,10 @@
         <v>41</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
@@ -10601,10 +10601,10 @@
         <v>3.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R71" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S71" t="n">
         <v>3.4</v>
@@ -10742,10 +10742,10 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R72" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S72" t="n">
         <v>3.5</v>
@@ -10883,7 +10883,7 @@
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R73" t="n">
         <v>2.1</v>
@@ -10997,19 +10997,19 @@
         <v>4.5</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I74" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J74" t="n">
         <v>4.75</v>
       </c>
       <c r="K74" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
@@ -11018,22 +11018,22 @@
         <v>15</v>
       </c>
       <c r="O74" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P74" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R74" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S74" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T74" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U74" t="n">
         <v>1.3</v>
@@ -11069,10 +11069,10 @@
         <v>15</v>
       </c>
       <c r="AF74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH74" t="n">
         <v>41</v>
@@ -11093,16 +11093,16 @@
         <v>13</v>
       </c>
       <c r="AN74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO74" t="n">
         <v>21</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11169,10 +11169,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S75" t="n">
         <v>3.4</v>
@@ -11565,43 +11565,115 @@
           <t>Hvidovre IF</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N78" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>41</v>
+      </c>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
-      <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
+      <c r="AJ78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.83</v>
+      </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
     </row>
@@ -11636,43 +11708,115 @@
           <t>Vendsyssel</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N79" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>41</v>
+      </c>
       <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
+      <c r="AJ79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.83</v>
+      </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
     </row>
@@ -12045,7 +12189,7 @@
         <v>2.2</v>
       </c>
       <c r="X82" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y82" t="n">
         <v>6</v>
@@ -12187,10 +12331,10 @@
         <v>3.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X83" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y83" t="n">
         <v>19</v>
@@ -12545,41 +12689,93 @@
           <t>Telavi</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.5</v>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.7</v>
+      </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.4</v>
+      </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
-      <c r="AH86" t="inlineStr"/>
+      <c r="Y86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>80</v>
+      </c>
       <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="inlineStr"/>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
+      <c r="AJ86" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>50</v>
+      </c>
       <c r="AP86" t="inlineStr"/>
       <c r="AQ86" t="inlineStr"/>
       <c r="AR86" t="inlineStr"/>
@@ -13049,7 +13245,7 @@
         <v>3.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K90" t="n">
         <v>2.3</v>
@@ -13211,16 +13407,16 @@
         <v>3.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S91" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T91" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U91" t="n">
         <v>1.36</v>
@@ -13331,7 +13527,7 @@
         <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K92" t="n">
         <v>2.2</v>
@@ -13761,7 +13957,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H95" t="n">
         <v>4.2</v>
@@ -13785,22 +13981,22 @@
         <v>11</v>
       </c>
       <c r="O95" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S95" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U95" t="n">
         <v>1.36</v>
@@ -13809,10 +14005,10 @@
         <v>3</v>
       </c>
       <c r="W95" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y95" t="n">
         <v>19</v>
@@ -13842,13 +14038,13 @@
         <v>19</v>
       </c>
       <c r="AH95" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI95" t="n">
         <v>351</v>
       </c>
       <c r="AJ95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK95" t="n">
         <v>6.5</v>
@@ -13863,7 +14059,7 @@
         <v>12</v>
       </c>
       <c r="AO95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP95" t="n">
         <v>2.38</v>
@@ -14170,10 +14366,10 @@
         <v>1.26</v>
       </c>
       <c r="AR97" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="98">
@@ -14462,10 +14658,10 @@
         <v>51</v>
       </c>
       <c r="AP99" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR99" t="n">
         <v>2.05</v>
@@ -14536,10 +14732,10 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R100" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S100" t="n">
         <v>3.4</v>
@@ -15091,7 +15287,7 @@
         <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -15662,10 +15858,10 @@
         <v>6.5</v>
       </c>
       <c r="O108" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q108" t="n">
         <v>2.5</v>
@@ -15745,10 +15941,10 @@
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
       <c r="AR108" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="109">
@@ -15928,13 +16124,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J110" t="n">
         <v>3.4</v>
@@ -15997,7 +16193,7 @@
         <v>21</v>
       </c>
       <c r="AD110" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE110" t="n">
         <v>12</v>
@@ -16015,10 +16211,10 @@
         <v>151</v>
       </c>
       <c r="AJ110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL110" t="n">
         <v>9.5</v>
@@ -16027,7 +16223,7 @@
         <v>23</v>
       </c>
       <c r="AN110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO110" t="n">
         <v>23</v>
@@ -16210,7 +16406,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
@@ -16231,7 +16427,7 @@
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -16246,16 +16442,16 @@
         <v>1.75</v>
       </c>
       <c r="S112" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U112" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V112" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W112" t="n">
         <v>1.83</v>
@@ -16351,7 +16547,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H113" t="n">
         <v>3.25</v>
@@ -16381,10 +16577,10 @@
         <v>3</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R113" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S113" t="n">
         <v>4</v>
@@ -16393,7 +16589,7 @@
         <v>1.22</v>
       </c>
       <c r="U113" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V113" t="n">
         <v>2.5</v>
@@ -16492,7 +16688,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>3.2</v>
@@ -16534,7 +16730,7 @@
         <v>1.2</v>
       </c>
       <c r="U114" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V114" t="n">
         <v>2.5</v>
@@ -16633,7 +16829,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
@@ -16663,10 +16859,10 @@
         <v>3</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R115" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S115" t="n">
         <v>4</v>
@@ -16675,7 +16871,7 @@
         <v>1.22</v>
       </c>
       <c r="U115" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V115" t="n">
         <v>2.5</v>
@@ -16780,7 +16976,7 @@
         <v>3.3</v>
       </c>
       <c r="I116" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J116" t="n">
         <v>4.33</v>
@@ -16816,10 +17012,10 @@
         <v>1.25</v>
       </c>
       <c r="U116" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V116" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W116" t="n">
         <v>1.91</v>
@@ -17223,10 +17419,10 @@
         <v>3.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R119" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S119" t="n">
         <v>3.5</v>
@@ -17235,7 +17431,7 @@
         <v>1.29</v>
       </c>
       <c r="U119" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V119" t="n">
         <v>2.75</v>
@@ -17364,7 +17560,7 @@
         <v>4.33</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R120" t="n">
         <v>2.15</v>
@@ -17376,7 +17572,7 @@
         <v>1.44</v>
       </c>
       <c r="U120" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V120" t="n">
         <v>3.25</v>
@@ -17759,10 +17955,10 @@
         <v>2.05</v>
       </c>
       <c r="M123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N123" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O123" t="n">
         <v>1.57</v>
@@ -17771,10 +17967,10 @@
         <v>2.25</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="R123" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S123" t="n">
         <v>6</v>
@@ -17783,7 +17979,7 @@
         <v>1.13</v>
       </c>
       <c r="U123" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V123" t="n">
         <v>2.2</v>
@@ -17882,28 +18078,28 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H124" t="n">
         <v>2.88</v>
       </c>
       <c r="I124" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J124" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K124" t="n">
         <v>1.83</v>
       </c>
       <c r="L124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N124" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O124" t="n">
         <v>1.62</v>
@@ -17915,7 +18111,7 @@
         <v>3.1</v>
       </c>
       <c r="R124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S124" t="n">
         <v>6.5</v>
@@ -17924,7 +18120,7 @@
         <v>1.11</v>
       </c>
       <c r="U124" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V124" t="n">
         <v>2.1</v>
@@ -17936,19 +18132,19 @@
         <v>1.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA124" t="n">
         <v>11</v>
       </c>
       <c r="AB124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC124" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD124" t="n">
         <v>41</v>
@@ -17957,7 +18153,7 @@
         <v>5.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG124" t="n">
         <v>23</v>
@@ -17969,10 +18165,10 @@
         <v>101</v>
       </c>
       <c r="AJ124" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL124" t="n">
         <v>15</v>
@@ -18045,16 +18241,16 @@
         <v>3.1</v>
       </c>
       <c r="M125" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N125" t="n">
         <v>7</v>
       </c>
       <c r="O125" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P125" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q125" t="n">
         <v>2.4</v>
@@ -18066,13 +18262,13 @@
         <v>4.5</v>
       </c>
       <c r="T125" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U125" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V125" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W125" t="n">
         <v>2</v>
@@ -18190,13 +18386,13 @@
         <v>6.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N126" t="n">
         <v>9</v>
       </c>
       <c r="O126" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P126" t="n">
         <v>3.25</v>
@@ -18211,13 +18407,13 @@
         <v>3.75</v>
       </c>
       <c r="T126" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U126" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V126" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W126" t="n">
         <v>2.2</v>
@@ -18313,31 +18509,31 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I127" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J127" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K127" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L127" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
       </c>
       <c r="O127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P127" t="n">
         <v>3.25</v>
@@ -18346,52 +18542,52 @@
         <v>2.05</v>
       </c>
       <c r="R127" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S127" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T127" t="n">
         <v>1.25</v>
       </c>
       <c r="U127" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V127" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W127" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X127" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB127" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC127" t="n">
         <v>51</v>
       </c>
       <c r="AD127" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE127" t="n">
         <v>9</v>
       </c>
       <c r="AF127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH127" t="n">
         <v>81</v>
@@ -18400,19 +18596,19 @@
         <v>800</v>
       </c>
       <c r="AJ127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK127" t="n">
         <v>6</v>
       </c>
-      <c r="AK127" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AL127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM127" t="n">
         <v>9</v>
       </c>
-      <c r="AM127" t="n">
-        <v>10</v>
-      </c>
       <c r="AN127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO127" t="n">
         <v>34</v>
@@ -18421,13 +18617,13 @@
         <v>2.95</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AR127" t="n">
         <v>1.56</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="128">
@@ -18462,7 +18658,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H128" t="n">
         <v>4.75</v>
@@ -18617,7 +18813,7 @@
         <v>3.6</v>
       </c>
       <c r="I129" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J129" t="n">
         <v>2.75</v>
@@ -18626,13 +18822,13 @@
         <v>2.3</v>
       </c>
       <c r="L129" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M129" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O129" t="n">
         <v>1.2</v>
@@ -18641,10 +18837,10 @@
         <v>4.33</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R129" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S129" t="n">
         <v>2.63</v>
@@ -18665,7 +18861,7 @@
         <v>2.25</v>
       </c>
       <c r="Y129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z129" t="n">
         <v>12</v>
@@ -18677,13 +18873,13 @@
         <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF129" t="n">
         <v>7</v>
@@ -18695,7 +18891,7 @@
         <v>41</v>
       </c>
       <c r="AI129" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ129" t="n">
         <v>12</v>
@@ -18713,7 +18909,7 @@
         <v>23</v>
       </c>
       <c r="AO129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
@@ -19034,7 +19230,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H132" t="n">
         <v>5.5</v>
@@ -19052,10 +19248,10 @@
         <v>9</v>
       </c>
       <c r="M132" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O132" t="n">
         <v>1.2</v>
@@ -19175,7 +19371,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H133" t="n">
         <v>5</v>
@@ -19606,13 +19802,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H136" t="n">
         <v>3.9</v>
       </c>
       <c r="I136" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J136" t="n">
         <v>6</v>
@@ -19621,13 +19817,13 @@
         <v>2.3</v>
       </c>
       <c r="L136" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
         <v>1.25</v>
@@ -19636,10 +19832,10 @@
         <v>3.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R136" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S136" t="n">
         <v>3</v>
@@ -19751,13 +19947,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H137" t="n">
         <v>3.8</v>
       </c>
       <c r="I137" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J137" t="n">
         <v>6</v>
@@ -19793,10 +19989,10 @@
         <v>1.22</v>
       </c>
       <c r="U137" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V137" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W137" t="n">
         <v>2.1</v>
@@ -19808,7 +20004,7 @@
         <v>11</v>
       </c>
       <c r="Z137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA137" t="n">
         <v>17</v>
@@ -19832,9 +20028,11 @@
         <v>21</v>
       </c>
       <c r="AH137" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI137" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>501</v>
+      </c>
       <c r="AJ137" t="n">
         <v>5.5</v>
       </c>
@@ -19842,7 +20040,7 @@
         <v>7</v>
       </c>
       <c r="AL137" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM137" t="n">
         <v>12</v>
@@ -20757,25 +20955,25 @@
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O144" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R144" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S144" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T144" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U144" t="n">
         <v>1.17</v>
@@ -20877,22 +21075,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="H145" t="n">
+        <v>7</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J145" t="n">
         <v>7.5</v>
       </c>
-      <c r="I145" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J145" t="n">
-        <v>8.5</v>
-      </c>
       <c r="K145" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L145" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M145" t="n">
         <v>1.01</v>
@@ -20907,7 +21105,7 @@
         <v>13</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="R145" t="n">
         <v>5</v>
@@ -20925,25 +21123,25 @@
         <v>6.5</v>
       </c>
       <c r="W145" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X145" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Y145" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z145" t="n">
         <v>67</v>
       </c>
       <c r="AA145" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB145" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="AC145" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD145" t="n">
         <v>41</v>
@@ -20955,13 +21153,13 @@
         <v>19</v>
       </c>
       <c r="AG145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH145" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI145" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ145" t="n">
         <v>21</v>
@@ -20970,16 +21168,16 @@
         <v>13</v>
       </c>
       <c r="AL145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21756,7 +21954,7 @@
         <v>2.1</v>
       </c>
       <c r="R151" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S151" t="n">
         <v>3.75</v>
@@ -21894,10 +22092,10 @@
         <v>3.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R152" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S152" t="n">
         <v>3.4</v>
@@ -22038,7 +22236,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S153" t="n">
         <v>3.4</v>
@@ -22164,13 +22362,13 @@
         <v>2.4</v>
       </c>
       <c r="M154" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N154" t="n">
         <v>11</v>
       </c>
       <c r="O154" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P154" t="n">
         <v>3.4</v>
@@ -22179,13 +22377,13 @@
         <v>2</v>
       </c>
       <c r="R154" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S154" t="n">
         <v>3.5</v>
       </c>
       <c r="T154" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U154" t="n">
         <v>1.44</v>
@@ -22194,10 +22392,10 @@
         <v>2.63</v>
       </c>
       <c r="W154" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X154" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y154" t="n">
         <v>11</v>
@@ -22305,13 +22503,13 @@
         <v>4.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N155" t="n">
         <v>6</v>
       </c>
       <c r="O155" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P155" t="n">
         <v>2.2</v>
@@ -22326,7 +22524,7 @@
         <v>6.5</v>
       </c>
       <c r="T155" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U155" t="n">
         <v>1.67</v>
@@ -22338,7 +22536,7 @@
         <v>2.5</v>
       </c>
       <c r="X155" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y155" t="n">
         <v>5.5</v>
@@ -22450,13 +22648,13 @@
         <v>3.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N156" t="n">
         <v>6.5</v>
       </c>
       <c r="O156" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P156" t="n">
         <v>2.5</v>
@@ -22471,7 +22669,7 @@
         <v>5</v>
       </c>
       <c r="T156" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U156" t="n">
         <v>1.57</v>
@@ -22483,7 +22681,7 @@
         <v>2.1</v>
       </c>
       <c r="X156" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y156" t="n">
         <v>6.5</v>
@@ -22539,10 +22737,10 @@
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="inlineStr"/>
       <c r="AR156" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="157">
@@ -22595,13 +22793,13 @@
         <v>8</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N157" t="n">
         <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P157" t="n">
         <v>4</v>
@@ -22616,7 +22814,7 @@
         <v>2.75</v>
       </c>
       <c r="T157" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U157" t="n">
         <v>1.33</v>
@@ -22628,7 +22826,7 @@
         <v>2.1</v>
       </c>
       <c r="X157" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y157" t="n">
         <v>6.5</v>
@@ -22736,13 +22934,13 @@
         <v>6.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N158" t="n">
         <v>9</v>
       </c>
       <c r="O158" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P158" t="n">
         <v>3</v>
@@ -22757,7 +22955,7 @@
         <v>3.75</v>
       </c>
       <c r="T158" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U158" t="n">
         <v>1.44</v>
@@ -22769,7 +22967,7 @@
         <v>2.2</v>
       </c>
       <c r="X158" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y158" t="n">
         <v>5.5</v>
@@ -23850,70 +24048,70 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I166" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J166" t="n">
         <v>3.05</v>
       </c>
       <c r="K166" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L166" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M166" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N166" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="O166" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P166" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R166" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S166" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="T166" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U166" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V166" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W166" t="n">
         <v>1.62</v>
       </c>
       <c r="X166" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y166" t="n">
         <v>9.25</v>
       </c>
       <c r="Z166" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA166" t="n">
         <v>9.25</v>
       </c>
       <c r="AB166" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC166" t="n">
         <v>19</v>
@@ -23922,10 +24120,10 @@
         <v>25</v>
       </c>
       <c r="AE166" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AF166" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AG166" t="n">
         <v>12</v>
@@ -23934,13 +24132,13 @@
         <v>50</v>
       </c>
       <c r="AI166" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ166" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AK166" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL166" t="n">
         <v>9.75</v>
@@ -23949,10 +24147,10 @@
         <v>32</v>
       </c>
       <c r="AN166" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO166" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
@@ -24009,13 +24207,13 @@
         <v>2.75</v>
       </c>
       <c r="M167" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N167" t="n">
         <v>10</v>
       </c>
       <c r="O167" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P167" t="n">
         <v>3.25</v>
@@ -24030,7 +24228,7 @@
         <v>3.75</v>
       </c>
       <c r="T167" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U167" t="n">
         <v>1.44</v>
@@ -24150,13 +24348,13 @@
         <v>4</v>
       </c>
       <c r="M168" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N168" t="n">
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P168" t="n">
         <v>3.25</v>
@@ -24171,7 +24369,7 @@
         <v>3.5</v>
       </c>
       <c r="T168" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U168" t="n">
         <v>1.44</v>
@@ -24291,13 +24489,13 @@
         <v>9</v>
       </c>
       <c r="M169" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N169" t="n">
         <v>17</v>
       </c>
       <c r="O169" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P169" t="n">
         <v>5</v>
@@ -24312,7 +24510,7 @@
         <v>2.25</v>
       </c>
       <c r="T169" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U169" t="n">
         <v>1.25</v>
@@ -24436,13 +24634,13 @@
         <v>2.2</v>
       </c>
       <c r="M170" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N170" t="n">
         <v>17</v>
       </c>
       <c r="O170" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P170" t="n">
         <v>5</v>
@@ -24454,10 +24652,10 @@
         <v>2.35</v>
       </c>
       <c r="S170" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U170" t="n">
         <v>1.29</v>
@@ -24664,10 +24862,10 @@
         <v>3.5</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R172" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S172" t="n">
         <v>3.4</v>
@@ -24946,10 +25144,10 @@
         <v>3.5</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R174" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S174" t="n">
         <v>3.25</v>
@@ -25492,10 +25690,10 @@
         <v>3</v>
       </c>
       <c r="K178" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L178" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M178" t="n">
         <v>1.04</v>
@@ -25510,10 +25708,10 @@
         <v>4</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R178" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S178" t="n">
         <v>2.75</v>
@@ -25522,10 +25720,10 @@
         <v>1.4</v>
       </c>
       <c r="U178" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V178" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W178" t="n">
         <v>1.62</v>
@@ -25534,7 +25732,7 @@
         <v>2.2</v>
       </c>
       <c r="Y178" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z178" t="n">
         <v>13</v>
@@ -25549,10 +25747,10 @@
         <v>19</v>
       </c>
       <c r="AD178" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF178" t="n">
         <v>6.5</v>
@@ -25567,7 +25765,7 @@
         <v>151</v>
       </c>
       <c r="AJ178" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK178" t="n">
         <v>15</v>
@@ -25651,7 +25849,7 @@
         <v>6</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R179" t="n">
         <v>2.7</v>
@@ -25762,16 +25960,16 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I180" t="n">
         <v>3.9</v>
       </c>
-      <c r="I180" t="n">
-        <v>4</v>
-      </c>
       <c r="J180" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K180" t="n">
         <v>2.5</v>
@@ -25780,10 +25978,10 @@
         <v>4</v>
       </c>
       <c r="M180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N180" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O180" t="n">
         <v>1.14</v>
@@ -25792,7 +25990,7 @@
         <v>5.5</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R180" t="n">
         <v>2.5</v>
@@ -25819,10 +26017,10 @@
         <v>11</v>
       </c>
       <c r="Z180" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA180" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB180" t="n">
         <v>17</v>
@@ -25864,7 +26062,7 @@
         <v>26</v>
       </c>
       <c r="AO180" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP180" t="n">
         <v>1.8</v>
@@ -25907,13 +26105,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I181" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J181" t="n">
         <v>2.65</v>
@@ -26048,13 +26246,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H182" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I182" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="J182" t="n">
         <v>2.62</v>
@@ -26189,13 +26387,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H183" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I183" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="J183" t="n">
         <v>2.92</v>
@@ -26611,54 +26809,54 @@
         <v>1.9</v>
       </c>
       <c r="H186" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I186" t="n">
         <v>3.8</v>
       </c>
       <c r="J186" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K186" t="n">
         <v>2.1</v>
       </c>
       <c r="L186" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P186" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q186" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R186" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S186" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T186" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U186" t="n">
         <v>1.39</v>
       </c>
       <c r="V186" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W186" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X186" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y186" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z186" t="n">
         <v>8.75</v>
@@ -26682,31 +26880,31 @@
         <v>6.5</v>
       </c>
       <c r="AG186" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH186" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI186" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ186" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK186" t="n">
         <v>20</v>
       </c>
       <c r="AL186" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM186" t="n">
         <v>60</v>
       </c>
       <c r="AN186" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO186" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP186" t="inlineStr"/>
       <c r="AQ186" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>1.57</v>
@@ -722,10 +722,10 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.91</v>
@@ -740,10 +740,10 @@
         <v>4.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -752,10 +752,10 @@
         <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
@@ -782,7 +782,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -791,7 +791,7 @@
         <v>151</v>
       </c>
       <c r="AN2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="n">
         <v>51</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
         <v>3</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1025,10 +1025,10 @@
         <v>2.05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
@@ -1064,13 +1064,13 @@
         <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL4" t="n">
         <v>9.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
@@ -1163,10 +1163,10 @@
         <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y5" t="n">
         <v>7</v>
@@ -1193,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
@@ -1418,7 +1418,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -2414,13 +2414,13 @@
         <v>2.63</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>3.5</v>
@@ -2435,7 +2435,7 @@
         <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U14" t="n">
         <v>1.4</v>
@@ -2537,31 +2537,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>3.5</v>
@@ -2576,7 +2576,7 @@
         <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
@@ -2609,7 +2609,7 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
         <v>6</v>
@@ -2624,7 +2624,7 @@
         <v>201</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -2696,13 +2696,13 @@
         <v>2.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>3.5</v>
@@ -2717,7 +2717,7 @@
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>3.2</v>
@@ -2838,31 +2838,31 @@
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S17" t="n">
         <v>2.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U17" t="n">
         <v>1.33</v>
@@ -2886,10 +2886,10 @@
         <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>23</v>
@@ -2910,7 +2910,7 @@
         <v>151</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
@@ -2989,25 +2989,25 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U18" t="n">
         <v>1.33</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H19" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>1.73</v>
@@ -3134,25 +3134,25 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
         <v>1.29</v>
@@ -3288,10 +3288,10 @@
         <v>2.38</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
         <v>5.5</v>
@@ -3431,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
         <v>2.38</v>
@@ -3564,10 +3564,10 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -3576,10 +3576,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3609,7 +3609,7 @@
         <v>8.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3717,10 +3717,10 @@
         <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
         <v>2.75</v>
@@ -3858,10 +3858,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
@@ -3979,7 +3979,7 @@
         <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -4006,7 +4006,7 @@
         <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>5.5</v>
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -4140,13 +4140,13 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
         <v>2.75</v>
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -4289,13 +4289,13 @@
         <v>8.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
         <v>3.75</v>
@@ -4310,7 +4310,7 @@
         <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U27" t="n">
         <v>1.36</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -4438,13 +4438,13 @@
         <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P28" t="n">
         <v>2.25</v>
@@ -4459,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
@@ -4587,13 +4587,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
         <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
         <v>2.5</v>
@@ -4608,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U29" t="n">
         <v>1.57</v>
@@ -4718,31 +4718,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.6</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4757,7 +4757,7 @@
         <v>6.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U30" t="n">
         <v>1.67</v>
@@ -4772,28 +4772,28 @@
         <v>1.53</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD30" t="n">
         <v>41</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
@@ -4805,19 +4805,19 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>51</v>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -4877,16 +4877,16 @@
         <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
         <v>3.6</v>
@@ -4898,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U31" t="n">
         <v>1.83</v>
@@ -6708,40 +6708,40 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H44" t="n">
         <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="n">
         <v>2.1</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
         <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="n">
         <v>3.5</v>
@@ -6804,7 +6804,7 @@
         <v>15</v>
       </c>
       <c r="AM44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="n">
         <v>34</v>
@@ -7268,51 +7268,51 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I48" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L48" t="n">
         <v>7.9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.5</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T48" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V48" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="W48" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="X48" t="n">
         <v>1.47</v>
@@ -7321,25 +7321,25 @@
         <v>5.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AA48" t="n">
         <v>9</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AC48" t="n">
         <v>13.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG48" t="n">
         <v>28</v>
@@ -7351,19 +7351,19 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM48" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN48" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AO48" t="n">
         <v>150</v>
@@ -7435,10 +7435,10 @@
         <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R49" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S49" t="n">
         <v>3.25</v>
@@ -7700,37 +7700,37 @@
         <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L51" t="n">
         <v>3.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R51" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S51" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T51" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U51" t="n">
         <v>1.33</v>
@@ -7739,13 +7739,13 @@
         <v>3.25</v>
       </c>
       <c r="W51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z51" t="n">
         <v>12</v>
@@ -7760,10 +7760,10 @@
         <v>17</v>
       </c>
       <c r="AD51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF51" t="n">
         <v>7</v>
@@ -7775,10 +7775,10 @@
         <v>41</v>
       </c>
       <c r="AI51" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK51" t="n">
         <v>17</v>
@@ -7790,10 +7790,10 @@
         <v>34</v>
       </c>
       <c r="AN51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -8135,7 +8135,7 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
@@ -8144,16 +8144,16 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8285,10 +8285,10 @@
         <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R55" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S55" t="n">
         <v>3.25</v>
@@ -8503,10 +8503,10 @@
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="57">
@@ -9288,16 +9288,16 @@
         <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P62" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q62" t="n">
         <v>2.7</v>
@@ -9381,10 +9381,10 @@
         <v>1.2</v>
       </c>
       <c r="AR62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
@@ -10003,22 +10003,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="H67" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I67" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J67" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="K67" t="n">
         <v>2.42</v>
       </c>
       <c r="L67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -10027,7 +10027,7 @@
         <v>9.25</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P67" t="n">
         <v>4.05</v>
@@ -10039,7 +10039,7 @@
         <v>2.15</v>
       </c>
       <c r="S67" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T67" t="n">
         <v>1.47</v>
@@ -10051,46 +10051,46 @@
         <v>3.1</v>
       </c>
       <c r="W67" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X67" t="n">
         <v>1.75</v>
       </c>
       <c r="Y67" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA67" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB67" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC67" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD67" t="n">
         <v>90</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>80</v>
       </c>
       <c r="AE67" t="n">
         <v>9.25</v>
       </c>
       <c r="AF67" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG67" t="n">
         <v>23</v>
       </c>
       <c r="AH67" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI67" t="n">
         <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AK67" t="n">
         <v>6.9</v>
@@ -10102,7 +10102,7 @@
         <v>9</v>
       </c>
       <c r="AN67" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO67" t="n">
         <v>30</v>
@@ -10144,22 +10144,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I68" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J68" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="K68" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L68" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
@@ -10168,10 +10168,10 @@
         <v>9.75</v>
       </c>
       <c r="O68" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P68" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q68" t="n">
         <v>1.57</v>
@@ -10180,13 +10180,13 @@
         <v>2.32</v>
       </c>
       <c r="S68" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T68" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U68" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V68" t="n">
         <v>3.3</v>
@@ -10198,19 +10198,19 @@
         <v>1.72</v>
       </c>
       <c r="Y68" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z68" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB68" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AC68" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD68" t="n">
         <v>100</v>
@@ -10228,16 +10228,16 @@
         <v>120</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK68" t="n">
         <v>6.8</v>
       </c>
       <c r="AL68" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM68" t="n">
         <v>8.25</v>
@@ -10456,7 +10456,7 @@
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R70" t="n">
         <v>2.4</v>
@@ -10531,10 +10531,10 @@
         <v>41</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
@@ -10601,10 +10601,10 @@
         <v>3.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S71" t="n">
         <v>3.4</v>
@@ -10742,10 +10742,10 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R72" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="n">
         <v>3.5</v>
@@ -10883,7 +10883,7 @@
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R73" t="n">
         <v>2.1</v>
@@ -10997,7 +10997,7 @@
         <v>4.5</v>
       </c>
       <c r="H74" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I74" t="n">
         <v>1.65</v>
@@ -11169,10 +11169,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S75" t="n">
         <v>3.4</v>
@@ -11526,10 +11526,10 @@
         <v>51</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11566,113 +11566,115 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
         <v>2.9</v>
       </c>
       <c r="J78" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K78" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
         <v>3.4</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R78" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T78" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U78" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V78" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W78" t="n">
         <v>1.57</v>
       </c>
       <c r="X78" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Y78" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA78" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AB78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG78" t="n">
         <v>12</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>11</v>
       </c>
       <c r="AH78" t="n">
         <v>41</v>
       </c>
-      <c r="AI78" t="inlineStr"/>
+      <c r="AI78" t="n">
+        <v>126</v>
+      </c>
       <c r="AJ78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL78" t="n">
         <v>11</v>
       </c>
-      <c r="AK78" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>9</v>
-      </c>
       <c r="AM78" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AN78" t="n">
         <v>21</v>
       </c>
       <c r="AO78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11709,113 +11711,115 @@
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N79" t="n">
+        <v>13</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S79" t="n">
         <v>2.63</v>
       </c>
-      <c r="H79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N79" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P79" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R79" t="n">
+      <c r="T79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X79" t="n">
         <v>2.25</v>
       </c>
-      <c r="S79" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W79" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X79" t="n">
-        <v>2.37</v>
-      </c>
       <c r="Y79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE79" t="n">
         <v>13</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>17</v>
       </c>
       <c r="AF79" t="n">
         <v>7</v>
       </c>
       <c r="AG79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH79" t="n">
         <v>41</v>
       </c>
-      <c r="AI79" t="inlineStr"/>
+      <c r="AI79" t="n">
+        <v>151</v>
+      </c>
       <c r="AJ79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM79" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN79" t="n">
         <v>17</v>
       </c>
       <c r="AO79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11894,7 +11898,7 @@
         <v>1.44</v>
       </c>
       <c r="U80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V80" t="n">
         <v>3.25</v>
@@ -12039,10 +12043,10 @@
         <v>1.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V81" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W81" t="n">
         <v>1.8</v>
@@ -12180,7 +12184,7 @@
         <v>1.17</v>
       </c>
       <c r="U82" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V82" t="n">
         <v>2.25</v>
@@ -12189,7 +12193,7 @@
         <v>2.2</v>
       </c>
       <c r="X82" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y82" t="n">
         <v>6</v>
@@ -12307,10 +12311,10 @@
         <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q83" t="n">
         <v>1.73</v>
@@ -12319,22 +12323,22 @@
         <v>2.1</v>
       </c>
       <c r="S83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V83" t="n">
         <v>3.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X83" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y83" t="n">
         <v>19</v>
@@ -12456,18 +12460,18 @@
         <v>2.22</v>
       </c>
       <c r="S84" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T84" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X84" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="Y84" t="n">
         <v>9.25</v>
@@ -12690,22 +12694,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H86" t="n">
         <v>3.7</v>
       </c>
       <c r="I86" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K86" t="n">
         <v>2.12</v>
       </c>
       <c r="L86" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -12723,12 +12727,12 @@
         <v>1.4</v>
       </c>
       <c r="V86" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z86" t="n">
         <v>5.6</v>
@@ -12740,13 +12744,13 @@
         <v>8.75</v>
       </c>
       <c r="AC86" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD86" t="n">
         <v>25</v>
       </c>
       <c r="AE86" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF86" t="n">
         <v>6.4</v>
@@ -12972,28 +12976,28 @@
         <v>3.1</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T88" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P88" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S88" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1.33</v>
       </c>
       <c r="U88" t="n">
         <v>1.4</v>
@@ -13245,7 +13249,7 @@
         <v>3.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K90" t="n">
         <v>2.3</v>
@@ -13407,16 +13411,16 @@
         <v>3.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R91" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S91" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U91" t="n">
         <v>1.36</v>
@@ -13527,7 +13531,7 @@
         <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2.2</v>
@@ -13548,10 +13552,10 @@
         <v>3.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R92" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S92" t="n">
         <v>3</v>
@@ -13659,13 +13663,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J93" t="n">
         <v>5.5</v>
@@ -13674,7 +13678,7 @@
         <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -13683,10 +13687,10 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="n">
         <v>2.1</v>
@@ -13737,13 +13741,13 @@
         <v>6.5</v>
       </c>
       <c r="AG93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH93" t="n">
         <v>67</v>
       </c>
       <c r="AI93" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ93" t="n">
         <v>6</v>
@@ -13755,13 +13759,13 @@
         <v>8.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN93" t="n">
         <v>15</v>
       </c>
       <c r="AO93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP93" t="n">
         <v>3.15</v>
@@ -13957,13 +13961,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H95" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I95" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J95" t="n">
         <v>7</v>
@@ -13987,10 +13991,10 @@
         <v>3.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R95" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S95" t="n">
         <v>3</v>
@@ -14038,13 +14042,13 @@
         <v>19</v>
       </c>
       <c r="AH95" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI95" t="n">
         <v>351</v>
       </c>
       <c r="AJ95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK95" t="n">
         <v>6.5</v>
@@ -14062,16 +14066,16 @@
         <v>29</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="96">
@@ -14255,13 +14259,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J97" t="n">
         <v>6.5</v>
@@ -14270,7 +14274,7 @@
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M97" t="n">
         <v>1.1</v>
@@ -14285,10 +14289,10 @@
         <v>2.63</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R97" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S97" t="n">
         <v>4.5</v>
@@ -14327,10 +14331,10 @@
         <v>67</v>
       </c>
       <c r="AE97" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF97" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG97" t="n">
         <v>21</v>
@@ -14360,16 +14364,16 @@
         <v>41</v>
       </c>
       <c r="AP97" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.26</v>
       </c>
       <c r="AR97" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="98">
@@ -14404,22 +14408,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K98" t="n">
         <v>2.75</v>
       </c>
       <c r="L98" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M98" t="n">
         <v>1.03</v>
@@ -14428,28 +14432,28 @@
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P98" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R98" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T98" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W98" t="n">
         <v>2</v>
@@ -14458,31 +14462,31 @@
         <v>1.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z98" t="n">
         <v>6.5</v>
       </c>
       <c r="AA98" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC98" t="n">
         <v>11</v>
       </c>
       <c r="AD98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE98" t="n">
         <v>15</v>
       </c>
       <c r="AF98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG98" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH98" t="n">
         <v>67</v>
@@ -14491,7 +14495,7 @@
         <v>351</v>
       </c>
       <c r="AJ98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK98" t="n">
         <v>51</v>
@@ -14509,10 +14513,10 @@
         <v>67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AR98" t="n">
         <v>1.24</v>
@@ -14553,13 +14557,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H99" t="n">
         <v>3.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J99" t="n">
         <v>3.1</v>
@@ -14568,7 +14572,7 @@
         <v>1.83</v>
       </c>
       <c r="L99" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M99" t="n">
         <v>1.11</v>
@@ -14610,7 +14614,7 @@
         <v>5.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA99" t="n">
         <v>10</v>
@@ -14640,13 +14644,13 @@
         <v>101</v>
       </c>
       <c r="AJ99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL99" t="n">
         <v>15</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>13</v>
       </c>
       <c r="AM99" t="n">
         <v>41</v>
@@ -14732,16 +14736,16 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R100" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U100" t="n">
         <v>1.4</v>
@@ -15032,10 +15036,10 @@
         <v>3.4</v>
       </c>
       <c r="W102" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X102" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y102" t="n">
         <v>11</v>
@@ -15068,10 +15072,10 @@
         <v>34</v>
       </c>
       <c r="AI102" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK102" t="n">
         <v>17</v>
@@ -15089,10 +15093,10 @@
         <v>23</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr"/>
@@ -15129,22 +15133,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H103" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I103" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J103" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="K103" t="n">
         <v>2.07</v>
       </c>
       <c r="L103" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -15158,19 +15162,19 @@
         <v>1.78</v>
       </c>
       <c r="R103" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S103" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="T103" t="n">
         <v>1.33</v>
       </c>
       <c r="U103" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V103" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="W103" t="n">
         <v>1.65</v>
@@ -15179,55 +15183,55 @@
         <v>1.98</v>
       </c>
       <c r="Y103" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Z103" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA103" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB103" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC103" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD103" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE103" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF103" t="n">
         <v>6.5</v>
       </c>
       <c r="AG103" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH103" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI103" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ103" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK103" t="n">
         <v>24</v>
       </c>
       <c r="AL103" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM103" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN103" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AO103" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
@@ -15555,7 +15559,7 @@
         <v>1.6</v>
       </c>
       <c r="H106" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I106" t="n">
         <v>5.25</v>
@@ -15693,22 +15697,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J107" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K107" t="n">
         <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M107" t="n">
         <v>1.08</v>
@@ -15717,10 +15721,10 @@
         <v>7.5</v>
       </c>
       <c r="O107" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P107" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q107" t="n">
         <v>2.35</v>
@@ -15735,10 +15739,10 @@
         <v>1.2</v>
       </c>
       <c r="U107" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V107" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W107" t="n">
         <v>2.05</v>
@@ -15750,13 +15754,13 @@
         <v>6</v>
       </c>
       <c r="Z107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA107" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC107" t="n">
         <v>19</v>
@@ -15768,39 +15772,43 @@
         <v>7.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH107" t="n">
         <v>67</v>
       </c>
       <c r="AI107" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ107" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM107" t="n">
         <v>41</v>
       </c>
       <c r="AN107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO107" t="n">
         <v>41</v>
       </c>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
+      <c r="AR107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16145,7 +16153,7 @@
         <v>1.04</v>
       </c>
       <c r="N110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O110" t="n">
         <v>1.22</v>
@@ -16286,7 +16294,7 @@
         <v>1.07</v>
       </c>
       <c r="N111" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O111" t="n">
         <v>1.36</v>
@@ -16301,10 +16309,10 @@
         <v>1.67</v>
       </c>
       <c r="S111" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T111" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U111" t="n">
         <v>1.44</v>
@@ -16406,7 +16414,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
@@ -16415,7 +16423,7 @@
         <v>3.8</v>
       </c>
       <c r="J112" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K112" t="n">
         <v>2.1</v>
@@ -16448,10 +16456,10 @@
         <v>1.25</v>
       </c>
       <c r="U112" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V112" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W112" t="n">
         <v>1.83</v>
@@ -16547,7 +16555,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>3.25</v>
@@ -16577,19 +16585,19 @@
         <v>3</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R113" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S113" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T113" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U113" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V113" t="n">
         <v>2.5</v>
@@ -16688,7 +16696,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H114" t="n">
         <v>3.2</v>
@@ -16703,7 +16711,7 @@
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
@@ -16712,10 +16720,10 @@
         <v>8</v>
       </c>
       <c r="O114" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P114" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q114" t="n">
         <v>2.35</v>
@@ -16724,16 +16732,16 @@
         <v>1.57</v>
       </c>
       <c r="S114" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T114" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U114" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="V114" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W114" t="n">
         <v>2</v>
@@ -16751,7 +16759,7 @@
         <v>9.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC114" t="n">
         <v>21</v>
@@ -16787,15 +16795,19 @@
         <v>41</v>
       </c>
       <c r="AN114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO114" t="n">
         <v>41</v>
       </c>
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
+      <c r="AR114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16829,7 +16841,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
@@ -16871,7 +16883,7 @@
         <v>1.22</v>
       </c>
       <c r="U115" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V115" t="n">
         <v>2.5</v>
@@ -16976,7 +16988,7 @@
         <v>3.3</v>
       </c>
       <c r="I116" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J116" t="n">
         <v>4.33</v>
@@ -17012,10 +17024,10 @@
         <v>1.25</v>
       </c>
       <c r="U116" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V116" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W116" t="n">
         <v>1.91</v>
@@ -17389,103 +17401,103 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H119" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I119" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K119" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L119" t="n">
         <v>2.88</v>
       </c>
       <c r="M119" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O119" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P119" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="S119" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T119" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U119" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V119" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W119" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="X119" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z119" t="n">
         <v>17</v>
       </c>
       <c r="AA119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC119" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE119" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF119" t="n">
         <v>6</v>
       </c>
       <c r="AG119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH119" t="n">
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ119" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK119" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL119" t="n">
         <v>9</v>
       </c>
       <c r="AM119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN119" t="n">
         <v>19</v>
@@ -17560,7 +17572,7 @@
         <v>4.33</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R120" t="n">
         <v>2.15</v>
@@ -17813,7 +17825,7 @@
         <v>4.2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K122" t="n">
         <v>2.15</v>
@@ -17836,7 +17848,7 @@
         <v>1.9</v>
       </c>
       <c r="S122" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T122" t="n">
         <v>1.36</v>
@@ -17844,10 +17856,10 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X122" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y122" t="n">
         <v>7.6</v>
@@ -17874,19 +17886,19 @@
         <v>7</v>
       </c>
       <c r="AG122" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH122" t="n">
         <v>60</v>
       </c>
       <c r="AI122" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ122" t="n">
         <v>13</v>
       </c>
       <c r="AK122" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL122" t="n">
         <v>13.5</v>
@@ -17967,10 +17979,10 @@
         <v>2.25</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R123" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S123" t="n">
         <v>6</v>
@@ -18078,52 +18090,52 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H124" t="n">
+        <v>3</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N124" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q124" t="n">
         <v>2.88</v>
       </c>
-      <c r="I124" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5</v>
-      </c>
-      <c r="M124" t="n">
+      <c r="R124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S124" t="n">
+        <v>6</v>
+      </c>
+      <c r="T124" t="n">
         <v>1.13</v>
       </c>
-      <c r="N124" t="n">
-        <v>6</v>
-      </c>
-      <c r="O124" t="n">
+      <c r="U124" t="n">
         <v>1.62</v>
       </c>
-      <c r="P124" t="n">
+      <c r="V124" t="n">
         <v>2.2</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S124" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U124" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V124" t="n">
-        <v>2.1</v>
       </c>
       <c r="W124" t="n">
         <v>2.5</v>
@@ -18135,22 +18147,22 @@
         <v>5</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB124" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC124" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD124" t="n">
         <v>41</v>
       </c>
       <c r="AE124" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF124" t="n">
         <v>6.5</v>
@@ -18165,16 +18177,16 @@
         <v>101</v>
       </c>
       <c r="AJ124" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK124" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL124" t="n">
         <v>17</v>
       </c>
-      <c r="AL124" t="n">
-        <v>15</v>
-      </c>
       <c r="AM124" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN124" t="n">
         <v>41</v>
@@ -18241,16 +18253,16 @@
         <v>3.1</v>
       </c>
       <c r="M125" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N125" t="n">
         <v>7</v>
       </c>
       <c r="O125" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P125" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q125" t="n">
         <v>2.4</v>
@@ -18262,13 +18274,13 @@
         <v>4.5</v>
       </c>
       <c r="T125" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U125" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V125" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W125" t="n">
         <v>2</v>
@@ -18386,13 +18398,13 @@
         <v>6.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N126" t="n">
         <v>9</v>
       </c>
       <c r="O126" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P126" t="n">
         <v>3.25</v>
@@ -18407,13 +18419,13 @@
         <v>3.75</v>
       </c>
       <c r="T126" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U126" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V126" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W126" t="n">
         <v>2.2</v>
@@ -18527,13 +18539,13 @@
         <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
       </c>
       <c r="O127" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P127" t="n">
         <v>3.25</v>
@@ -18548,10 +18560,10 @@
         <v>3.5</v>
       </c>
       <c r="T127" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U127" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V127" t="n">
         <v>2.75</v>
@@ -18658,7 +18670,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H128" t="n">
         <v>4.75</v>
@@ -18807,13 +18819,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>3.6</v>
       </c>
       <c r="I129" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J129" t="n">
         <v>2.75</v>
@@ -18822,7 +18834,7 @@
         <v>2.3</v>
       </c>
       <c r="L129" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M129" t="n">
         <v>1.04</v>
@@ -18873,7 +18885,7 @@
         <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD129" t="n">
         <v>23</v>
@@ -18909,7 +18921,7 @@
         <v>23</v>
       </c>
       <c r="AO129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
@@ -19089,7 +19101,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>3.5</v>
@@ -19230,7 +19242,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H132" t="n">
         <v>5.5</v>
@@ -19371,19 +19383,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="H133" t="n">
         <v>5</v>
       </c>
       <c r="I133" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J133" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K133" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L133" t="n">
         <v>6.5</v>
@@ -19392,7 +19404,7 @@
         <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O133" t="n">
         <v>1.17</v>
@@ -19431,7 +19443,7 @@
         <v>7.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB133" t="n">
         <v>9.5</v>
@@ -19443,7 +19455,7 @@
         <v>23</v>
       </c>
       <c r="AE133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF133" t="n">
         <v>9.5</v>
@@ -19455,31 +19467,31 @@
         <v>51</v>
       </c>
       <c r="AI133" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ133" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK133" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN133" t="n">
         <v>41</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>51</v>
       </c>
       <c r="AO133" t="n">
         <v>41</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR133" t="inlineStr"/>
       <c r="AS133" t="inlineStr"/>
@@ -19687,10 +19699,10 @@
         <v>2.25</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R135" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S135" t="n">
         <v>6</v>
@@ -19947,10 +19959,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H137" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I137" t="n">
         <v>1.67</v>
@@ -19965,10 +19977,10 @@
         <v>2.3</v>
       </c>
       <c r="M137" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O137" t="n">
         <v>1.36</v>
@@ -20412,7 +20424,7 @@
         <v>1.4</v>
       </c>
       <c r="U140" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V140" t="n">
         <v>3</v>
@@ -20553,7 +20565,7 @@
         <v>1.33</v>
       </c>
       <c r="U141" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V141" t="n">
         <v>2.75</v>
@@ -20652,97 +20664,97 @@
         </is>
       </c>
       <c r="G142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I142" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L142" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P142" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U142" t="n">
         <v>1.47</v>
       </c>
-      <c r="H142" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I142" t="n">
+      <c r="V142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA142" t="n">
         <v>7.7</v>
       </c>
-      <c r="J142" t="n">
-        <v>2</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L142" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M142" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N142" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O142" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P142" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R142" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S142" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T142" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U142" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V142" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W142" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X142" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y142" t="n">
+      <c r="AB142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE142" t="n">
         <v>6.7</v>
       </c>
-      <c r="Z142" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA142" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AF142" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG142" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI142" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AJ142" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK142" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL142" t="n">
         <v>23</v>
@@ -20754,7 +20766,7 @@
         <v>100</v>
       </c>
       <c r="AO142" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20934,100 +20946,100 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I144" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="J144" t="n">
         <v>4.5</v>
       </c>
       <c r="K144" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="L144" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M144" t="n">
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
+        <v>26</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P144" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z144" t="n">
         <v>29</v>
       </c>
-      <c r="O144" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P144" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R144" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S144" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T144" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U144" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V144" t="n">
-        <v>5</v>
-      </c>
-      <c r="W144" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X144" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>41</v>
-      </c>
       <c r="AA144" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB144" t="n">
         <v>51</v>
       </c>
       <c r="AC144" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD144" t="n">
         <v>26</v>
       </c>
       <c r="AE144" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF144" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG144" t="n">
         <v>13</v>
       </c>
       <c r="AH144" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI144" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ144" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK144" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM144" t="n">
         <v>15</v>
@@ -21036,7 +21048,7 @@
         <v>11</v>
       </c>
       <c r="AO144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
@@ -21075,22 +21087,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="H145" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I145" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="J145" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K145" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L145" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M145" t="n">
         <v>1.01</v>
@@ -21123,25 +21135,25 @@
         <v>6.5</v>
       </c>
       <c r="W145" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X145" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y145" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z145" t="n">
         <v>67</v>
       </c>
       <c r="AA145" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB145" t="n">
         <v>126</v>
       </c>
       <c r="AC145" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD145" t="n">
         <v>41</v>
@@ -21153,13 +21165,13 @@
         <v>19</v>
       </c>
       <c r="AG145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH145" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI145" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ145" t="n">
         <v>21</v>
@@ -21168,16 +21180,16 @@
         <v>13</v>
       </c>
       <c r="AL145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM145" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO145" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21507,13 +21519,13 @@
         <v>2.7</v>
       </c>
       <c r="J148" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K148" t="n">
         <v>1.93</v>
       </c>
       <c r="L148" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M148" t="n">
         <v>1.08</v>
@@ -21552,7 +21564,7 @@
         <v>1.93</v>
       </c>
       <c r="Y148" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Z148" t="n">
         <v>13.5</v>
@@ -21564,7 +21576,7 @@
         <v>32</v>
       </c>
       <c r="AC148" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD148" t="n">
         <v>32</v>
@@ -21585,10 +21597,10 @@
         <v>500</v>
       </c>
       <c r="AJ148" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AK148" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL148" t="n">
         <v>9.75</v>
@@ -21597,10 +21609,10 @@
         <v>32</v>
       </c>
       <c r="AN148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO148" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP148" t="inlineStr"/>
       <c r="AQ148" t="inlineStr"/>
@@ -21738,7 +21750,7 @@
         <v>250</v>
       </c>
       <c r="AN149" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO149" t="n">
         <v>90</v>
@@ -21810,10 +21822,10 @@
         <v>3.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R150" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S150" t="n">
         <v>3.4</v>
@@ -21930,7 +21942,7 @@
         <v>3.6</v>
       </c>
       <c r="J151" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K151" t="n">
         <v>2.05</v>
@@ -22092,10 +22104,10 @@
         <v>3.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R152" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S152" t="n">
         <v>3.4</v>
@@ -22236,7 +22248,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S153" t="n">
         <v>3.4</v>
@@ -22350,7 +22362,7 @@
         <v>3.6</v>
       </c>
       <c r="I154" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J154" t="n">
         <v>5</v>
@@ -22377,7 +22389,7 @@
         <v>2</v>
       </c>
       <c r="R154" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S154" t="n">
         <v>3.5</v>
@@ -22485,13 +22497,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H155" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I155" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J155" t="n">
         <v>3.25</v>
@@ -22500,7 +22512,7 @@
         <v>1.83</v>
       </c>
       <c r="L155" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M155" t="n">
         <v>1.13</v>
@@ -22630,13 +22642,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H156" t="n">
         <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J156" t="n">
         <v>3.5</v>
@@ -22737,10 +22749,10 @@
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="inlineStr"/>
       <c r="AR156" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="157">
@@ -22781,7 +22793,7 @@
         <v>5</v>
       </c>
       <c r="I157" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J157" t="n">
         <v>1.8</v>
@@ -22790,7 +22802,7 @@
         <v>2.5</v>
       </c>
       <c r="L157" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -22799,22 +22811,22 @@
         <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P157" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R157" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S157" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T157" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U157" t="n">
         <v>1.33</v>
@@ -22823,10 +22835,10 @@
         <v>3.25</v>
       </c>
       <c r="W157" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X157" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y157" t="n">
         <v>6.5</v>
@@ -22847,28 +22859,28 @@
         <v>29</v>
       </c>
       <c r="AE157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG157" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH157" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI157" t="n">
         <v>1250</v>
       </c>
       <c r="AJ157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK157" t="n">
         <v>41</v>
       </c>
       <c r="AL157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM157" t="n">
         <v>126</v>
@@ -23766,109 +23778,109 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H164" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="I164" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K164" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L164" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N164" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
         <v>1.19</v>
       </c>
       <c r="P164" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R164" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S164" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T164" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U164" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V164" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W164" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X164" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y164" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z164" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA164" t="n">
         <v>8</v>
       </c>
       <c r="AB164" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD164" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF164" t="n">
         <v>8.75</v>
       </c>
-      <c r="AF164" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG164" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH164" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI164" t="n">
         <v>400</v>
       </c>
       <c r="AJ164" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK164" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL164" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM164" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN164" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO164" t="n">
         <v>50</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>45</v>
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
@@ -23907,19 +23919,19 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H165" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I165" t="n">
         <v>3.2</v>
       </c>
       <c r="J165" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K165" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L165" t="n">
         <v>3.55</v>
@@ -23928,22 +23940,22 @@
         <v>1.03</v>
       </c>
       <c r="N165" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O165" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P165" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R165" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S165" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T165" t="n">
         <v>1.6</v>
@@ -23955,16 +23967,16 @@
         <v>3.35</v>
       </c>
       <c r="W165" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X165" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Y165" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z165" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA165" t="n">
         <v>8.75</v>
@@ -23979,10 +23991,10 @@
         <v>18</v>
       </c>
       <c r="AE165" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF165" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG165" t="n">
         <v>11.25</v>
@@ -23991,10 +24003,10 @@
         <v>35</v>
       </c>
       <c r="AI165" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AJ165" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK165" t="n">
         <v>21</v>
@@ -24207,13 +24219,13 @@
         <v>2.75</v>
       </c>
       <c r="M167" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N167" t="n">
         <v>10</v>
       </c>
       <c r="O167" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P167" t="n">
         <v>3.25</v>
@@ -24228,7 +24240,7 @@
         <v>3.75</v>
       </c>
       <c r="T167" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U167" t="n">
         <v>1.44</v>
@@ -24348,13 +24360,13 @@
         <v>4</v>
       </c>
       <c r="M168" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N168" t="n">
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P168" t="n">
         <v>3.25</v>
@@ -24369,7 +24381,7 @@
         <v>3.5</v>
       </c>
       <c r="T168" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U168" t="n">
         <v>1.44</v>
@@ -24492,25 +24504,25 @@
         <v>1.02</v>
       </c>
       <c r="N169" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O169" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P169" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R169" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S169" t="n">
         <v>2.25</v>
       </c>
       <c r="T169" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U169" t="n">
         <v>1.25</v>
@@ -24576,10 +24588,10 @@
         <v>51</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR169" t="inlineStr"/>
       <c r="AS169" t="inlineStr"/>
@@ -24616,46 +24628,46 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H170" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I170" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J170" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K170" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L170" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M170" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N170" t="n">
         <v>17</v>
       </c>
       <c r="O170" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P170" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R170" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S170" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="T170" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U170" t="n">
         <v>1.29</v>
@@ -24664,19 +24676,19 @@
         <v>3.5</v>
       </c>
       <c r="W170" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X170" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y170" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA170" t="n">
         <v>17</v>
-      </c>
-      <c r="Z170" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA170" t="n">
-        <v>15</v>
       </c>
       <c r="AB170" t="n">
         <v>51</v>
@@ -24691,7 +24703,7 @@
         <v>17</v>
       </c>
       <c r="AF170" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG170" t="n">
         <v>13</v>
@@ -24700,13 +24712,13 @@
         <v>41</v>
       </c>
       <c r="AI170" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ170" t="n">
         <v>9.5</v>
       </c>
       <c r="AK170" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL170" t="n">
         <v>8.5</v>
@@ -24721,10 +24733,10 @@
         <v>21</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AR170" t="inlineStr"/>
       <c r="AS170" t="inlineStr"/>
@@ -24850,10 +24862,10 @@
         <v>2.88</v>
       </c>
       <c r="M172" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O172" t="n">
         <v>1.29</v>
@@ -24862,16 +24874,16 @@
         <v>3.5</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R172" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S172" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T172" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U172" t="n">
         <v>1.4</v>
@@ -25144,10 +25156,10 @@
         <v>3.5</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R174" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S174" t="n">
         <v>3.25</v>
@@ -25678,28 +25690,28 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H178" t="n">
         <v>3.5</v>
       </c>
       <c r="I178" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J178" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K178" t="n">
         <v>2.2</v>
       </c>
       <c r="L178" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M178" t="n">
         <v>1.04</v>
       </c>
       <c r="N178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O178" t="n">
         <v>1.22</v>
@@ -25732,16 +25744,16 @@
         <v>2.2</v>
       </c>
       <c r="Y178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z178" t="n">
         <v>13</v>
       </c>
       <c r="AA178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB178" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC178" t="n">
         <v>19</v>
@@ -25774,7 +25786,7 @@
         <v>10</v>
       </c>
       <c r="AM178" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN178" t="n">
         <v>21</v>
@@ -25960,13 +25972,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H180" t="n">
         <v>3.8</v>
       </c>
       <c r="I180" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J180" t="n">
         <v>2.4</v>
@@ -25978,13 +25990,13 @@
         <v>4</v>
       </c>
       <c r="M180" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N180" t="n">
         <v>19</v>
       </c>
       <c r="O180" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P180" t="n">
         <v>5.5</v>
@@ -25999,7 +26011,7 @@
         <v>2.2</v>
       </c>
       <c r="T180" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U180" t="n">
         <v>1.25</v>
@@ -26669,75 +26681,75 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I185" t="n">
         <v>3.15</v>
       </c>
       <c r="J185" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="K185" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L185" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P185" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R185" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S185" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T185" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U185" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V185" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="W185" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X185" t="n">
         <v>1.8</v>
       </c>
       <c r="Y185" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z185" t="n">
         <v>10.5</v>
       </c>
       <c r="AA185" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB185" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC185" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD185" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE185" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF185" t="n">
         <v>5.8</v>
@@ -26758,7 +26770,7 @@
         <v>16</v>
       </c>
       <c r="AL185" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM185" t="n">
         <v>45</v>
@@ -26943,16 +26955,16 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H187" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I187" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="J187" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K187" t="n">
         <v>2.07</v>
@@ -26969,7 +26981,7 @@
         <v>2.75</v>
       </c>
       <c r="Q187" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R187" t="n">
         <v>1.65</v>
@@ -26978,13 +26990,13 @@
         <v>3.25</v>
       </c>
       <c r="T187" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U187" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V187" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W187" t="n">
         <v>1.85</v>
@@ -26993,43 +27005,43 @@
         <v>1.75</v>
       </c>
       <c r="Y187" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z187" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AA187" t="n">
         <v>8.25</v>
       </c>
       <c r="AB187" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC187" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD187" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE187" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF187" t="n">
         <v>6.4</v>
       </c>
       <c r="AG187" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH187" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI187" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ187" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AK187" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL187" t="n">
         <v>14.5</v>
@@ -27041,7 +27053,7 @@
         <v>45</v>
       </c>
       <c r="AO187" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP187" t="inlineStr"/>
       <c r="AQ187" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -734,7 +734,7 @@
         <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V2" t="n">
         <v>4.33</v>
@@ -875,7 +875,7 @@
         <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V3" t="n">
         <v>4</v>
@@ -977,7 +977,7 @@
         <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.7</v>
@@ -1016,10 +1016,10 @@
         <v>1.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W4" t="n">
         <v>2.05</v>
@@ -1157,7 +1157,7 @@
         <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V5" t="n">
         <v>2.75</v>
@@ -1259,7 +1259,7 @@
         <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.1</v>
@@ -1298,7 +1298,7 @@
         <v>1.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1427,10 +1427,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S7" t="n">
         <v>3.5</v>
@@ -1439,10 +1439,10 @@
         <v>1.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W7" t="n">
         <v>1.75</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1568,10 +1568,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S8" t="n">
         <v>3.4</v>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1784,10 +1784,10 @@
         <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1824,34 +1824,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.67</v>
@@ -1860,16 +1860,16 @@
         <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.67</v>
@@ -1878,7 +1878,7 @@
         <v>2.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>9.5</v>
@@ -1896,7 +1896,7 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>7.5</v>
@@ -1920,7 +1920,7 @@
         <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
         <v>34</v>
@@ -1972,16 +1972,16 @@
         <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
       </c>
       <c r="J11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.38</v>
       </c>
       <c r="L11" t="n">
         <v>4.5</v>
@@ -1993,40 +1993,40 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.67</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -2038,16 +2038,16 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>7.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2056,7 +2056,7 @@
         <v>151</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2068,7 +2068,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
@@ -2192,7 +2192,7 @@
         <v>6.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
@@ -2279,10 +2279,10 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>4.33</v>
@@ -2414,22 +2414,22 @@
         <v>2.63</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
         <v>3.5</v>
@@ -2438,10 +2438,10 @@
         <v>1.3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W14" t="n">
         <v>1.8</v>
@@ -2450,7 +2450,7 @@
         <v>1.95</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>21</v>
@@ -2468,10 +2468,10 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2486,19 +2486,19 @@
         <v>7.5</v>
       </c>
       <c r="AK14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>9</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>8.5</v>
       </c>
       <c r="AM14" t="n">
         <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>3.2</v>
@@ -2838,7 +2838,7 @@
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2853,16 +2853,16 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U17" t="n">
         <v>1.33</v>
@@ -2877,7 +2877,7 @@
         <v>2.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2886,10 +2886,10 @@
         <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
         <v>23</v>
@@ -3131,10 +3131,10 @@
         <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3149,10 +3149,10 @@
         <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
         <v>1.29</v>
@@ -3176,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>67</v>
@@ -3218,10 +3218,10 @@
         <v>51</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -3282,10 +3282,10 @@
         <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
         <v>2.75</v>
@@ -3333,7 +3333,7 @@
         <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>21</v>
@@ -3352,7 +3352,7 @@
         <v>9.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
@@ -3546,19 +3546,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
@@ -3576,22 +3576,22 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
         <v>2.1</v>
@@ -3603,13 +3603,13 @@
         <v>5.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3618,13 +3618,13 @@
         <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
         <v>67</v>
@@ -3633,19 +3633,19 @@
         <v>501</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>19</v>
       </c>
       <c r="AM22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO22" t="n">
         <v>51</v>
@@ -3696,7 +3696,7 @@
         <v>7.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -3750,7 +3750,7 @@
         <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
@@ -3777,7 +3777,7 @@
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -3852,16 +3852,16 @@
         <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
@@ -3935,10 +3935,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="25">
@@ -3973,13 +3973,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3991,10 +3991,10 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.53</v>
@@ -4033,7 +4033,7 @@
         <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
@@ -4063,13 +4063,13 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>26</v>
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
         <v>2.63</v>
@@ -4152,16 +4152,16 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4286,13 +4286,13 @@
         <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -4328,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA27" t="n">
         <v>9</v>
@@ -4358,7 +4358,7 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
@@ -4370,10 +4370,10 @@
         <v>126</v>
       </c>
       <c r="AN27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP27" t="n">
         <v>2.55</v>
@@ -4525,16 +4525,16 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AR28" t="n">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="29">
@@ -4736,10 +4736,10 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4748,10 +4748,10 @@
         <v>2.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
         <v>6.5</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
         <v>2.75</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
         <v>1.73</v>
       </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.18</v>
@@ -4883,10 +4883,10 @@
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q31" t="n">
         <v>3.6</v>
@@ -4907,22 +4907,22 @@
         <v>1.98</v>
       </c>
       <c r="W31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
         <v>34</v>
@@ -4946,16 +4946,16 @@
         <v>101</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>41</v>
@@ -5090,7 +5090,7 @@
         <v>7.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
         <v>19</v>
@@ -5156,13 +5156,13 @@
         <v>1.91</v>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.57</v>
@@ -5183,10 +5183,10 @@
         <v>1.13</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>2.63</v>
@@ -5198,13 +5198,13 @@
         <v>4.75</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA33" t="n">
         <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>21</v>
@@ -5219,7 +5219,7 @@
         <v>6.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH33" t="n">
         <v>101</v>
@@ -5228,7 +5228,7 @@
         <v>101</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
         <v>23</v>
@@ -5237,7 +5237,7 @@
         <v>19</v>
       </c>
       <c r="AM33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN33" t="n">
         <v>51</v>
@@ -5300,10 +5300,10 @@
         <v>6.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
@@ -5436,7 +5436,7 @@
         <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>1.73</v>
@@ -5502,7 +5502,7 @@
         <v>4.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG35" t="n">
         <v>23</v>
@@ -5578,10 +5578,10 @@
         <v>2.63</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>1.8</v>
@@ -5593,7 +5593,7 @@
         <v>1.17</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O36" t="n">
         <v>1.67</v>
@@ -5614,10 +5614,10 @@
         <v>1.1</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W36" t="n">
         <v>2.5</v>
@@ -5641,7 +5641,7 @@
         <v>26</v>
       </c>
       <c r="AD36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="n">
         <v>4.75</v>
@@ -5659,7 +5659,7 @@
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK36" t="n">
         <v>17</v>
@@ -5731,10 +5731,10 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.62</v>
@@ -6143,7 +6143,7 @@
         <v>1.5</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
         <v>6.5</v>
@@ -6161,7 +6161,7 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
@@ -6188,10 +6188,10 @@
         <v>3.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y40" t="n">
         <v>7.5</v>
@@ -6215,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG40" t="n">
         <v>17</v>
@@ -6233,13 +6233,13 @@
         <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM40" t="n">
         <v>67</v>
       </c>
       <c r="AN40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO40" t="n">
         <v>41</v>
@@ -6284,16 +6284,16 @@
         <v>5.25</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
         <v>1.6</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K41" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L41" t="n">
         <v>2.2</v>
@@ -6329,10 +6329,10 @@
         <v>3.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y41" t="n">
         <v>15</v>
@@ -6356,22 +6356,22 @@
         <v>13</v>
       </c>
       <c r="AF41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG41" t="n">
         <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="n">
         <v>201</v>
       </c>
       <c r="AJ41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK41" t="n">
         <v>8</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>8.5</v>
       </c>
       <c r="AL41" t="n">
         <v>8.5</v>
@@ -6380,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="AN41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO41" t="n">
         <v>23</v>
@@ -6426,13 +6426,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -6441,7 +6441,7 @@
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
@@ -6468,37 +6468,37 @@
         <v>1.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y42" t="n">
         <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
       </c>
       <c r="AC42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD42" t="n">
         <v>29</v>
       </c>
-      <c r="AD42" t="n">
-        <v>34</v>
-      </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF42" t="n">
         <v>7</v>
@@ -6513,16 +6513,16 @@
         <v>151</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL42" t="n">
         <v>8.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN42" t="n">
         <v>15</v>
@@ -6591,10 +6591,10 @@
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="n">
         <v>2.05</v>
@@ -6603,10 +6603,10 @@
         <v>1.75</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U43" t="n">
         <v>1.44</v>
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>3.7</v>
@@ -6729,7 +6729,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6744,10 +6744,10 @@
         <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U44" t="n">
         <v>1.44</v>
@@ -6852,34 +6852,34 @@
         <v>3.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="J45" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
         <v>2.07</v>
       </c>
       <c r="L45" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R45" t="n">
         <v>1.7</v>
@@ -6888,43 +6888,43 @@
         <v>3.45</v>
       </c>
       <c r="T45" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
       </c>
       <c r="V45" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X45" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z45" t="n">
         <v>15.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB45" t="n">
         <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD45" t="n">
         <v>37</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG45" t="n">
         <v>14</v>
@@ -6936,7 +6936,7 @@
         <v>600</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AK45" t="n">
         <v>11</v>
@@ -6945,13 +6945,13 @@
         <v>9</v>
       </c>
       <c r="AM45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN45" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -7268,51 +7268,51 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H48" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="J48" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="K48" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P48" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T48" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V48" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="W48" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="X48" t="n">
         <v>1.47</v>
@@ -7321,25 +7321,25 @@
         <v>5.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AA48" t="n">
         <v>9</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AC48" t="n">
         <v>13.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG48" t="n">
         <v>28</v>
@@ -7351,16 +7351,16 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM48" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AN48" t="n">
         <v>150</v>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H51" t="n">
         <v>3.5</v>
@@ -7715,34 +7715,34 @@
         <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S51" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T51" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W51" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X51" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y51" t="n">
         <v>10</v>
@@ -7757,7 +7757,7 @@
         <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD51" t="n">
         <v>21</v>
@@ -7772,7 +7772,7 @@
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI51" t="n">
         <v>126</v>
@@ -7781,7 +7781,7 @@
         <v>13</v>
       </c>
       <c r="AK51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="n">
         <v>11</v>
@@ -7790,7 +7790,7 @@
         <v>34</v>
       </c>
       <c r="AN51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO51" t="n">
         <v>26</v>
@@ -8144,16 +8144,16 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8279,16 +8279,16 @@
         <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R55" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S55" t="n">
         <v>3.25</v>
@@ -8396,22 +8396,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="n">
         <v>1.95</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.1</v>
@@ -8438,31 +8438,31 @@
         <v>1.17</v>
       </c>
       <c r="U56" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V56" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X56" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA56" t="n">
         <v>9.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD56" t="n">
         <v>41</v>
@@ -8474,31 +8474,31 @@
         <v>6.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI56" t="n">
         <v>101</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
       </c>
       <c r="AN56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO56" t="n">
         <v>41</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>51</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8541,22 +8541,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
         <v>9.5</v>
       </c>
       <c r="J57" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8589,13 +8589,13 @@
         <v>2.63</v>
       </c>
       <c r="W57" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z57" t="n">
         <v>5.5</v>
@@ -8610,7 +8610,7 @@
         <v>15</v>
       </c>
       <c r="AD57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE57" t="n">
         <v>8</v>
@@ -8619,10 +8619,10 @@
         <v>8</v>
       </c>
       <c r="AG57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH57" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI57" t="n">
         <v>101</v>
@@ -8972,19 +8972,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
         <v>2.4</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
@@ -9002,10 +9002,10 @@
         <v>3.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
         <v>3.5</v>
@@ -9014,10 +9014,10 @@
         <v>1.29</v>
       </c>
       <c r="U60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W60" t="n">
         <v>1.83</v>
@@ -9035,7 +9035,7 @@
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
         <v>15</v>
@@ -9270,22 +9270,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J62" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -9300,10 +9300,10 @@
         <v>2.38</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R62" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S62" t="n">
         <v>5.5</v>
@@ -9312,10 +9312,10 @@
         <v>1.14</v>
       </c>
       <c r="U62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W62" t="n">
         <v>2.5</v>
@@ -9327,10 +9327,10 @@
         <v>4.75</v>
       </c>
       <c r="Z62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB62" t="n">
         <v>13</v>
@@ -9342,7 +9342,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
@@ -9357,13 +9357,13 @@
         <v>101</v>
       </c>
       <c r="AJ62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK62" t="n">
         <v>23</v>
       </c>
       <c r="AL62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM62" t="n">
         <v>51</v>
@@ -9372,7 +9372,7 @@
         <v>51</v>
       </c>
       <c r="AO62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP62" t="n">
         <v>4.4</v>
@@ -9381,10 +9381,10 @@
         <v>1.2</v>
       </c>
       <c r="AR62" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="63">
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
@@ -9437,10 +9437,10 @@
         <v>3.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O63" t="n">
         <v>1.5</v>
@@ -9482,7 +9482,7 @@
         <v>11</v>
       </c>
       <c r="AB63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC63" t="n">
         <v>23</v>
@@ -9673,16 +9673,16 @@
         <v>41</v>
       </c>
       <c r="AP64" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="65">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H65" t="n">
         <v>4.33</v>
       </c>
       <c r="I65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>2.25</v>
@@ -9735,10 +9735,10 @@
         <v>7</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O65" t="n">
         <v>1.3</v>
@@ -9747,16 +9747,16 @@
         <v>3.4</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U65" t="n">
         <v>1.4</v>
@@ -9777,7 +9777,7 @@
         <v>6</v>
       </c>
       <c r="AA65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
         <v>9.5</v>
@@ -9789,7 +9789,7 @@
         <v>34</v>
       </c>
       <c r="AE65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF65" t="n">
         <v>8.5</v>
@@ -9876,28 +9876,28 @@
         <v>2.38</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R66" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S66" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T66" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U66" t="n">
         <v>1.3</v>
@@ -10144,19 +10144,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="H68" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I68" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J68" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="K68" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L68" t="n">
         <v>1.7</v>
@@ -10186,7 +10186,7 @@
         <v>1.55</v>
       </c>
       <c r="U68" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V68" t="n">
         <v>3.3</v>
@@ -10201,10 +10201,10 @@
         <v>23</v>
       </c>
       <c r="Z68" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA68" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB68" t="n">
         <v>350</v>
@@ -10213,13 +10213,13 @@
         <v>150</v>
       </c>
       <c r="AD68" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE68" t="n">
         <v>9.75</v>
       </c>
       <c r="AF68" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG68" t="n">
         <v>25</v>
@@ -10228,19 +10228,19 @@
         <v>120</v>
       </c>
       <c r="AI68" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ68" t="n">
         <v>6.9</v>
       </c>
       <c r="AK68" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AL68" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM68" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AN68" t="n">
         <v>11.5</v>
@@ -10288,31 +10288,31 @@
         <v>1.2</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I69" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J69" t="n">
         <v>1.6</v>
       </c>
       <c r="K69" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L69" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.19</v>
       </c>
       <c r="P69" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="Q69" t="n">
         <v>1.6</v>
@@ -10321,7 +10321,7 @@
         <v>2.27</v>
       </c>
       <c r="S69" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T69" t="n">
         <v>1.53</v>
@@ -10336,7 +10336,7 @@
         <v>2.32</v>
       </c>
       <c r="X69" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y69" t="n">
         <v>6.2</v>
@@ -10348,7 +10348,7 @@
         <v>10.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AC69" t="n">
         <v>12</v>
@@ -10357,10 +10357,10 @@
         <v>40</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG69" t="n">
         <v>35</v>
@@ -10378,13 +10378,13 @@
         <v>150</v>
       </c>
       <c r="AL69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM69" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN69" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AO69" t="n">
         <v>200</v>
@@ -10712,28 +10712,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H72" t="n">
         <v>3.2</v>
       </c>
       <c r="I72" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K72" t="n">
         <v>2.1</v>
       </c>
       <c r="L72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -10775,10 +10775,10 @@
         <v>9</v>
       </c>
       <c r="AB72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD72" t="n">
         <v>29</v>
@@ -11421,13 +11421,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H77" t="n">
         <v>5.75</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J77" t="n">
         <v>1.73</v>
@@ -11436,13 +11436,13 @@
         <v>2.63</v>
       </c>
       <c r="L77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O77" t="n">
         <v>1.17</v>
@@ -11457,55 +11457,55 @@
         <v>2.4</v>
       </c>
       <c r="S77" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T77" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U77" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V77" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X77" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC77" t="n">
         <v>11</v>
       </c>
       <c r="AD77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE77" t="n">
         <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI77" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ77" t="n">
         <v>21</v>
@@ -11526,10 +11526,10 @@
         <v>51</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I78" t="n">
         <v>2.9</v>
@@ -11711,10 +11711,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I79" t="n">
         <v>2.15</v>
@@ -11735,10 +11735,10 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P79" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q79" t="n">
         <v>1.7</v>
@@ -11898,7 +11898,7 @@
         <v>1.44</v>
       </c>
       <c r="U80" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V80" t="n">
         <v>3.25</v>
@@ -12043,10 +12043,10 @@
         <v>1.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V81" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W81" t="n">
         <v>1.8</v>
@@ -12184,7 +12184,7 @@
         <v>1.17</v>
       </c>
       <c r="U82" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V82" t="n">
         <v>2.25</v>
@@ -12329,7 +12329,7 @@
         <v>1.44</v>
       </c>
       <c r="U83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V83" t="n">
         <v>3.25</v>
@@ -12581,10 +12581,10 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P85" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q85" t="n">
         <v>1.6</v>
@@ -12601,10 +12601,10 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X85" t="n">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="Y85" t="n">
         <v>8.5</v>
@@ -12694,16 +12694,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H86" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
         <v>5.2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K86" t="n">
         <v>2.12</v>
@@ -12713,55 +12713,69 @@
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="O86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3.05</v>
+      </c>
       <c r="Q86" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X86" t="n">
         <v>1.7</v>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V86" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
       <c r="Y86" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z86" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB86" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC86" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD86" t="n">
         <v>25</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AF86" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AG86" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI86" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>101</v>
+      </c>
       <c r="AJ86" t="n">
         <v>10.25</v>
       </c>
@@ -12769,7 +12783,7 @@
         <v>23</v>
       </c>
       <c r="AL86" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM86" t="n">
         <v>75</v>
@@ -12859,7 +12873,7 @@
         <v>1.4</v>
       </c>
       <c r="U87" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V87" t="n">
         <v>3.25</v>
@@ -12961,13 +12975,13 @@
         <v>2.8</v>
       </c>
       <c r="H88" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I88" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J88" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K88" t="n">
         <v>2.1</v>
@@ -12979,7 +12993,7 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O88" t="n">
         <v>1.3</v>
@@ -13000,22 +13014,22 @@
         <v>1.29</v>
       </c>
       <c r="U88" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V88" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W88" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X88" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA88" t="n">
         <v>11</v>
@@ -13027,37 +13041,37 @@
         <v>23</v>
       </c>
       <c r="AD88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE88" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF88" t="n">
         <v>6.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH88" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI88" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK88" t="n">
         <v>12</v>
       </c>
       <c r="AL88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM88" t="n">
         <v>23</v>
       </c>
       <c r="AN88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO88" t="n">
         <v>29</v>
@@ -13141,7 +13155,7 @@
         <v>1.36</v>
       </c>
       <c r="U89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V89" t="n">
         <v>3</v>
@@ -13240,16 +13254,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K90" t="n">
         <v>2.3</v>
@@ -13309,7 +13323,7 @@
         <v>15</v>
       </c>
       <c r="AD90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE90" t="n">
         <v>13</v>
@@ -13318,7 +13332,7 @@
         <v>7</v>
       </c>
       <c r="AG90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH90" t="n">
         <v>41</v>
@@ -13336,10 +13350,10 @@
         <v>12</v>
       </c>
       <c r="AM90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO90" t="n">
         <v>29</v>
@@ -13402,7 +13416,7 @@
         <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O91" t="n">
         <v>1.25</v>
@@ -13438,7 +13452,7 @@
         <v>8.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA91" t="n">
         <v>9</v>
@@ -13543,7 +13557,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O92" t="n">
         <v>1.25</v>
@@ -13552,10 +13566,10 @@
         <v>3.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R92" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S92" t="n">
         <v>3</v>
@@ -13576,7 +13590,7 @@
         <v>2.1</v>
       </c>
       <c r="Y92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z92" t="n">
         <v>11</v>
@@ -13591,10 +13605,10 @@
         <v>17</v>
       </c>
       <c r="AD92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF92" t="n">
         <v>6.5</v>
@@ -13615,7 +13629,7 @@
         <v>17</v>
       </c>
       <c r="AL92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM92" t="n">
         <v>34</v>
@@ -13687,10 +13701,10 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q93" t="n">
         <v>2.1</v>
@@ -13812,22 +13826,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M94" t="n">
         <v>1.07</v>
@@ -13875,7 +13889,7 @@
         <v>8.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC94" t="n">
         <v>15</v>
@@ -13914,19 +13928,19 @@
         <v>41</v>
       </c>
       <c r="AO94" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP94" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="95">
@@ -13991,10 +14005,10 @@
         <v>3.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R95" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S95" t="n">
         <v>3</v>
@@ -14262,7 +14276,7 @@
         <v>6.5</v>
       </c>
       <c r="H97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I97" t="n">
         <v>1.62</v>
@@ -14271,7 +14285,7 @@
         <v>6.5</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L97" t="n">
         <v>2.3</v>
@@ -14283,10 +14297,10 @@
         <v>7</v>
       </c>
       <c r="O97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P97" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q97" t="n">
         <v>2.35</v>
@@ -14295,16 +14309,16 @@
         <v>1.57</v>
       </c>
       <c r="S97" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T97" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U97" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V97" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W97" t="n">
         <v>2.25</v>
@@ -14328,7 +14342,7 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE97" t="n">
         <v>7</v>
@@ -14346,7 +14360,7 @@
         <v>451</v>
       </c>
       <c r="AJ97" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK97" t="n">
         <v>6.5</v>
@@ -14355,25 +14369,25 @@
         <v>9</v>
       </c>
       <c r="AM97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO97" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP97" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AR97" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="98">
@@ -14408,10 +14422,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H98" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I98" t="n">
         <v>12</v>
@@ -14429,43 +14443,43 @@
         <v>1.03</v>
       </c>
       <c r="N98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O98" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P98" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R98" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T98" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U98" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V98" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W98" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X98" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y98" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA98" t="n">
         <v>9</v>
@@ -14480,19 +14494,19 @@
         <v>26</v>
       </c>
       <c r="AE98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG98" t="n">
         <v>21</v>
       </c>
       <c r="AH98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI98" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ98" t="n">
         <v>29</v>
@@ -14513,10 +14527,10 @@
         <v>67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AR98" t="n">
         <v>1.24</v>
@@ -14557,34 +14571,34 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H99" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K99" t="n">
         <v>1.83</v>
       </c>
       <c r="L99" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O99" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P99" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q99" t="n">
         <v>2.88</v>
@@ -14599,22 +14613,22 @@
         <v>1.13</v>
       </c>
       <c r="U99" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V99" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W99" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X99" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y99" t="n">
         <v>5.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA99" t="n">
         <v>10</v>
@@ -14644,13 +14658,13 @@
         <v>101</v>
       </c>
       <c r="AJ99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM99" t="n">
         <v>41</v>
@@ -14662,7 +14676,7 @@
         <v>51</v>
       </c>
       <c r="AP99" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.18</v>
@@ -14724,10 +14738,10 @@
         <v>2.63</v>
       </c>
       <c r="M100" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O100" t="n">
         <v>1.29</v>
@@ -14754,13 +14768,13 @@
         <v>2.75</v>
       </c>
       <c r="W100" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X100" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z100" t="n">
         <v>19</v>
@@ -14787,7 +14801,7 @@
         <v>15</v>
       </c>
       <c r="AH100" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI100" t="n">
         <v>201</v>
@@ -14928,7 +14942,7 @@
         <v>15</v>
       </c>
       <c r="AH101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI101" t="n">
         <v>201</v>
@@ -14988,22 +15002,22 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H102" t="n">
         <v>3.4</v>
       </c>
       <c r="I102" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="J102" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K102" t="n">
         <v>2.3</v>
       </c>
       <c r="L102" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M102" t="n">
         <v>1.03</v>
@@ -15042,22 +15056,22 @@
         <v>2.5</v>
       </c>
       <c r="Y102" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA102" t="n">
         <v>11</v>
       </c>
-      <c r="Z102" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD102" t="n">
         <v>23</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>21</v>
       </c>
       <c r="AE102" t="n">
         <v>15</v>
@@ -15075,19 +15089,19 @@
         <v>101</v>
       </c>
       <c r="AJ102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN102" t="n">
         <v>17</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>21</v>
       </c>
       <c r="AO102" t="n">
         <v>23</v>
@@ -15291,7 +15305,7 @@
         <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -15429,22 +15443,22 @@
         <v>7</v>
       </c>
       <c r="M105" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O105" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P105" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R105" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S105" t="n">
         <v>2.25</v>
@@ -15516,10 +15530,10 @@
         <v>41</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15703,7 +15717,7 @@
         <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J107" t="n">
         <v>2.88</v>
@@ -16005,28 +16019,28 @@
         <v>4</v>
       </c>
       <c r="M109" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N109" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O109" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P109" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R109" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S109" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T109" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U109" t="n">
         <v>1.53</v>
@@ -16094,10 +16108,10 @@
       <c r="AP109" t="inlineStr"/>
       <c r="AQ109" t="inlineStr"/>
       <c r="AR109" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="110">
@@ -16132,22 +16146,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K110" t="n">
         <v>2.25</v>
       </c>
       <c r="L110" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M110" t="n">
         <v>1.04</v>
@@ -16189,7 +16203,7 @@
         <v>11</v>
       </c>
       <c r="Z110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA110" t="n">
         <v>11</v>
@@ -16198,7 +16212,7 @@
         <v>29</v>
       </c>
       <c r="AC110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD110" t="n">
         <v>29</v>
@@ -16228,7 +16242,7 @@
         <v>9.5</v>
       </c>
       <c r="AM110" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN110" t="n">
         <v>17</v>
@@ -16273,13 +16287,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H111" t="n">
         <v>3.2</v>
       </c>
       <c r="I111" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J111" t="n">
         <v>3</v>
@@ -16288,13 +16302,13 @@
         <v>2.05</v>
       </c>
       <c r="L111" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M111" t="n">
         <v>1.07</v>
       </c>
       <c r="N111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O111" t="n">
         <v>1.36</v>
@@ -16315,10 +16329,10 @@
         <v>1.22</v>
       </c>
       <c r="U111" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V111" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W111" t="n">
         <v>1.83</v>
@@ -16357,7 +16371,7 @@
         <v>51</v>
       </c>
       <c r="AI111" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ111" t="n">
         <v>9</v>
@@ -16372,7 +16386,7 @@
         <v>34</v>
       </c>
       <c r="AN111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO111" t="n">
         <v>41</v>
@@ -16414,28 +16428,28 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
       </c>
       <c r="I112" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J112" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K112" t="n">
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -16450,10 +16464,10 @@
         <v>1.75</v>
       </c>
       <c r="S112" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T112" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U112" t="n">
         <v>1.44</v>
@@ -16471,13 +16485,13 @@
         <v>7</v>
       </c>
       <c r="Z112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA112" t="n">
         <v>9</v>
       </c>
       <c r="AB112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC112" t="n">
         <v>17</v>
@@ -16504,7 +16518,7 @@
         <v>11</v>
       </c>
       <c r="AK112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL112" t="n">
         <v>13</v>
@@ -16696,19 +16710,19 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>3.2</v>
       </c>
       <c r="I114" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L114" t="n">
         <v>4.33</v>
@@ -16744,22 +16758,22 @@
         <v>2.38</v>
       </c>
       <c r="W114" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X114" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y114" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z114" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA114" t="n">
         <v>9.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC114" t="n">
         <v>21</v>
@@ -16768,13 +16782,13 @@
         <v>34</v>
       </c>
       <c r="AE114" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF114" t="n">
         <v>6</v>
       </c>
       <c r="AG114" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH114" t="n">
         <v>67</v>
@@ -16841,22 +16855,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H115" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I115" t="n">
         <v>3.25</v>
       </c>
-      <c r="I115" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J115" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K115" t="n">
         <v>2.05</v>
       </c>
       <c r="L115" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M115" t="n">
         <v>1.07</v>
@@ -16871,10 +16885,10 @@
         <v>3</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R115" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S115" t="n">
         <v>4</v>
@@ -16895,19 +16909,19 @@
         <v>1.8</v>
       </c>
       <c r="Y115" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA115" t="n">
         <v>9.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD115" t="n">
         <v>34</v>
@@ -16928,7 +16942,7 @@
         <v>351</v>
       </c>
       <c r="AJ115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK115" t="n">
         <v>15</v>
@@ -16940,7 +16954,7 @@
         <v>34</v>
       </c>
       <c r="AN115" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO115" t="n">
         <v>41</v>
@@ -17003,7 +17017,7 @@
         <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O116" t="n">
         <v>1.36</v>
@@ -17401,22 +17415,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H119" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I119" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J119" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K119" t="n">
         <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M119" t="n">
         <v>1.07</v>
@@ -17437,16 +17451,16 @@
         <v>1.67</v>
       </c>
       <c r="S119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U119" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V119" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W119" t="n">
         <v>1.91</v>
@@ -17455,16 +17469,16 @@
         <v>1.91</v>
       </c>
       <c r="Y119" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC119" t="n">
         <v>29</v>
@@ -17473,7 +17487,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF119" t="n">
         <v>6</v>
@@ -17491,19 +17505,19 @@
         <v>7</v>
       </c>
       <c r="AK119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL119" t="n">
         <v>9.5</v>
       </c>
-      <c r="AL119" t="n">
-        <v>9</v>
-      </c>
       <c r="AM119" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN119" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO119" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP119" t="inlineStr"/>
       <c r="AQ119" t="inlineStr"/>
@@ -17952,25 +17966,25 @@
         <v>10</v>
       </c>
       <c r="H123" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I123" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J123" t="n">
         <v>12</v>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L123" t="n">
         <v>2.05</v>
       </c>
       <c r="M123" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O123" t="n">
         <v>1.57</v>
@@ -18021,7 +18035,7 @@
         <v>151</v>
       </c>
       <c r="AE123" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF123" t="n">
         <v>9</v>
@@ -18048,7 +18062,7 @@
         <v>8</v>
       </c>
       <c r="AN123" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO123" t="n">
         <v>51</v>
@@ -18096,28 +18110,28 @@
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J124" t="n">
         <v>2.75</v>
       </c>
       <c r="K124" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L124" t="n">
         <v>5.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N124" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O124" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P124" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q124" t="n">
         <v>2.88</v>
@@ -18126,16 +18140,16 @@
         <v>1.4</v>
       </c>
       <c r="S124" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U124" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V124" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W124" t="n">
         <v>2.5</v>
@@ -18144,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z124" t="n">
         <v>7.5</v>
@@ -18162,13 +18176,13 @@
         <v>41</v>
       </c>
       <c r="AE124" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF124" t="n">
         <v>6.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH124" t="n">
         <v>101</v>
@@ -18177,7 +18191,7 @@
         <v>101</v>
       </c>
       <c r="AJ124" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK124" t="n">
         <v>21</v>
@@ -18235,13 +18249,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J125" t="n">
         <v>4</v>
@@ -18250,7 +18264,7 @@
         <v>1.95</v>
       </c>
       <c r="L125" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M125" t="n">
         <v>1.1</v>
@@ -18277,10 +18291,10 @@
         <v>1.18</v>
       </c>
       <c r="U125" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V125" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W125" t="n">
         <v>2</v>
@@ -18295,7 +18309,7 @@
         <v>15</v>
       </c>
       <c r="AA125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB125" t="n">
         <v>34</v>
@@ -18319,7 +18333,7 @@
         <v>67</v>
       </c>
       <c r="AI125" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ125" t="n">
         <v>6.5</v>
@@ -18331,10 +18345,10 @@
         <v>10</v>
       </c>
       <c r="AM125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -18422,10 +18436,10 @@
         <v>1.25</v>
       </c>
       <c r="U126" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V126" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W126" t="n">
         <v>2.2</v>
@@ -18563,7 +18577,7 @@
         <v>1.29</v>
       </c>
       <c r="U127" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V127" t="n">
         <v>2.75</v>
@@ -18781,10 +18795,10 @@
         <v>1.83</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS128" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="129">
@@ -18837,10 +18851,10 @@
         <v>3.5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O129" t="n">
         <v>1.2</v>
@@ -18849,10 +18863,10 @@
         <v>4.33</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R129" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S129" t="n">
         <v>2.63</v>
@@ -19101,7 +19115,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H131" t="n">
         <v>3.5</v>
@@ -19404,7 +19418,7 @@
         <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O133" t="n">
         <v>1.17</v>
@@ -19488,10 +19502,10 @@
         <v>41</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR133" t="inlineStr"/>
       <c r="AS133" t="inlineStr"/>
@@ -19669,13 +19683,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H135" t="n">
         <v>3.1</v>
       </c>
       <c r="I135" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J135" t="n">
         <v>2.88</v>
@@ -19744,7 +19758,7 @@
         <v>6</v>
       </c>
       <c r="AF135" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG135" t="n">
         <v>21</v>
@@ -19765,7 +19779,7 @@
         <v>15</v>
       </c>
       <c r="AM135" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN135" t="n">
         <v>41</v>
@@ -19980,7 +19994,7 @@
         <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O137" t="n">
         <v>1.36</v>
@@ -20100,16 +20114,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>3.2</v>
       </c>
       <c r="I138" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K138" t="n">
         <v>2.05</v>
@@ -20154,10 +20168,10 @@
         <v>1.83</v>
       </c>
       <c r="Y138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA138" t="n">
         <v>9.5</v>
@@ -20166,10 +20180,10 @@
         <v>21</v>
       </c>
       <c r="AC138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE138" t="n">
         <v>8.5</v>
@@ -20187,7 +20201,7 @@
         <v>301</v>
       </c>
       <c r="AJ138" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK138" t="n">
         <v>15</v>
@@ -20199,7 +20213,7 @@
         <v>34</v>
       </c>
       <c r="AN138" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO138" t="n">
         <v>41</v>
@@ -20424,7 +20438,7 @@
         <v>1.4</v>
       </c>
       <c r="U140" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V140" t="n">
         <v>3</v>
@@ -20553,10 +20567,10 @@
         <v>3.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R141" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S141" t="n">
         <v>3.25</v>
@@ -20565,7 +20579,7 @@
         <v>1.33</v>
       </c>
       <c r="U141" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V141" t="n">
         <v>2.75</v>
@@ -21087,19 +21101,19 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H145" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I145" t="n">
         <v>1.14</v>
       </c>
       <c r="J145" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K145" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L145" t="n">
         <v>1.44</v>
@@ -21117,52 +21131,52 @@
         <v>13</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R145" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S145" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T145" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U145" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="V145" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="W145" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X145" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y145" t="n">
         <v>51</v>
       </c>
       <c r="Z145" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA145" t="n">
         <v>34</v>
       </c>
       <c r="AB145" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AC145" t="n">
         <v>67</v>
       </c>
       <c r="AD145" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE145" t="n">
         <v>34</v>
       </c>
       <c r="AF145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG145" t="n">
         <v>21</v>
@@ -21171,25 +21185,25 @@
         <v>41</v>
       </c>
       <c r="AI145" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK145" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM145" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AN145" t="n">
         <v>11</v>
       </c>
       <c r="AO145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21369,43 +21383,43 @@
         </is>
       </c>
       <c r="G147" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.05</v>
       </c>
-      <c r="H147" t="n">
-        <v>3.95</v>
-      </c>
       <c r="I147" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J147" t="n">
         <v>4.2</v>
       </c>
       <c r="K147" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L147" t="n">
         <v>2.25</v>
       </c>
       <c r="M147" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N147" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O147" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P147" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q147" t="n">
         <v>1.6</v>
       </c>
       <c r="R147" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S147" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="T147" t="n">
         <v>1.52</v>
@@ -21420,16 +21434,16 @@
         <v>1.6</v>
       </c>
       <c r="X147" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Y147" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z147" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA147" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB147" t="n">
         <v>70</v>
@@ -21441,16 +21455,16 @@
         <v>35</v>
       </c>
       <c r="AE147" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF147" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI147" t="n">
         <v>350</v>
@@ -21459,13 +21473,13 @@
         <v>8.75</v>
       </c>
       <c r="AK147" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AL147" t="n">
         <v>8.75</v>
       </c>
       <c r="AM147" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN147" t="n">
         <v>13.5</v>
@@ -21798,7 +21812,7 @@
         <v>3.5</v>
       </c>
       <c r="I150" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J150" t="n">
         <v>2.4</v>
@@ -21810,10 +21824,10 @@
         <v>4.75</v>
       </c>
       <c r="M150" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O150" t="n">
         <v>1.29</v>
@@ -21840,10 +21854,10 @@
         <v>2.75</v>
       </c>
       <c r="W150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X150" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y150" t="n">
         <v>7</v>
@@ -21864,7 +21878,7 @@
         <v>26</v>
       </c>
       <c r="AE150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF150" t="n">
         <v>6.5</v>
@@ -21891,7 +21905,7 @@
         <v>51</v>
       </c>
       <c r="AN150" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO150" t="n">
         <v>41</v>
@@ -21933,16 +21947,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H151" t="n">
         <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J151" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K151" t="n">
         <v>2.05</v>
@@ -21993,10 +22007,10 @@
         <v>10</v>
       </c>
       <c r="AA151" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC151" t="n">
         <v>19</v>
@@ -22020,16 +22034,16 @@
         <v>301</v>
       </c>
       <c r="AJ151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK151" t="n">
         <v>17</v>
       </c>
       <c r="AL151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM151" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN151" t="n">
         <v>29</v>
@@ -22215,28 +22229,28 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>3.25</v>
       </c>
       <c r="I153" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J153" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K153" t="n">
         <v>2.1</v>
       </c>
       <c r="L153" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M153" t="n">
         <v>1.06</v>
       </c>
       <c r="N153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O153" t="n">
         <v>1.3</v>
@@ -22251,10 +22265,10 @@
         <v>1.8</v>
       </c>
       <c r="S153" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T153" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U153" t="n">
         <v>1.4</v>
@@ -22272,7 +22286,7 @@
         <v>9</v>
       </c>
       <c r="Z153" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA153" t="n">
         <v>11</v>
@@ -22284,16 +22298,16 @@
         <v>23</v>
       </c>
       <c r="AD153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF153" t="n">
         <v>6.5</v>
       </c>
       <c r="AG153" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH153" t="n">
         <v>51</v>
@@ -22362,7 +22376,7 @@
         <v>3.6</v>
       </c>
       <c r="I154" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J154" t="n">
         <v>5</v>
@@ -22497,13 +22511,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I155" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J155" t="n">
         <v>3.25</v>
@@ -22512,13 +22526,13 @@
         <v>1.83</v>
       </c>
       <c r="L155" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N155" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O155" t="n">
         <v>1.62</v>
@@ -22545,10 +22559,10 @@
         <v>2.1</v>
       </c>
       <c r="W155" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X155" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y155" t="n">
         <v>5.5</v>
@@ -22572,7 +22586,7 @@
         <v>5.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG155" t="n">
         <v>23</v>
@@ -22584,13 +22598,13 @@
         <v>101</v>
       </c>
       <c r="AJ155" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK155" t="n">
         <v>15</v>
       </c>
       <c r="AL155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM155" t="n">
         <v>41</v>
@@ -22642,13 +22656,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H156" t="n">
         <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J156" t="n">
         <v>3.5</v>
@@ -22787,28 +22801,28 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J157" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K157" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L157" t="n">
         <v>8.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N157" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O157" t="n">
         <v>1.25</v>
@@ -22832,7 +22846,7 @@
         <v>1.33</v>
       </c>
       <c r="V157" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W157" t="n">
         <v>2.2</v>
@@ -22859,10 +22873,10 @@
         <v>29</v>
       </c>
       <c r="AE157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF157" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG157" t="n">
         <v>23</v>
@@ -22874,7 +22888,7 @@
         <v>1250</v>
       </c>
       <c r="AJ157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK157" t="n">
         <v>41</v>
@@ -22883,7 +22897,7 @@
         <v>26</v>
       </c>
       <c r="AM157" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN157" t="n">
         <v>67</v>
@@ -22928,7 +22942,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H158" t="n">
         <v>3.8</v>
@@ -22970,10 +22984,10 @@
         <v>1.25</v>
       </c>
       <c r="U158" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V158" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W158" t="n">
         <v>2.2</v>
@@ -23069,7 +23083,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>3.5</v>
@@ -23358,10 +23372,10 @@
         <v>2.63</v>
       </c>
       <c r="H161" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I161" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J161" t="n">
         <v>3.4</v>
@@ -23370,13 +23384,13 @@
         <v>2.1</v>
       </c>
       <c r="L161" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M161" t="n">
         <v>1.06</v>
       </c>
       <c r="N161" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O161" t="n">
         <v>1.3</v>
@@ -23427,7 +23441,7 @@
         <v>34</v>
       </c>
       <c r="AE161" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF161" t="n">
         <v>6</v>
@@ -23457,7 +23471,7 @@
         <v>21</v>
       </c>
       <c r="AO161" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
@@ -23919,22 +23933,22 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I165" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J165" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="K165" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L165" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M165" t="n">
         <v>1.03</v>
@@ -23943,37 +23957,37 @@
         <v>9</v>
       </c>
       <c r="O165" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P165" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R165" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S165" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T165" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U165" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V165" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="W165" t="n">
         <v>1.47</v>
       </c>
       <c r="X165" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Y165" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z165" t="n">
         <v>12.5</v>
@@ -23982,19 +23996,19 @@
         <v>8.75</v>
       </c>
       <c r="AB165" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC165" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD165" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE165" t="n">
         <v>9</v>
       </c>
       <c r="AF165" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AG165" t="n">
         <v>11.25</v>
@@ -24012,16 +24026,16 @@
         <v>21</v>
       </c>
       <c r="AL165" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM165" t="n">
         <v>45</v>
       </c>
       <c r="AN165" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO165" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
@@ -24201,13 +24215,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H167" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J167" t="n">
         <v>4.33</v>
@@ -24258,7 +24272,7 @@
         <v>10</v>
       </c>
       <c r="Z167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA167" t="n">
         <v>13</v>
@@ -24273,7 +24287,7 @@
         <v>41</v>
       </c>
       <c r="AE167" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF167" t="n">
         <v>6.5</v>
@@ -24285,7 +24299,7 @@
         <v>51</v>
       </c>
       <c r="AI167" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ167" t="n">
         <v>7</v>
@@ -24297,7 +24311,7 @@
         <v>9</v>
       </c>
       <c r="AM167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN167" t="n">
         <v>17</v>
@@ -24342,22 +24356,22 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I168" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J168" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K168" t="n">
         <v>2.1</v>
       </c>
       <c r="L168" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M168" t="n">
         <v>1.06</v>
@@ -24402,13 +24416,13 @@
         <v>10</v>
       </c>
       <c r="AA168" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB168" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC168" t="n">
         <v>19</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>17</v>
       </c>
       <c r="AD168" t="n">
         <v>29</v>
@@ -24435,16 +24449,16 @@
         <v>17</v>
       </c>
       <c r="AL168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM168" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN168" t="n">
         <v>29</v>
       </c>
       <c r="AO168" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP168" t="inlineStr"/>
       <c r="AQ168" t="inlineStr"/>
@@ -24489,7 +24503,7 @@
         <v>6</v>
       </c>
       <c r="I169" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J169" t="n">
         <v>1.67</v>
@@ -24498,7 +24512,7 @@
         <v>2.75</v>
       </c>
       <c r="L169" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M169" t="n">
         <v>1.02</v>
@@ -24513,16 +24527,16 @@
         <v>5.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R169" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S169" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T169" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U169" t="n">
         <v>1.25</v>
@@ -24531,22 +24545,22 @@
         <v>3.75</v>
       </c>
       <c r="W169" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X169" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y169" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z169" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA169" t="n">
         <v>9.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC169" t="n">
         <v>11</v>
@@ -24567,7 +24581,7 @@
         <v>67</v>
       </c>
       <c r="AI169" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ169" t="n">
         <v>26</v>
@@ -24576,7 +24590,7 @@
         <v>51</v>
       </c>
       <c r="AL169" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM169" t="n">
         <v>126</v>
@@ -24874,10 +24888,10 @@
         <v>3.5</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R172" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S172" t="n">
         <v>3.25</v>
@@ -25267,16 +25281,16 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J175" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.25</v>
       </c>
       <c r="K175" t="n">
         <v>2.05</v>
@@ -25285,10 +25299,10 @@
         <v>3.5</v>
       </c>
       <c r="M175" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N175" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O175" t="n">
         <v>1.33</v>
@@ -25330,7 +25344,7 @@
         <v>10</v>
       </c>
       <c r="AB175" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC175" t="n">
         <v>21</v>
@@ -25339,10 +25353,10 @@
         <v>34</v>
       </c>
       <c r="AE175" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF175" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG175" t="n">
         <v>15</v>
@@ -25354,7 +25368,7 @@
         <v>301</v>
       </c>
       <c r="AJ175" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK175" t="n">
         <v>13</v>
@@ -25690,28 +25704,28 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>3.5</v>
       </c>
       <c r="I178" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J178" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K178" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L178" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M178" t="n">
         <v>1.04</v>
       </c>
       <c r="N178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O178" t="n">
         <v>1.22</v>
@@ -25720,10 +25734,10 @@
         <v>4</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R178" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S178" t="n">
         <v>2.75</v>
@@ -25762,7 +25776,7 @@
         <v>26</v>
       </c>
       <c r="AE178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF178" t="n">
         <v>6.5</v>
@@ -25780,7 +25794,7 @@
         <v>10</v>
       </c>
       <c r="AK178" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL178" t="n">
         <v>10</v>
@@ -25789,7 +25803,7 @@
         <v>26</v>
       </c>
       <c r="AN178" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO178" t="n">
         <v>26</v>
@@ -25972,52 +25986,52 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H180" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I180" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K180" t="n">
         <v>2.4</v>
       </c>
-      <c r="K180" t="n">
-        <v>2.5</v>
-      </c>
       <c r="L180" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M180" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N180" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O180" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P180" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R180" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S180" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T180" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U180" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V180" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W180" t="n">
         <v>1.5</v>
@@ -26044,10 +26058,10 @@
         <v>19</v>
       </c>
       <c r="AE180" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF180" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG180" t="n">
         <v>11</v>
@@ -26077,10 +26091,10 @@
         <v>26</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ180" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26117,109 +26131,109 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H181" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I181" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L181" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N181" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P181" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S181" t="n">
         <v>3.5</v>
       </c>
-      <c r="J181" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K181" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M181" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N181" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O181" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P181" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R181" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S181" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T181" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="U181" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V181" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="W181" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X181" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Y181" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z181" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA181" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC181" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AD181" t="n">
         <v>32</v>
       </c>
       <c r="AE181" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF181" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AG181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH181" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI181" t="n">
         <v>800</v>
       </c>
       <c r="AJ181" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AK181" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL181" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM181" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO181" t="n">
         <v>50</v>
-      </c>
-      <c r="AN181" t="n">
-        <v>35</v>
-      </c>
-      <c r="AO181" t="n">
-        <v>45</v>
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>
@@ -26258,22 +26272,22 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H182" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I182" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="J182" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="K182" t="n">
         <v>2</v>
       </c>
       <c r="L182" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="M182" t="n">
         <v>1.06</v>
@@ -26282,7 +26296,7 @@
         <v>7.3</v>
       </c>
       <c r="O182" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P182" t="n">
         <v>3.6</v>
@@ -26291,40 +26305,40 @@
         <v>1.75</v>
       </c>
       <c r="R182" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S182" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="T182" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U182" t="n">
         <v>1.4</v>
       </c>
       <c r="V182" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W182" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X182" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Y182" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z182" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA182" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB182" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC182" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD182" t="n">
         <v>20</v>
@@ -26336,31 +26350,31 @@
         <v>5.9</v>
       </c>
       <c r="AG182" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH182" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI182" t="n">
         <v>250</v>
       </c>
       <c r="AJ182" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK182" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL182" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM182" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN182" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO182" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP182" t="inlineStr"/>
       <c r="AQ182" t="inlineStr"/>
@@ -26399,22 +26413,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H183" t="n">
         <v>3.5</v>
       </c>
       <c r="I183" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J183" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K183" t="n">
         <v>2.22</v>
       </c>
       <c r="L183" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M183" t="n">
         <v>1.05</v>
@@ -26426,22 +26440,22 @@
         <v>1.25</v>
       </c>
       <c r="P183" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q183" t="n">
         <v>1.75</v>
       </c>
       <c r="R183" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S183" t="n">
         <v>2.8</v>
       </c>
       <c r="T183" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U183" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="V183" t="n">
         <v>2.92</v>
@@ -26450,7 +26464,7 @@
         <v>1.65</v>
       </c>
       <c r="X183" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y183" t="n">
         <v>9.25</v>
@@ -26459,13 +26473,13 @@
         <v>12.5</v>
       </c>
       <c r="AA183" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC183" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD183" t="n">
         <v>26</v>
@@ -26474,10 +26488,10 @@
         <v>8</v>
       </c>
       <c r="AF183" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AG183" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH183" t="n">
         <v>55</v>
@@ -26486,16 +26500,16 @@
         <v>350</v>
       </c>
       <c r="AJ183" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK183" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL183" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM183" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN183" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -701,13 +701,13 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -740,13 +740,13 @@
         <v>4.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>8.5</v>
@@ -755,13 +755,13 @@
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
@@ -782,16 +782,16 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN2" t="n">
         <v>67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>81</v>
       </c>
       <c r="AO2" t="n">
         <v>51</v>
@@ -851,10 +851,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -998,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1145,10 +1145,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
@@ -1157,7 +1157,7 @@
         <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V5" t="n">
         <v>2.75</v>
@@ -1286,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>1.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1439,10 +1439,10 @@
         <v>1.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W7" t="n">
         <v>1.75</v>
@@ -1454,7 +1454,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1640,7 +1640,7 @@
         <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1766,16 +1766,16 @@
         <v>126</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
         <v>23</v>
@@ -1784,10 +1784,10 @@
         <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1969,13 +1969,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.38</v>
@@ -1984,7 +1984,7 @@
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2011,7 +2011,7 @@
         <v>1.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
         <v>3.25</v>
@@ -2026,7 +2026,7 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -2038,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2047,7 +2047,7 @@
         <v>7.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2059,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
@@ -2068,7 +2068,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>34</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
@@ -2156,7 +2156,7 @@
         <v>1.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V12" t="n">
         <v>2.5</v>
@@ -2198,7 +2198,7 @@
         <v>67</v>
       </c>
       <c r="AI12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
@@ -2273,16 +2273,16 @@
         <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2291,16 +2291,16 @@
         <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W13" t="n">
         <v>2.1</v>
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -2426,22 +2426,22 @@
         <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W14" t="n">
         <v>1.8</v>
@@ -2483,10 +2483,10 @@
         <v>251</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>9</v>
@@ -2567,10 +2567,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
         <v>3.5</v>
@@ -2579,7 +2579,7 @@
         <v>1.3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V15" t="n">
         <v>2.75</v>
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.95</v>
@@ -2690,16 +2690,16 @@
         <v>4.33</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>2.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2708,10 +2708,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
@@ -2720,16 +2720,16 @@
         <v>1.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V16" t="n">
         <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -2750,25 +2750,25 @@
         <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF16" t="n">
         <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ16" t="n">
         <v>7.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>8.5</v>
@@ -2847,10 +2847,10 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
         <v>1.7</v>
@@ -2865,7 +2865,7 @@
         <v>1.44</v>
       </c>
       <c r="U17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V17" t="n">
         <v>3.25</v>
@@ -3010,7 +3010,7 @@
         <v>1.44</v>
       </c>
       <c r="U18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V18" t="n">
         <v>3.25</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>1.73</v>
@@ -3155,7 +3155,7 @@
         <v>1.57</v>
       </c>
       <c r="U19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V19" t="n">
         <v>3.5</v>
@@ -3173,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
         <v>8</v>
@@ -3182,13 +3182,13 @@
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>23</v>
@@ -3200,13 +3200,13 @@
         <v>351</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
         <v>101</v>
@@ -3300,7 +3300,7 @@
         <v>1.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V20" t="n">
         <v>2.2</v>
@@ -3443,7 +3443,7 @@
         <v>1.57</v>
       </c>
       <c r="U21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V21" t="n">
         <v>3.5</v>
@@ -3473,13 +3473,13 @@
         <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>67</v>
@@ -3494,13 +3494,13 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
         <v>101</v>
       </c>
       <c r="AN21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO21" t="n">
         <v>51</v>
@@ -3555,7 +3555,7 @@
         <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
@@ -3696,7 +3696,7 @@
         <v>7.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K23" t="n">
         <v>2.4</v>
@@ -3870,10 +3870,10 @@
         <v>1.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W24" t="n">
         <v>2.05</v>
@@ -3985,7 +3985,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L25" t="n">
         <v>3.4</v>
@@ -4152,16 +4152,16 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4280,10 +4280,10 @@
         <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L27" t="n">
         <v>9</v>
@@ -4432,7 +4432,7 @@
         <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
         <v>5.5</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
         <v>1.73</v>
@@ -4883,10 +4883,10 @@
         <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
         <v>3.6</v>
@@ -4916,16 +4916,16 @@
         <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD31" t="n">
         <v>51</v>
@@ -4934,7 +4934,7 @@
         <v>4.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG31" t="n">
         <v>26</v>
@@ -4949,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -5000,10 +5000,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
         <v>4.5</v>
@@ -5012,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L32" t="n">
         <v>5.5</v>
@@ -5024,16 +5024,16 @@
         <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P32" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="n">
         <v>8</v>
@@ -5042,10 +5042,10 @@
         <v>1.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W32" t="n">
         <v>2.75</v>
@@ -5057,7 +5057,7 @@
         <v>4.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA32" t="n">
         <v>11</v>
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
         <v>1.91</v>
@@ -5216,10 +5216,10 @@
         <v>5.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH33" t="n">
         <v>101</v>
@@ -5231,10 +5231,10 @@
         <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM33" t="n">
         <v>67</v>
@@ -5854,22 +5854,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>2.38</v>
       </c>
       <c r="L38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -5902,10 +5902,10 @@
         <v>3.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
         <v>13</v>
@@ -5914,13 +5914,13 @@
         <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB38" t="n">
         <v>41</v>
       </c>
       <c r="AC38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD38" t="n">
         <v>29</v>
@@ -5941,10 +5941,10 @@
         <v>151</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL38" t="n">
         <v>8.5</v>
@@ -5999,13 +5999,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J39" t="n">
         <v>5.5</v>
@@ -6014,13 +6014,13 @@
         <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O39" t="n">
         <v>1.22</v>
@@ -6041,10 +6041,10 @@
         <v>1.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W39" t="n">
         <v>1.8</v>
@@ -6077,7 +6077,7 @@
         <v>7.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
@@ -6089,7 +6089,7 @@
         <v>7.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL39" t="n">
         <v>8.5</v>
@@ -6098,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="AN39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO39" t="n">
         <v>23</v>
@@ -6140,28 +6140,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H40" t="n">
         <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>2.38</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
@@ -6194,22 +6194,22 @@
         <v>1.91</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
         <v>12</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE40" t="n">
         <v>12</v>
@@ -6224,7 +6224,7 @@
         <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ40" t="n">
         <v>17</v>
@@ -6242,7 +6242,7 @@
         <v>51</v>
       </c>
       <c r="AO40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6579,16 +6579,16 @@
         <v>2.38</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -6600,7 +6600,7 @@
         <v>2.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
         <v>3.5</v>
@@ -6639,10 +6639,10 @@
         <v>29</v>
       </c>
       <c r="AE43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG43" t="n">
         <v>17</v>
@@ -6750,10 +6750,10 @@
         <v>1.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W44" t="n">
         <v>1.95</v>
@@ -7268,48 +7268,48 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I48" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T48" t="n">
         <v>1.24</v>
       </c>
       <c r="U48" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V48" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W48" t="n">
         <v>2.32</v>
@@ -7321,13 +7321,13 @@
         <v>5.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AA48" t="n">
         <v>9</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
         <v>13.5</v>
@@ -7336,37 +7336,37 @@
         <v>40</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH48" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI48" t="n">
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL48" t="n">
         <v>29</v>
       </c>
       <c r="AM48" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN48" t="n">
         <v>150</v>
       </c>
       <c r="AO48" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -7435,10 +7435,10 @@
         <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R49" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S49" t="n">
         <v>3.25</v>
@@ -7447,7 +7447,7 @@
         <v>1.33</v>
       </c>
       <c r="U49" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V49" t="n">
         <v>2.75</v>
@@ -7862,10 +7862,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S52" t="n">
         <v>2.75</v>
@@ -8003,10 +8003,10 @@
         <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
         <v>2.63</v>
@@ -8396,22 +8396,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J56" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M56" t="n">
         <v>1.1</v>
@@ -8453,13 +8453,13 @@
         <v>6</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC56" t="n">
         <v>21</v>
@@ -8471,7 +8471,7 @@
         <v>7</v>
       </c>
       <c r="AF56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG56" t="n">
         <v>19</v>
@@ -8483,10 +8483,10 @@
         <v>101</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL56" t="n">
         <v>13</v>
@@ -8541,34 +8541,34 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K57" t="n">
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
         <v>2.1</v>
@@ -8589,52 +8589,52 @@
         <v>2.63</v>
       </c>
       <c r="W57" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="X57" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Y57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA57" t="n">
         <v>9</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC57" t="n">
         <v>15</v>
       </c>
       <c r="AD57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="n">
         <v>8</v>
       </c>
       <c r="AF57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH57" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="n">
         <v>101</v>
       </c>
       <c r="AJ57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK57" t="n">
         <v>41</v>
       </c>
       <c r="AL57" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM57" t="n">
         <v>101</v>
@@ -8643,7 +8643,7 @@
         <v>67</v>
       </c>
       <c r="AO57" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -8682,22 +8682,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I58" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K58" t="n">
         <v>2.3</v>
       </c>
       <c r="L58" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8730,10 +8730,10 @@
         <v>2.75</v>
       </c>
       <c r="W58" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X58" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y58" t="n">
         <v>19</v>
@@ -8745,7 +8745,7 @@
         <v>26</v>
       </c>
       <c r="AB58" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AC58" t="n">
         <v>67</v>
@@ -8757,10 +8757,10 @@
         <v>9.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH58" t="n">
         <v>81</v>
@@ -8772,13 +8772,13 @@
         <v>6</v>
       </c>
       <c r="AK58" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AL58" t="n">
         <v>9</v>
       </c>
       <c r="AM58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN58" t="n">
         <v>13</v>
@@ -8865,7 +8865,7 @@
         <v>1.3</v>
       </c>
       <c r="U59" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V59" t="n">
         <v>2.75</v>
@@ -8928,7 +8928,7 @@
         <v>41</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.46</v>
@@ -8972,16 +8972,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H60" t="n">
         <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J60" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="n">
         <v>2.2</v>
@@ -9014,7 +9014,7 @@
         <v>1.29</v>
       </c>
       <c r="U60" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V60" t="n">
         <v>2.75</v>
@@ -9151,10 +9151,10 @@
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
         <v>3</v>
@@ -9163,7 +9163,7 @@
         <v>1.36</v>
       </c>
       <c r="U61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V61" t="n">
         <v>3</v>
@@ -9226,16 +9226,16 @@
         <v>51</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="62">
@@ -9270,13 +9270,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
         <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
         <v>2.5</v>
@@ -9285,19 +9285,19 @@
         <v>1.95</v>
       </c>
       <c r="L62" t="n">
+        <v>6</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N62" t="n">
         <v>6.5</v>
       </c>
-      <c r="M62" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>7</v>
-      </c>
       <c r="O62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" t="n">
         <v>2.6</v>
@@ -9312,7 +9312,7 @@
         <v>1.14</v>
       </c>
       <c r="U62" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V62" t="n">
         <v>2.25</v>
@@ -9324,7 +9324,7 @@
         <v>1.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z62" t="n">
         <v>6.5</v>
@@ -9348,7 +9348,7 @@
         <v>7</v>
       </c>
       <c r="AG62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH62" t="n">
         <v>101</v>
@@ -9363,7 +9363,7 @@
         <v>23</v>
       </c>
       <c r="AL62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM62" t="n">
         <v>51</v>
@@ -9372,7 +9372,7 @@
         <v>51</v>
       </c>
       <c r="AO62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP62" t="n">
         <v>4.4</v>
@@ -9437,10 +9437,10 @@
         <v>3.75</v>
       </c>
       <c r="M63" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.5</v>
@@ -9461,7 +9461,7 @@
         <v>1.17</v>
       </c>
       <c r="U63" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V63" t="n">
         <v>2.25</v>
@@ -9568,28 +9568,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="n">
         <v>2.05</v>
       </c>
       <c r="L64" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.07</v>
       </c>
       <c r="N64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.36</v>
@@ -9598,10 +9598,10 @@
         <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R64" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S64" t="n">
         <v>4</v>
@@ -9610,10 +9610,10 @@
         <v>1.22</v>
       </c>
       <c r="U64" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="V64" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="W64" t="n">
         <v>2</v>
@@ -9631,7 +9631,7 @@
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC64" t="n">
         <v>17</v>
@@ -9640,16 +9640,16 @@
         <v>34</v>
       </c>
       <c r="AE64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF64" t="n">
         <v>6.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI64" t="n">
         <v>1000</v>
@@ -9759,7 +9759,7 @@
         <v>1.3</v>
       </c>
       <c r="U65" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V65" t="n">
         <v>2.75</v>
@@ -9858,28 +9858,28 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J66" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K66" t="n">
         <v>2.38</v>
       </c>
       <c r="L66" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O66" t="n">
         <v>1.18</v>
@@ -9900,22 +9900,22 @@
         <v>1.5</v>
       </c>
       <c r="U66" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V66" t="n">
         <v>3.4</v>
       </c>
       <c r="W66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y66" t="n">
         <v>15</v>
       </c>
       <c r="Z66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA66" t="n">
         <v>15</v>
@@ -9924,7 +9924,7 @@
         <v>41</v>
       </c>
       <c r="AC66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD66" t="n">
         <v>34</v>
@@ -9936,19 +9936,19 @@
         <v>7</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK66" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>10</v>
       </c>
       <c r="AL66" t="n">
         <v>8.5</v>
@@ -10003,67 +10003,67 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="H67" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I67" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="K67" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L67" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P67" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R67" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S67" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="T67" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U67" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V67" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W67" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y67" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA67" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB67" t="n">
         <v>250</v>
@@ -10072,16 +10072,16 @@
         <v>110</v>
       </c>
       <c r="AD67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE67" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG67" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH67" t="n">
         <v>120</v>
@@ -10093,19 +10093,19 @@
         <v>6.7</v>
       </c>
       <c r="AK67" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AL67" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN67" t="n">
         <v>11.75</v>
       </c>
       <c r="AO67" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10574,43 +10574,43 @@
         <v>2.15</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J71" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K71" t="n">
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T71" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>2</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S71" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.3</v>
       </c>
       <c r="U71" t="n">
         <v>1.4</v>
@@ -10634,7 +10634,7 @@
         <v>9</v>
       </c>
       <c r="AB71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC71" t="n">
         <v>17</v>
@@ -10649,7 +10649,7 @@
         <v>6.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH71" t="n">
         <v>51</v>
@@ -10712,28 +10712,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I72" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J72" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K72" t="n">
         <v>2.1</v>
       </c>
       <c r="L72" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -10742,22 +10742,22 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U72" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V72" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W72" t="n">
         <v>1.8</v>
@@ -10772,22 +10772,22 @@
         <v>9</v>
       </c>
       <c r="AA72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG72" t="n">
         <v>15</v>
@@ -11000,13 +11000,13 @@
         <v>4.2</v>
       </c>
       <c r="I74" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J74" t="n">
         <v>4.75</v>
       </c>
       <c r="K74" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L74" t="n">
         <v>2.2</v>
@@ -11169,7 +11169,7 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R75" t="n">
         <v>1.85</v>
@@ -11280,13 +11280,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I76" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J76" t="n">
         <v>2.2</v>
@@ -11298,10 +11298,10 @@
         <v>5.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O76" t="n">
         <v>1.25</v>
@@ -11313,7 +11313,7 @@
         <v>1.85</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S76" t="n">
         <v>3</v>
@@ -11439,10 +11439,10 @@
         <v>8.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O77" t="n">
         <v>1.17</v>
@@ -11457,10 +11457,10 @@
         <v>2.4</v>
       </c>
       <c r="S77" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T77" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U77" t="n">
         <v>1.29</v>
@@ -11469,16 +11469,16 @@
         <v>3.5</v>
       </c>
       <c r="W77" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X77" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
@@ -11526,10 +11526,10 @@
         <v>51</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11856,13 +11856,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
         <v>2.2</v>
@@ -11898,7 +11898,7 @@
         <v>1.44</v>
       </c>
       <c r="U80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V80" t="n">
         <v>3.25</v>
@@ -11910,7 +11910,7 @@
         <v>2</v>
       </c>
       <c r="Y80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z80" t="n">
         <v>8.5</v>
@@ -11922,7 +11922,7 @@
         <v>13</v>
       </c>
       <c r="AC80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD80" t="n">
         <v>23</v>
@@ -11955,7 +11955,7 @@
         <v>51</v>
       </c>
       <c r="AN80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO80" t="n">
         <v>41</v>
@@ -12043,10 +12043,10 @@
         <v>1.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V81" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W81" t="n">
         <v>1.8</v>
@@ -12184,7 +12184,7 @@
         <v>1.17</v>
       </c>
       <c r="U82" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V82" t="n">
         <v>2.25</v>
@@ -12329,7 +12329,7 @@
         <v>1.44</v>
       </c>
       <c r="U83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V83" t="n">
         <v>3.25</v>
@@ -12428,22 +12428,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="H84" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I84" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="J84" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="K84" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L84" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -12460,10 +12460,10 @@
         <v>2.22</v>
       </c>
       <c r="S84" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T84" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -12471,31 +12471,31 @@
         <v>1.49</v>
       </c>
       <c r="X84" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="Y84" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z84" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA84" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC84" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE84" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF84" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG84" t="n">
         <v>10.25</v>
@@ -12507,22 +12507,22 @@
         <v>150</v>
       </c>
       <c r="AJ84" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK84" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL84" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM84" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN84" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
@@ -12694,30 +12694,30 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H86" t="n">
         <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="K86" t="n">
         <v>2.12</v>
       </c>
       <c r="L86" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P86" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="n">
         <v>1.98</v>
@@ -12726,37 +12726,37 @@
         <v>1.65</v>
       </c>
       <c r="S86" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T86" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U86" t="n">
         <v>1.38</v>
       </c>
       <c r="V86" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="W86" t="n">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="X86" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y86" t="n">
         <v>4.9</v>
       </c>
       <c r="Z86" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA86" t="n">
         <v>7</v>
       </c>
       <c r="AB86" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC86" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD86" t="n">
         <v>25</v>
@@ -12771,25 +12771,25 @@
         <v>15.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="n">
         <v>101</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK86" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL86" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN86" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO86" t="n">
         <v>50</v>
@@ -12879,10 +12879,10 @@
         <v>3.25</v>
       </c>
       <c r="W87" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X87" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y87" t="n">
         <v>7.5</v>
@@ -12972,16 +12972,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J88" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K88" t="n">
         <v>2.1</v>
@@ -13029,7 +13029,7 @@
         <v>9</v>
       </c>
       <c r="Z88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA88" t="n">
         <v>11</v>
@@ -13062,16 +13062,16 @@
         <v>8</v>
       </c>
       <c r="AK88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO88" t="n">
         <v>29</v>
@@ -13134,7 +13134,7 @@
         <v>1.04</v>
       </c>
       <c r="N89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O89" t="n">
         <v>1.25</v>
@@ -13143,10 +13143,10 @@
         <v>3.75</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R89" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S89" t="n">
         <v>3</v>
@@ -13254,16 +13254,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H90" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J90" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K90" t="n">
         <v>2.3</v>
@@ -13296,7 +13296,7 @@
         <v>1.44</v>
       </c>
       <c r="U90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V90" t="n">
         <v>3.25</v>
@@ -13332,13 +13332,13 @@
         <v>7</v>
       </c>
       <c r="AG90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH90" t="n">
         <v>41</v>
       </c>
       <c r="AI90" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ90" t="n">
         <v>13</v>
@@ -13350,10 +13350,10 @@
         <v>12</v>
       </c>
       <c r="AM90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO90" t="n">
         <v>29</v>
@@ -13416,7 +13416,7 @@
         <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O91" t="n">
         <v>1.25</v>
@@ -13437,7 +13437,7 @@
         <v>1.33</v>
       </c>
       <c r="U91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V91" t="n">
         <v>3</v>
@@ -13536,7 +13536,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H92" t="n">
         <v>3.4</v>
@@ -13578,7 +13578,7 @@
         <v>1.36</v>
       </c>
       <c r="U92" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V92" t="n">
         <v>3</v>
@@ -13629,7 +13629,7 @@
         <v>17</v>
       </c>
       <c r="AL92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM92" t="n">
         <v>34</v>
@@ -13782,7 +13782,7 @@
         <v>34</v>
       </c>
       <c r="AP93" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.37</v>
@@ -13791,7 +13791,7 @@
         <v>1.61</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="94">
@@ -13868,10 +13868,10 @@
         <v>1.25</v>
       </c>
       <c r="U94" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V94" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W94" t="n">
         <v>2</v>
@@ -13937,7 +13937,7 @@
         <v>1.37</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AS94" t="n">
         <v>2.34</v>
@@ -13975,13 +13975,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H95" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I95" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J95" t="n">
         <v>7</v>
@@ -13993,40 +13993,40 @@
         <v>1.95</v>
       </c>
       <c r="M95" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R95" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V95" t="n">
         <v>3</v>
       </c>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X95" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y95" t="n">
         <v>19</v>
@@ -14062,7 +14062,7 @@
         <v>351</v>
       </c>
       <c r="AJ95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK95" t="n">
         <v>6.5</v>
@@ -14077,19 +14077,19 @@
         <v>12</v>
       </c>
       <c r="AO95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -14166,7 +14166,7 @@
         <v>1.2</v>
       </c>
       <c r="U96" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V96" t="n">
         <v>2.5</v>
@@ -14315,7 +14315,7 @@
         <v>1.2</v>
       </c>
       <c r="U97" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V97" t="n">
         <v>2.5</v>
@@ -14378,10 +14378,10 @@
         <v>34</v>
       </c>
       <c r="AP97" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR97" t="n">
         <v>1.78</v>
@@ -14464,7 +14464,7 @@
         <v>1.62</v>
       </c>
       <c r="U98" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V98" t="n">
         <v>3.75</v>
@@ -14571,16 +14571,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J99" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K99" t="n">
         <v>1.83</v>
@@ -14613,7 +14613,7 @@
         <v>1.13</v>
       </c>
       <c r="U99" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V99" t="n">
         <v>2.1</v>
@@ -14652,7 +14652,7 @@
         <v>21</v>
       </c>
       <c r="AH99" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI99" t="n">
         <v>101</v>
@@ -14750,10 +14750,10 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R100" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S100" t="n">
         <v>3.25</v>
@@ -14768,7 +14768,7 @@
         <v>2.75</v>
       </c>
       <c r="W100" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X100" t="n">
         <v>2</v>
@@ -14909,7 +14909,7 @@
         <v>3.25</v>
       </c>
       <c r="W101" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X101" t="n">
         <v>2</v>
@@ -15002,22 +15002,22 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K102" t="n">
         <v>2.38</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M102" t="n">
         <v>1.03</v>
@@ -15026,22 +15026,22 @@
         <v>15</v>
       </c>
       <c r="O102" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P102" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R102" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S102" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T102" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U102" t="n">
         <v>1.3</v>
@@ -15050,16 +15050,16 @@
         <v>3.4</v>
       </c>
       <c r="W102" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X102" t="n">
         <v>2.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA102" t="n">
         <v>11</v>
@@ -15068,7 +15068,7 @@
         <v>29</v>
       </c>
       <c r="AC102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD102" t="n">
         <v>23</v>
@@ -15089,13 +15089,13 @@
         <v>101</v>
       </c>
       <c r="AJ102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM102" t="n">
         <v>23</v>
@@ -15104,13 +15104,13 @@
         <v>17</v>
       </c>
       <c r="AO102" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr"/>
@@ -15150,19 +15150,19 @@
         <v>1.88</v>
       </c>
       <c r="H103" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I103" t="n">
         <v>3.9</v>
       </c>
       <c r="J103" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="K103" t="n">
         <v>2.07</v>
       </c>
       <c r="L103" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -15176,7 +15176,7 @@
         <v>1.78</v>
       </c>
       <c r="R103" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S103" t="n">
         <v>2.8</v>
@@ -15185,10 +15185,10 @@
         <v>1.33</v>
       </c>
       <c r="U103" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V103" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W103" t="n">
         <v>1.65</v>
@@ -15197,10 +15197,10 @@
         <v>1.98</v>
       </c>
       <c r="Y103" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z103" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA103" t="n">
         <v>8.25</v>
@@ -15212,7 +15212,7 @@
         <v>15</v>
       </c>
       <c r="AD103" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE103" t="n">
         <v>10.25</v>
@@ -15221,7 +15221,7 @@
         <v>6.5</v>
       </c>
       <c r="AG103" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH103" t="n">
         <v>55</v>
@@ -15233,13 +15233,13 @@
         <v>12.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL103" t="n">
         <v>12.5</v>
       </c>
       <c r="AM103" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN103" t="n">
         <v>35</v>
@@ -15326,10 +15326,10 @@
         <v>1.25</v>
       </c>
       <c r="U104" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V104" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W104" t="n">
         <v>1.83</v>
@@ -15443,22 +15443,22 @@
         <v>7</v>
       </c>
       <c r="M105" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O105" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P105" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R105" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S105" t="n">
         <v>2.25</v>
@@ -15467,7 +15467,7 @@
         <v>1.57</v>
       </c>
       <c r="U105" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V105" t="n">
         <v>3.5</v>
@@ -15530,10 +15530,10 @@
         <v>41</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
@@ -15612,7 +15612,7 @@
         <v>1.3</v>
       </c>
       <c r="U106" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V106" t="n">
         <v>2.75</v>
@@ -15714,10 +15714,10 @@
         <v>2.1</v>
       </c>
       <c r="H107" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
         <v>2.88</v>
@@ -15729,16 +15729,16 @@
         <v>4.33</v>
       </c>
       <c r="M107" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O107" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P107" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q107" t="n">
         <v>2.35</v>
@@ -15759,13 +15759,13 @@
         <v>2.38</v>
       </c>
       <c r="W107" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X107" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y107" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z107" t="n">
         <v>9</v>
@@ -15783,7 +15783,7 @@
         <v>34</v>
       </c>
       <c r="AE107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF107" t="n">
         <v>6</v>
@@ -15798,13 +15798,13 @@
         <v>451</v>
       </c>
       <c r="AJ107" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM107" t="n">
         <v>41</v>
@@ -16001,16 +16001,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K109" t="n">
         <v>1.95</v>
@@ -16043,10 +16043,10 @@
         <v>1.18</v>
       </c>
       <c r="U109" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V109" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W109" t="n">
         <v>2</v>
@@ -16058,10 +16058,10 @@
         <v>6.5</v>
       </c>
       <c r="Z109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB109" t="n">
         <v>21</v>
@@ -16082,16 +16082,16 @@
         <v>17</v>
       </c>
       <c r="AH109" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI109" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ109" t="n">
         <v>8.5</v>
       </c>
       <c r="AK109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL109" t="n">
         <v>13</v>
@@ -16146,16 +16146,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J110" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K110" t="n">
         <v>2.25</v>
@@ -16188,7 +16188,7 @@
         <v>1.4</v>
       </c>
       <c r="U110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V110" t="n">
         <v>3</v>
@@ -16203,7 +16203,7 @@
         <v>11</v>
       </c>
       <c r="Z110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA110" t="n">
         <v>11</v>
@@ -16212,7 +16212,7 @@
         <v>29</v>
       </c>
       <c r="AC110" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD110" t="n">
         <v>29</v>
@@ -16308,7 +16308,7 @@
         <v>1.07</v>
       </c>
       <c r="N111" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O111" t="n">
         <v>1.36</v>
@@ -16329,7 +16329,7 @@
         <v>1.22</v>
       </c>
       <c r="U111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V111" t="n">
         <v>2.5</v>
@@ -16449,7 +16449,7 @@
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -16470,10 +16470,10 @@
         <v>1.29</v>
       </c>
       <c r="U112" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V112" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W112" t="n">
         <v>1.83</v>
@@ -16599,10 +16599,10 @@
         <v>3</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R113" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S113" t="n">
         <v>3.75</v>
@@ -16611,7 +16611,7 @@
         <v>1.25</v>
       </c>
       <c r="U113" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V113" t="n">
         <v>2.5</v>
@@ -16740,10 +16740,10 @@
         <v>2.63</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R114" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S114" t="n">
         <v>4.5</v>
@@ -16752,10 +16752,10 @@
         <v>1.18</v>
       </c>
       <c r="U114" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V114" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W114" t="n">
         <v>2.1</v>
@@ -16817,10 +16817,10 @@
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
       <c r="AR114" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="115">
@@ -16885,10 +16885,10 @@
         <v>3</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R115" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S115" t="n">
         <v>4</v>
@@ -16897,7 +16897,7 @@
         <v>1.22</v>
       </c>
       <c r="U115" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V115" t="n">
         <v>2.5</v>
@@ -17038,10 +17038,10 @@
         <v>1.25</v>
       </c>
       <c r="U116" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V116" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W116" t="n">
         <v>1.91</v>
@@ -17140,10 +17140,10 @@
         <v>1.82</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I117" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J117" t="n">
         <v>2.4</v>
@@ -17152,7 +17152,7 @@
         <v>2.07</v>
       </c>
       <c r="L117" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -17166,7 +17166,7 @@
         <v>2.05</v>
       </c>
       <c r="R117" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S117" t="n">
         <v>3.75</v>
@@ -17187,7 +17187,7 @@
         <v>1.74</v>
       </c>
       <c r="Y117" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z117" t="n">
         <v>6.7</v>
@@ -17205,7 +17205,7 @@
         <v>25</v>
       </c>
       <c r="AE117" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF117" t="n">
         <v>5.7</v>
@@ -17217,7 +17217,7 @@
         <v>70</v>
       </c>
       <c r="AI117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ117" t="n">
         <v>8.25</v>
@@ -17232,7 +17232,7 @@
         <v>45</v>
       </c>
       <c r="AN117" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO117" t="n">
         <v>40</v>
@@ -17274,22 +17274,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I118" t="n">
-        <v>2.87</v>
+        <v>2.52</v>
       </c>
       <c r="J118" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K118" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="L118" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="M118" t="n">
         <v>1.09</v>
@@ -17322,34 +17322,34 @@
         <v>2.18</v>
       </c>
       <c r="W118" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X118" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Y118" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB118" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AC118" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AD118" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE118" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF118" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AG118" t="n">
         <v>14.5</v>
@@ -17361,22 +17361,22 @@
         <v>101</v>
       </c>
       <c r="AJ118" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AK118" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL118" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM118" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN118" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO118" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AP118" t="inlineStr"/>
       <c r="AQ118" t="inlineStr"/>
@@ -17415,22 +17415,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I119" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K119" t="n">
         <v>2.05</v>
       </c>
       <c r="L119" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M119" t="n">
         <v>1.07</v>
@@ -17457,10 +17457,10 @@
         <v>1.22</v>
       </c>
       <c r="U119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V119" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W119" t="n">
         <v>1.91</v>
@@ -17487,7 +17487,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF119" t="n">
         <v>6</v>
@@ -17505,7 +17505,7 @@
         <v>7</v>
       </c>
       <c r="AK119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL119" t="n">
         <v>9.5</v>
@@ -17514,10 +17514,10 @@
         <v>21</v>
       </c>
       <c r="AN119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP119" t="inlineStr"/>
       <c r="AQ119" t="inlineStr"/>
@@ -17700,10 +17700,10 @@
         <v>1.42</v>
       </c>
       <c r="H121" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I121" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J121" t="n">
         <v>1.93</v>
@@ -17717,33 +17717,33 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P121" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R121" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S121" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="T121" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="X121" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y121" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Z121" t="n">
         <v>6.7</v>
@@ -17755,31 +17755,31 @@
         <v>9.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD121" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE121" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF121" t="n">
         <v>8.25</v>
       </c>
       <c r="AG121" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH121" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ121" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK121" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL121" t="n">
         <v>22</v>
@@ -17791,7 +17791,7 @@
         <v>80</v>
       </c>
       <c r="AO121" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr"/>
@@ -17839,13 +17839,13 @@
         <v>4.2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K122" t="n">
         <v>2.15</v>
       </c>
       <c r="L122" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -17876,22 +17876,22 @@
         <v>1.93</v>
       </c>
       <c r="Y122" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA122" t="n">
         <v>8</v>
       </c>
       <c r="AB122" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC122" t="n">
         <v>13.5</v>
       </c>
       <c r="AD122" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE122" t="n">
         <v>11.25</v>
@@ -17900,19 +17900,19 @@
         <v>7</v>
       </c>
       <c r="AG122" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH122" t="n">
         <v>60</v>
       </c>
       <c r="AI122" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ122" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK122" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL122" t="n">
         <v>13.5</v>
@@ -17924,7 +17924,7 @@
         <v>37</v>
       </c>
       <c r="AO122" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP122" t="inlineStr"/>
       <c r="AQ122" t="inlineStr"/>
@@ -17966,7 +17966,7 @@
         <v>10</v>
       </c>
       <c r="H123" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I123" t="n">
         <v>1.38</v>
@@ -17981,10 +17981,10 @@
         <v>2.05</v>
       </c>
       <c r="M123" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O123" t="n">
         <v>1.57</v>
@@ -18017,7 +18017,7 @@
         <v>1.29</v>
       </c>
       <c r="Y123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z123" t="n">
         <v>51</v>
@@ -18035,7 +18035,7 @@
         <v>151</v>
       </c>
       <c r="AE123" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF123" t="n">
         <v>9</v>
@@ -18122,10 +18122,10 @@
         <v>5.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N124" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O124" t="n">
         <v>1.62</v>
@@ -18152,16 +18152,16 @@
         <v>2.1</v>
       </c>
       <c r="W124" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y124" t="n">
         <v>4.75</v>
       </c>
       <c r="Z124" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA124" t="n">
         <v>10</v>
@@ -18203,10 +18203,10 @@
         <v>51</v>
       </c>
       <c r="AN124" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO124" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr"/>
@@ -18333,7 +18333,7 @@
         <v>67</v>
       </c>
       <c r="AI125" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ125" t="n">
         <v>6.5</v>
@@ -18356,10 +18356,10 @@
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
       <c r="AR125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="126">
@@ -18833,7 +18833,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H129" t="n">
         <v>3.6</v>
@@ -18848,25 +18848,25 @@
         <v>2.3</v>
       </c>
       <c r="L129" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M129" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O129" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P129" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R129" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S129" t="n">
         <v>2.63</v>
@@ -18899,13 +18899,13 @@
         <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF129" t="n">
         <v>7</v>
@@ -18977,7 +18977,7 @@
         <v>2.6</v>
       </c>
       <c r="H130" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I130" t="n">
         <v>2.6</v>
@@ -18995,25 +18995,25 @@
         <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O130" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P130" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R130" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S130" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T130" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U130" t="n">
         <v>1.36</v>
@@ -19040,7 +19040,7 @@
         <v>26</v>
       </c>
       <c r="AC130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD130" t="n">
         <v>26</v>
@@ -19073,7 +19073,7 @@
         <v>26</v>
       </c>
       <c r="AN130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO130" t="n">
         <v>26</v>
@@ -19115,7 +19115,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>3.5</v>
@@ -19139,22 +19139,22 @@
         <v>13</v>
       </c>
       <c r="O131" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P131" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R131" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S131" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T131" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U131" t="n">
         <v>1.33</v>
@@ -19202,7 +19202,7 @@
         <v>151</v>
       </c>
       <c r="AJ131" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK131" t="n">
         <v>11</v>
@@ -19217,7 +19217,7 @@
         <v>15</v>
       </c>
       <c r="AO131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP131" t="inlineStr"/>
       <c r="AQ131" t="inlineStr"/>
@@ -19256,22 +19256,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H132" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J132" t="n">
         <v>1.73</v>
       </c>
       <c r="K132" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M132" t="n">
         <v>1.03</v>
@@ -19286,10 +19286,10 @@
         <v>4.33</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R132" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S132" t="n">
         <v>2.63</v>
@@ -19298,16 +19298,16 @@
         <v>1.44</v>
       </c>
       <c r="U132" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V132" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W132" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X132" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y132" t="n">
         <v>7</v>
@@ -19316,7 +19316,7 @@
         <v>6</v>
       </c>
       <c r="AA132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB132" t="n">
         <v>7.5</v>
@@ -19325,7 +19325,7 @@
         <v>12</v>
       </c>
       <c r="AD132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE132" t="n">
         <v>13</v>
@@ -19352,13 +19352,13 @@
         <v>26</v>
       </c>
       <c r="AM132" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN132" t="n">
         <v>67</v>
       </c>
       <c r="AO132" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP132" t="inlineStr"/>
       <c r="AQ132" t="inlineStr"/>
@@ -19397,19 +19397,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H133" t="n">
         <v>5</v>
       </c>
       <c r="I133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J133" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K133" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L133" t="n">
         <v>6.5</v>
@@ -19457,7 +19457,7 @@
         <v>7.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB133" t="n">
         <v>9.5</v>
@@ -19469,7 +19469,7 @@
         <v>23</v>
       </c>
       <c r="AE133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF133" t="n">
         <v>9.5</v>
@@ -19481,22 +19481,22 @@
         <v>51</v>
       </c>
       <c r="AI133" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK133" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM133" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN133" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO133" t="n">
         <v>41</v>
@@ -19834,7 +19834,7 @@
         <v>3.9</v>
       </c>
       <c r="I136" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J136" t="n">
         <v>6</v>
@@ -19843,31 +19843,31 @@
         <v>2.3</v>
       </c>
       <c r="L136" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M136" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N136" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O136" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P136" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R136" t="n">
         <v>2</v>
       </c>
       <c r="S136" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T136" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U136" t="n">
         <v>1.36</v>
@@ -20003,10 +20003,10 @@
         <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R137" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S137" t="n">
         <v>4</v>
@@ -20819,22 +20819,22 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="H143" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I143" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="J143" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="K143" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L143" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="M143" t="n">
         <v>1.03</v>
@@ -20867,34 +20867,34 @@
         <v>3.5</v>
       </c>
       <c r="W143" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="X143" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y143" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA143" t="n">
         <v>9.75</v>
       </c>
       <c r="AB143" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC143" t="n">
         <v>10.5</v>
       </c>
       <c r="AD143" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE143" t="n">
         <v>9.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG143" t="n">
         <v>29</v>
@@ -20906,22 +20906,22 @@
         <v>1000</v>
       </c>
       <c r="AJ143" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AK143" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AL143" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM143" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AN143" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AO143" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -21002,7 +21002,7 @@
         <v>1.83</v>
       </c>
       <c r="U144" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V144" t="n">
         <v>4.33</v>
@@ -21101,22 +21101,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="H145" t="n">
+        <v>6</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J145" t="n">
         <v>7</v>
       </c>
-      <c r="I145" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J145" t="n">
-        <v>9</v>
-      </c>
       <c r="K145" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L145" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="M145" t="n">
         <v>1.01</v>
@@ -21125,85 +21125,85 @@
         <v>34</v>
       </c>
       <c r="O145" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P145" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R145" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="S145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W145" t="n">
         <v>1.5</v>
       </c>
-      <c r="T145" t="n">
+      <c r="X145" t="n">
         <v>2.5</v>
       </c>
-      <c r="U145" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="V145" t="n">
-        <v>6</v>
-      </c>
-      <c r="W145" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X145" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Y145" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z145" t="n">
         <v>51</v>
       </c>
-      <c r="Z145" t="n">
-        <v>81</v>
-      </c>
       <c r="AA145" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB145" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AC145" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD145" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE145" t="n">
         <v>34</v>
       </c>
       <c r="AF145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG145" t="n">
         <v>17</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>21</v>
       </c>
       <c r="AH145" t="n">
         <v>41</v>
       </c>
       <c r="AI145" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK145" t="n">
         <v>11</v>
       </c>
       <c r="AL145" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM145" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21533,13 +21533,13 @@
         <v>2.7</v>
       </c>
       <c r="J148" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K148" t="n">
         <v>1.93</v>
       </c>
       <c r="L148" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M148" t="n">
         <v>1.08</v>
@@ -21578,7 +21578,7 @@
         <v>1.93</v>
       </c>
       <c r="Y148" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="Z148" t="n">
         <v>13.5</v>
@@ -21590,7 +21590,7 @@
         <v>32</v>
       </c>
       <c r="AC148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD148" t="n">
         <v>32</v>
@@ -21611,10 +21611,10 @@
         <v>500</v>
       </c>
       <c r="AJ148" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AK148" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL148" t="n">
         <v>9.75</v>
@@ -21623,10 +21623,10 @@
         <v>32</v>
       </c>
       <c r="AN148" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO148" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP148" t="inlineStr"/>
       <c r="AQ148" t="inlineStr"/>
@@ -21665,22 +21665,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H149" t="n">
         <v>4.75</v>
       </c>
       <c r="I149" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J149" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K149" t="n">
         <v>2.4</v>
       </c>
       <c r="L149" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
@@ -21692,13 +21692,13 @@
         <v>1.23</v>
       </c>
       <c r="P149" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q149" t="n">
         <v>1.7</v>
       </c>
       <c r="R149" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S149" t="n">
         <v>2.67</v>
@@ -21719,13 +21719,13 @@
         <v>1.65</v>
       </c>
       <c r="Y149" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z149" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB149" t="n">
         <v>8</v>
@@ -21752,7 +21752,7 @@
         <v>1000</v>
       </c>
       <c r="AJ149" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK149" t="n">
         <v>55</v>
@@ -21761,10 +21761,10 @@
         <v>26</v>
       </c>
       <c r="AM149" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN149" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO149" t="n">
         <v>90</v>
@@ -21824,10 +21824,10 @@
         <v>4.75</v>
       </c>
       <c r="M150" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O150" t="n">
         <v>1.29</v>
@@ -21947,16 +21947,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J151" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K151" t="n">
         <v>2.05</v>
@@ -21971,16 +21971,16 @@
         <v>9</v>
       </c>
       <c r="O151" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P151" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R151" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S151" t="n">
         <v>3.75</v>
@@ -22001,7 +22001,7 @@
         <v>1.83</v>
       </c>
       <c r="Y151" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z151" t="n">
         <v>10</v>
@@ -22031,19 +22031,19 @@
         <v>51</v>
       </c>
       <c r="AI151" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ151" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK151" t="n">
         <v>17</v>
       </c>
       <c r="AL151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN151" t="n">
         <v>29</v>
@@ -22118,10 +22118,10 @@
         <v>3.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R152" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S152" t="n">
         <v>3.4</v>
@@ -22529,10 +22529,10 @@
         <v>4.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N155" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O155" t="n">
         <v>1.62</v>
@@ -22819,16 +22819,16 @@
         <v>8.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P157" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q157" t="n">
         <v>1.75</v>
@@ -22837,13 +22837,13 @@
         <v>2.05</v>
       </c>
       <c r="S157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U157" t="n">
         <v>1.36</v>
-      </c>
-      <c r="U157" t="n">
-        <v>1.33</v>
       </c>
       <c r="V157" t="n">
         <v>3</v>
@@ -22945,25 +22945,25 @@
         <v>1.53</v>
       </c>
       <c r="H158" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I158" t="n">
         <v>6.5</v>
       </c>
       <c r="J158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K158" t="n">
         <v>2.2</v>
       </c>
-      <c r="K158" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L158" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M158" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -22972,10 +22972,10 @@
         <v>3</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R158" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S158" t="n">
         <v>3.75</v>
@@ -22984,10 +22984,10 @@
         <v>1.25</v>
       </c>
       <c r="U158" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V158" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W158" t="n">
         <v>2.2</v>
@@ -23002,10 +23002,10 @@
         <v>6.5</v>
       </c>
       <c r="AA158" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC158" t="n">
         <v>15</v>
@@ -23023,7 +23023,7 @@
         <v>21</v>
       </c>
       <c r="AH158" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI158" t="n">
         <v>351</v>
@@ -23390,7 +23390,7 @@
         <v>1.06</v>
       </c>
       <c r="N161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O161" t="n">
         <v>1.3</v>
@@ -23402,7 +23402,7 @@
         <v>2.05</v>
       </c>
       <c r="R161" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S161" t="n">
         <v>3.5</v>
@@ -23933,22 +23933,22 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H165" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I165" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J165" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="K165" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L165" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M165" t="n">
         <v>1.03</v>
@@ -23981,61 +23981,61 @@
         <v>3.2</v>
       </c>
       <c r="W165" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X165" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y165" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z165" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA165" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB165" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC165" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD165" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE165" t="n">
         <v>9</v>
       </c>
       <c r="AF165" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG165" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH165" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI165" t="n">
         <v>200</v>
       </c>
       <c r="AJ165" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK165" t="n">
         <v>21</v>
       </c>
       <c r="AL165" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM165" t="n">
         <v>45</v>
       </c>
       <c r="AN165" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO165" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
@@ -24215,28 +24215,28 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H167" t="n">
         <v>3.25</v>
       </c>
       <c r="I167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4</v>
+      </c>
+      <c r="K167" t="n">
         <v>2.05</v>
       </c>
-      <c r="J167" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L167" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M167" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O167" t="n">
         <v>1.33</v>
@@ -24245,10 +24245,10 @@
         <v>3.25</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R167" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S167" t="n">
         <v>3.75</v>
@@ -24269,7 +24269,7 @@
         <v>1.83</v>
       </c>
       <c r="Y167" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z167" t="n">
         <v>17</v>
@@ -24287,10 +24287,10 @@
         <v>41</v>
       </c>
       <c r="AE167" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF167" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG167" t="n">
         <v>15</v>
@@ -24305,7 +24305,7 @@
         <v>7</v>
       </c>
       <c r="AK167" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL167" t="n">
         <v>9</v>
@@ -24314,7 +24314,7 @@
         <v>19</v>
       </c>
       <c r="AN167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO167" t="n">
         <v>29</v>
@@ -24521,22 +24521,22 @@
         <v>19</v>
       </c>
       <c r="O169" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P169" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R169" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S169" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T169" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U169" t="n">
         <v>1.25</v>
@@ -24584,7 +24584,7 @@
         <v>301</v>
       </c>
       <c r="AJ169" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK169" t="n">
         <v>51</v>
@@ -24593,19 +24593,19 @@
         <v>26</v>
       </c>
       <c r="AM169" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN169" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO169" t="n">
         <v>51</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR169" t="inlineStr"/>
       <c r="AS169" t="inlineStr"/>
@@ -24666,22 +24666,22 @@
         <v>17</v>
       </c>
       <c r="O170" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P170" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R170" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S170" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T170" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U170" t="n">
         <v>1.29</v>
@@ -24747,10 +24747,10 @@
         <v>21</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AQ170" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AR170" t="inlineStr"/>
       <c r="AS170" t="inlineStr"/>
@@ -24870,7 +24870,7 @@
         <v>3.75</v>
       </c>
       <c r="K172" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L172" t="n">
         <v>2.88</v>
@@ -24930,16 +24930,16 @@
         <v>34</v>
       </c>
       <c r="AE172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF172" t="n">
         <v>6.5</v>
       </c>
       <c r="AG172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH172" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI172" t="n">
         <v>201</v>
@@ -24948,7 +24948,7 @@
         <v>8</v>
       </c>
       <c r="AK172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL172" t="n">
         <v>9</v>
@@ -25008,19 +25008,19 @@
         <v>4.33</v>
       </c>
       <c r="J173" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K173" t="n">
         <v>2.05</v>
       </c>
       <c r="L173" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M173" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N173" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O173" t="n">
         <v>1.36</v>
@@ -25041,37 +25041,37 @@
         <v>1.22</v>
       </c>
       <c r="U173" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V173" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W173" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X173" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y173" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z173" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA173" t="n">
         <v>9</v>
       </c>
       <c r="AB173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC173" t="n">
         <v>17</v>
       </c>
       <c r="AD173" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE173" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF173" t="n">
         <v>6.5</v>
@@ -25080,7 +25080,7 @@
         <v>17</v>
       </c>
       <c r="AH173" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI173" t="n">
         <v>351</v>
@@ -25098,7 +25098,7 @@
         <v>41</v>
       </c>
       <c r="AN173" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO173" t="n">
         <v>41</v>
@@ -25182,10 +25182,10 @@
         <v>1.33</v>
       </c>
       <c r="U174" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V174" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W174" t="n">
         <v>1.73</v>
@@ -25200,7 +25200,7 @@
         <v>11</v>
       </c>
       <c r="AA174" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB174" t="n">
         <v>21</v>
@@ -25215,10 +25215,10 @@
         <v>11</v>
       </c>
       <c r="AF174" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH174" t="n">
         <v>41</v>
@@ -25281,13 +25281,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H175" t="n">
         <v>3.25</v>
       </c>
       <c r="I175" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J175" t="n">
         <v>3.2</v>
@@ -25296,7 +25296,7 @@
         <v>2.05</v>
       </c>
       <c r="L175" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M175" t="n">
         <v>1.07</v>
@@ -25338,7 +25338,7 @@
         <v>7.5</v>
       </c>
       <c r="Z175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA175" t="n">
         <v>10</v>
@@ -25422,28 +25422,28 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="H176" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I176" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L176" t="n">
         <v>6.5</v>
       </c>
-      <c r="J176" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K176" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L176" t="n">
-        <v>7</v>
-      </c>
       <c r="M176" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O176" t="n">
         <v>1.36</v>
@@ -25452,16 +25452,16 @@
         <v>3</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R176" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S176" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T176" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U176" t="n">
         <v>1.44</v>
@@ -25470,37 +25470,37 @@
         <v>2.63</v>
       </c>
       <c r="W176" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X176" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y176" t="n">
         <v>5.5</v>
       </c>
       <c r="Z176" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA176" t="n">
         <v>9</v>
       </c>
       <c r="AB176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD176" t="n">
         <v>34</v>
       </c>
       <c r="AE176" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF176" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG176" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH176" t="n">
         <v>81</v>
@@ -25509,7 +25509,7 @@
         <v>1250</v>
       </c>
       <c r="AJ176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK176" t="n">
         <v>34</v>
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>3.5</v>
       </c>
       <c r="I178" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J178" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K178" t="n">
         <v>2.25</v>
       </c>
       <c r="L178" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M178" t="n">
         <v>1.04</v>
@@ -25734,16 +25734,16 @@
         <v>4</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R178" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S178" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T178" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U178" t="n">
         <v>1.36</v>
@@ -25758,22 +25758,22 @@
         <v>2.2</v>
       </c>
       <c r="Y178" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z178" t="n">
         <v>13</v>
       </c>
       <c r="AA178" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB178" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC178" t="n">
         <v>19</v>
       </c>
       <c r="AD178" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE178" t="n">
         <v>13</v>
@@ -25782,7 +25782,7 @@
         <v>6.5</v>
       </c>
       <c r="AG178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH178" t="n">
         <v>41</v>
@@ -25791,19 +25791,19 @@
         <v>151</v>
       </c>
       <c r="AJ178" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL178" t="n">
         <v>10</v>
       </c>
       <c r="AM178" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO178" t="n">
         <v>26</v>
@@ -26016,10 +26016,10 @@
         <v>5</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R180" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S180" t="n">
         <v>2.25</v>
@@ -26091,10 +26091,10 @@
         <v>26</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26131,109 +26131,109 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H181" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I181" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J181" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="K181" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L181" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="M181" t="n">
         <v>1.07</v>
       </c>
       <c r="N181" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O181" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P181" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R181" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S181" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T181" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U181" t="n">
         <v>1.42</v>
       </c>
       <c r="V181" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W181" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="X181" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Y181" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="Z181" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AA181" t="n">
         <v>8.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC181" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD181" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE181" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF181" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG181" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH181" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM181" t="n">
         <v>90</v>
       </c>
-      <c r="AI181" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ181" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK181" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL181" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM181" t="n">
-        <v>60</v>
-      </c>
       <c r="AN181" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO181" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>
@@ -26272,100 +26272,100 @@
         </is>
       </c>
       <c r="G182" t="n">
+        <v>2</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K182" t="n">
         <v>1.95</v>
       </c>
-      <c r="H182" t="n">
+      <c r="L182" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N182" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P182" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S182" t="n">
         <v>2.9</v>
       </c>
-      <c r="I182" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J182" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K182" t="n">
-        <v>2</v>
-      </c>
-      <c r="L182" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M182" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N182" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O182" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P182" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R182" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S182" t="n">
-        <v>2.7</v>
-      </c>
       <c r="T182" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U182" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V182" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="W182" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X182" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y182" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z182" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA182" t="n">
         <v>7.9</v>
       </c>
       <c r="AB182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC182" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD182" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE182" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AF182" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AG182" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH182" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI182" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ182" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK182" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL182" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM182" t="n">
         <v>80</v>
@@ -26374,7 +26374,7 @@
         <v>37</v>
       </c>
       <c r="AO182" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP182" t="inlineStr"/>
       <c r="AQ182" t="inlineStr"/>
@@ -26413,22 +26413,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="H183" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I183" t="n">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="J183" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="K183" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L183" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="M183" t="n">
         <v>1.05</v>
@@ -26440,55 +26440,55 @@
         <v>1.25</v>
       </c>
       <c r="P183" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q183" t="n">
         <v>1.75</v>
       </c>
       <c r="R183" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S183" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="T183" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U183" t="n">
         <v>1.36</v>
       </c>
       <c r="V183" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="W183" t="n">
         <v>1.65</v>
       </c>
       <c r="X183" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y183" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z183" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AA183" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB183" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AC183" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AD183" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE183" t="n">
         <v>8</v>
       </c>
       <c r="AF183" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG183" t="n">
         <v>13.5</v>
@@ -26500,22 +26500,22 @@
         <v>350</v>
       </c>
       <c r="AJ183" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AK183" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL183" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AM183" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AN183" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO183" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP183" t="inlineStr"/>
       <c r="AQ183" t="inlineStr"/>
@@ -26969,42 +26969,42 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H187" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I187" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="J187" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="K187" t="n">
         <v>2.07</v>
       </c>
       <c r="L187" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P187" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q187" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R187" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S187" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T187" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U187" t="n">
         <v>1.4</v>
@@ -27022,28 +27022,28 @@
         <v>6.3</v>
       </c>
       <c r="Z187" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA187" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB187" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC187" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD187" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE187" t="n">
         <v>8.25</v>
       </c>
       <c r="AF187" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG187" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH187" t="n">
         <v>90</v>
@@ -27052,16 +27052,16 @@
         <v>800</v>
       </c>
       <c r="AJ187" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK187" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL187" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM187" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN187" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -1004,10 +1004,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>3.75</v>
@@ -1046,7 +1046,7 @@
         <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>7.5</v>
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1286,16 +1286,16 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U6" t="n">
         <v>1.4</v>
@@ -1310,19 +1310,19 @@
         <v>2.05</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>26</v>
@@ -1346,16 +1346,16 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>29</v>
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1421,16 +1421,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
         <v>3.2</v>
@@ -1439,19 +1439,19 @@
         <v>1.36</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
@@ -1481,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1568,10 +1568,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
         <v>3.4</v>
@@ -1586,31 +1586,31 @@
         <v>2.75</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
@@ -1625,16 +1625,16 @@
         <v>201</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.6</v>
@@ -1697,10 +1697,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -1969,16 +1969,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
@@ -2026,19 +2026,19 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
         <v>15</v>
       </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2400,25 +2400,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
         <v>4.33</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
@@ -2427,7 +2427,7 @@
         <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
         <v>2.1</v>
@@ -2436,10 +2436,10 @@
         <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
         <v>1.44</v>
@@ -2454,10 +2454,10 @@
         <v>1.91</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2472,7 +2472,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2490,13 +2490,13 @@
         <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL14" t="n">
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="n">
         <v>17</v>
@@ -2559,16 +2559,16 @@
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -2577,10 +2577,10 @@
         <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U15" t="n">
         <v>1.44</v>
@@ -2613,7 +2613,7 @@
         <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
         <v>6</v>
@@ -2625,7 +2625,7 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.73</v>
@@ -3132,13 +3132,13 @@
         <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -3159,28 +3159,28 @@
         <v>1.44</v>
       </c>
       <c r="U19" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V19" t="n">
         <v>3.4</v>
       </c>
       <c r="W19" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB19" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3192,16 +3192,16 @@
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH19" t="n">
         <v>81</v>
       </c>
       <c r="AI19" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ19" t="n">
         <v>19</v>
@@ -3210,13 +3210,13 @@
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO19" t="n">
         <v>51</v>
@@ -3405,22 +3405,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.73</v>
       </c>
       <c r="K21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3435,10 +3435,10 @@
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
         <v>2.3</v>
@@ -3447,16 +3447,16 @@
         <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V21" t="n">
         <v>3.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -3468,19 +3468,19 @@
         <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
@@ -3489,31 +3489,31 @@
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ21" t="n">
         <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
         <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO21" t="n">
         <v>51</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3550,22 +3550,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3580,10 +3580,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>4.33</v>
@@ -3598,13 +3598,13 @@
         <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
         <v>7</v>
@@ -3613,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3625,10 +3625,10 @@
         <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
         <v>67</v>
@@ -3643,13 +3643,13 @@
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO22" t="n">
         <v>51</v>
@@ -3694,10 +3694,10 @@
         <v>1.33</v>
       </c>
       <c r="H23" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.8</v>
@@ -3715,22 +3715,22 @@
         <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.3</v>
@@ -3751,16 +3751,16 @@
         <v>6.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3778,22 +3778,22 @@
         <v>401</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3832,16 +3832,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>1.95</v>
@@ -3862,10 +3862,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3874,10 +3874,10 @@
         <v>1.17</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W24" t="n">
         <v>2.05</v>
@@ -3895,10 +3895,10 @@
         <v>10</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>41</v>
@@ -3919,7 +3919,7 @@
         <v>501</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -3939,10 +3939,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4007,10 +4007,10 @@
         <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
         <v>6</v>
@@ -4159,7 +4159,7 @@
         <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -4231,16 +4231,16 @@
         <v>34</v>
       </c>
       <c r="AP26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="27">
@@ -4284,19 +4284,19 @@
         <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K27" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
         <v>8.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.29</v>
@@ -4433,10 +4433,10 @@
         <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L28" t="n">
         <v>5</v>
@@ -4573,64 +4573,64 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -4651,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>67</v>
@@ -4666,28 +4666,28 @@
         <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="30">
@@ -4734,7 +4734,7 @@
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
@@ -4875,7 +4875,7 @@
         <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L31" t="n">
         <v>4.75</v>
@@ -5028,16 +5028,16 @@
         <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
         <v>8</v>
@@ -5046,10 +5046,10 @@
         <v>1.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
         <v>2.75</v>
@@ -5079,13 +5079,13 @@
         <v>4.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI32" t="n">
         <v>101</v>
@@ -5106,7 +5106,7 @@
         <v>51</v>
       </c>
       <c r="AO32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5175,10 +5175,10 @@
         <v>2.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S33" t="n">
         <v>6</v>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>5.25</v>
@@ -5316,16 +5316,16 @@
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R34" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U34" t="n">
         <v>1.62</v>
@@ -5340,7 +5340,7 @@
         <v>1.44</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Z34" t="n">
         <v>6.5</v>
@@ -5352,13 +5352,13 @@
         <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD34" t="n">
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF34" t="n">
         <v>7</v>
@@ -5373,10 +5373,10 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>19</v>
@@ -5431,28 +5431,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>2.63</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
         <v>1.8</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
         <v>1.73</v>
@@ -5464,7 +5464,7 @@
         <v>3.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S35" t="n">
         <v>8</v>
@@ -5485,16 +5485,16 @@
         <v>1.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
         <v>13</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
         <v>34</v>
@@ -5521,13 +5521,13 @@
         <v>6</v>
       </c>
       <c r="AK35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL35" t="n">
         <v>13</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
         <v>34</v>
@@ -5576,28 +5576,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>2.63</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
         <v>1.8</v>
       </c>
       <c r="L36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.17</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O36" t="n">
         <v>1.67</v>
@@ -5609,7 +5609,7 @@
         <v>3.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
         <v>7</v>
@@ -5618,22 +5618,22 @@
         <v>1.1</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y36" t="n">
         <v>5.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
@@ -5657,7 +5657,7 @@
         <v>21</v>
       </c>
       <c r="AH36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI36" t="n">
         <v>101</v>
@@ -5669,7 +5669,7 @@
         <v>17</v>
       </c>
       <c r="AL36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
@@ -6003,22 +6003,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6051,22 +6051,22 @@
         <v>3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="X39" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="Y39" t="n">
         <v>15</v>
       </c>
       <c r="Z39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
@@ -6075,37 +6075,37 @@
         <v>41</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF39" t="n">
         <v>7.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL39" t="n">
         <v>8.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN39" t="n">
         <v>13</v>
       </c>
       <c r="AO39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6144,64 +6144,64 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H40" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
+        <v>7</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.5</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>13</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>7</v>
-      </c>
       <c r="Z40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
@@ -6210,34 +6210,34 @@
         <v>9.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI40" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AJ40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK40" t="n">
         <v>41</v>
       </c>
       <c r="AL40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM40" t="n">
         <v>81</v>
@@ -6256,7 +6256,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>v5dan6k5</t>
+          <t>OYqSmb9C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6276,55 +6276,55 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.25</v>
+        <v>1.48</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.56</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="K41" t="n">
         <v>2.3</v>
       </c>
       <c r="L41" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U41" t="n">
         <v>1.36</v>
@@ -6333,75 +6333,71 @@
         <v>3</v>
       </c>
       <c r="W41" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Z41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD41" t="n">
         <v>29</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AE41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>401</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>17</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AK41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN41" t="n">
         <v>51</v>
       </c>
-      <c r="AC41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH41" t="n">
+      <c r="AO41" t="n">
         <v>51</v>
       </c>
-      <c r="AI41" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>2.03</v>
-      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CIf7ppKH</t>
+          <t>UVnznxvP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6421,118 +6417,118 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SK Rapid</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L42" t="n">
         <v>4.5</v>
       </c>
-      <c r="H42" t="n">
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S42" t="n">
         <v>3.75</v>
       </c>
-      <c r="I42" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="T42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL42" t="n">
         <v>13</v>
       </c>
-      <c r="O42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X42" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC42" t="n">
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
         <v>34</v>
       </c>
-      <c r="AD42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH42" t="n">
+      <c r="AO42" t="n">
         <v>41</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>23</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6542,7 +6538,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OYqSmb9C</t>
+          <t>v5dan6k5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6552,7 +6548,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6562,128 +6558,132 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I43" t="n">
         <v>1.62</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.75</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="K43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L43" t="n">
         <v>2.2</v>
       </c>
-      <c r="L43" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V43" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X43" t="n">
         <v>1.95</v>
       </c>
-      <c r="X43" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y43" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Z43" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="n">
         <v>12</v>
       </c>
-      <c r="AC43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>51</v>
       </c>
       <c r="AI43" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AJ43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN43" t="n">
         <v>13</v>
       </c>
-      <c r="AK43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>41</v>
-      </c>
       <c r="AO43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2.03</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UVnznxvP</t>
+          <t>CIf7ppKH</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6703,118 +6703,118 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>3.7</v>
       </c>
       <c r="I44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J44" t="n">
         <v>4.33</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L44" t="n">
         <v>2.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X44" t="n">
         <v>2.1</v>
       </c>
-      <c r="L44" t="n">
-        <v>5</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y44" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE44" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
         <v>7</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AJ44" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AL44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM44" t="n">
         <v>15</v>
       </c>
-      <c r="AM44" t="n">
-        <v>51</v>
-      </c>
       <c r="AN44" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -7550,22 +7550,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
         <v>2.25</v>
       </c>
       <c r="L50" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -7598,13 +7598,13 @@
         <v>3.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z50" t="n">
         <v>17</v>
@@ -7613,7 +7613,7 @@
         <v>11</v>
       </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
         <v>21</v>
@@ -7637,16 +7637,16 @@
         <v>151</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL50" t="n">
         <v>9.5</v>
       </c>
       <c r="AM50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN50" t="n">
         <v>17</v>
@@ -7695,22 +7695,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J51" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -7737,10 +7737,10 @@
         <v>1.4</v>
       </c>
       <c r="U51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W51" t="n">
         <v>1.62</v>
@@ -7752,13 +7752,13 @@
         <v>9</v>
       </c>
       <c r="Z51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC51" t="n">
         <v>15</v>
@@ -7767,10 +7767,10 @@
         <v>23</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -7782,22 +7782,22 @@
         <v>151</v>
       </c>
       <c r="AJ51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM51" t="n">
         <v>41</v>
       </c>
       <c r="AN51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -7836,22 +7836,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H52" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7866,10 +7866,10 @@
         <v>4.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
         <v>2.63</v>
@@ -7893,13 +7893,13 @@
         <v>7.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA52" t="n">
         <v>8.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC52" t="n">
         <v>11</v>
@@ -7908,19 +7908,19 @@
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG52" t="n">
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ52" t="n">
         <v>19</v>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J54" t="n">
         <v>2.88</v>
@@ -8133,7 +8133,7 @@
         <v>2.1</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
@@ -8148,16 +8148,16 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U54" t="n">
         <v>1.44</v>
@@ -8181,10 +8181,10 @@
         <v>9</v>
       </c>
       <c r="AB54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC54" t="n">
         <v>19</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>17</v>
       </c>
       <c r="AD54" t="n">
         <v>29</v>
@@ -8217,7 +8217,7 @@
         <v>34</v>
       </c>
       <c r="AN54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO54" t="n">
         <v>34</v>
@@ -8259,46 +8259,46 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K55" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U55" t="n">
         <v>1.36</v>
@@ -8307,10 +8307,10 @@
         <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y55" t="n">
         <v>6.5</v>
@@ -8322,7 +8322,7 @@
         <v>8.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
         <v>19</v>
       </c>
       <c r="AH55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI55" t="n">
         <v>351</v>
@@ -8349,19 +8349,19 @@
         <v>15</v>
       </c>
       <c r="AK55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="n">
         <v>67</v>
       </c>
       <c r="AN55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
@@ -8710,16 +8710,16 @@
         <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S58" t="n">
         <v>3.4</v>
@@ -8976,22 +8976,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
         <v>2.2</v>
       </c>
       <c r="L60" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -9024,22 +9024,22 @@
         <v>2.75</v>
       </c>
       <c r="W60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y60" t="n">
         <v>6.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA60" t="n">
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
         <v>15</v>
@@ -9060,16 +9060,16 @@
         <v>51</v>
       </c>
       <c r="AI60" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM60" t="n">
         <v>51</v>
@@ -9081,13 +9081,13 @@
         <v>41</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS60" t="n">
         <v>2.55</v>
@@ -9125,22 +9125,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H61" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I61" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J61" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K61" t="n">
         <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
@@ -9188,10 +9188,10 @@
         <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD61" t="n">
         <v>29</v>
@@ -9200,10 +9200,10 @@
         <v>11</v>
       </c>
       <c r="AF61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH61" t="n">
         <v>67</v>
@@ -9212,16 +9212,16 @@
         <v>351</v>
       </c>
       <c r="AJ61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="n">
         <v>21</v>
       </c>
       <c r="AM61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN61" t="n">
         <v>51</v>
@@ -9230,16 +9230,16 @@
         <v>51</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="62">
@@ -9274,70 +9274,70 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R62" t="n">
         <v>1.53</v>
       </c>
-      <c r="P62" t="n">
+      <c r="S62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V62" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S62" t="n">
+      <c r="W62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y62" t="n">
         <v>5.5</v>
       </c>
-      <c r="T62" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V62" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W62" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X62" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>5</v>
-      </c>
       <c r="Z62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA62" t="n">
         <v>9.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC62" t="n">
         <v>19</v>
@@ -9346,16 +9346,16 @@
         <v>41</v>
       </c>
       <c r="AE62" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
       </c>
       <c r="AG62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH62" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="n">
         <v>101</v>
@@ -9364,10 +9364,10 @@
         <v>9</v>
       </c>
       <c r="AK62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM62" t="n">
         <v>51</v>
@@ -9379,16 +9379,16 @@
         <v>51</v>
       </c>
       <c r="AP62" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS62" t="n">
         <v>2.03</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>1.83</v>
       </c>
     </row>
     <row r="63">
@@ -9423,22 +9423,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I63" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
         <v>1.91</v>
       </c>
       <c r="L63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>1.1</v>
@@ -9477,16 +9477,16 @@
         <v>1.67</v>
       </c>
       <c r="Y63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC63" t="n">
         <v>23</v>
@@ -9495,7 +9495,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF63" t="n">
         <v>6</v>
@@ -9510,28 +9510,28 @@
         <v>1250</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL63" t="n">
         <v>13</v>
       </c>
-      <c r="AL63" t="n">
-        <v>12</v>
-      </c>
       <c r="AM63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO63" t="n">
         <v>41</v>
       </c>
       <c r="AP63" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR63" t="n">
         <v>1.93</v>
@@ -9572,28 +9572,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J64" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K64" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>1.07</v>
       </c>
       <c r="N64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.36</v>
@@ -9602,16 +9602,16 @@
         <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R64" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T64" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U64" t="n">
         <v>1.44</v>
@@ -9629,19 +9629,19 @@
         <v>6</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA64" t="n">
         <v>9</v>
       </c>
       <c r="AB64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC64" t="n">
         <v>15</v>
       </c>
-      <c r="AC64" t="n">
-        <v>17</v>
-      </c>
       <c r="AD64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE64" t="n">
         <v>8.5</v>
@@ -9659,7 +9659,7 @@
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK64" t="n">
         <v>21</v>
@@ -9668,7 +9668,7 @@
         <v>15</v>
       </c>
       <c r="AM64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN64" t="n">
         <v>41</v>
@@ -9677,16 +9677,16 @@
         <v>41</v>
       </c>
       <c r="AP64" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="65">
@@ -9862,46 +9862,46 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J66" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K66" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L66" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R66" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U66" t="n">
         <v>1.36</v>
@@ -9916,16 +9916,16 @@
         <v>2</v>
       </c>
       <c r="Y66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA66" t="n">
         <v>15</v>
       </c>
       <c r="AB66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC66" t="n">
         <v>34</v>
@@ -9934,10 +9934,10 @@
         <v>41</v>
       </c>
       <c r="AE66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG66" t="n">
         <v>13</v>
@@ -9946,7 +9946,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ66" t="n">
         <v>8</v>
@@ -9958,10 +9958,10 @@
         <v>8.5</v>
       </c>
       <c r="AM66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO66" t="n">
         <v>23</v>
@@ -10148,22 +10148,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="H68" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I68" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="J68" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="K68" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L68" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
@@ -10184,73 +10184,73 @@
         <v>2.32</v>
       </c>
       <c r="S68" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T68" t="n">
         <v>1.55</v>
       </c>
       <c r="U68" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V68" t="n">
         <v>3.3</v>
       </c>
       <c r="W68" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="X68" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z68" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB68" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AC68" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD68" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE68" t="n">
         <v>9.75</v>
       </c>
       <c r="AF68" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH68" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI68" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK68" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AL68" t="n">
         <v>9.25</v>
       </c>
       <c r="AM68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AN68" t="n">
         <v>11.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10289,58 +10289,58 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H69" t="n">
         <v>5.7</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J69" t="n">
         <v>1.62</v>
       </c>
       <c r="K69" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L69" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O69" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P69" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R69" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S69" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="T69" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U69" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V69" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W69" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X69" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y69" t="n">
         <v>6.4</v>
@@ -10352,46 +10352,46 @@
         <v>10</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AC69" t="n">
         <v>11.75</v>
       </c>
       <c r="AD69" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH69" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI69" t="n">
         <v>101</v>
       </c>
       <c r="AJ69" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK69" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL69" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM69" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AN69" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AO69" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP69" t="inlineStr"/>
       <c r="AQ69" t="inlineStr"/>
@@ -10860,94 +10860,94 @@
         <v>8.5</v>
       </c>
       <c r="H73" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I73" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="J73" t="n">
         <v>8.5</v>
       </c>
       <c r="K73" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L73" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M73" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O73" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P73" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="R73" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S73" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U73" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="V73" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W73" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="X73" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="Y73" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="n">
         <v>41</v>
       </c>
       <c r="AA73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB73" t="n">
         <v>101</v>
       </c>
       <c r="AC73" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD73" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE73" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH73" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AI73" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AK73" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AL73" t="n">
         <v>9</v>
@@ -10956,10 +10956,10 @@
         <v>8</v>
       </c>
       <c r="AN73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
@@ -11443,13 +11443,13 @@
         <v>7.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O77" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -11461,10 +11461,10 @@
         <v>2.4</v>
       </c>
       <c r="S77" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T77" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U77" t="n">
         <v>1.29</v>
@@ -11530,10 +11530,10 @@
         <v>51</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11860,22 +11860,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H80" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I80" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K80" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L80" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
@@ -11884,16 +11884,16 @@
         <v>13</v>
       </c>
       <c r="O80" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R80" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S80" t="n">
         <v>2.63</v>
@@ -11917,19 +11917,19 @@
         <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA80" t="n">
         <v>8.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC80" t="n">
         <v>13</v>
       </c>
       <c r="AD80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE80" t="n">
         <v>13</v>
@@ -11938,7 +11938,7 @@
         <v>7.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH80" t="n">
         <v>41</v>
@@ -11947,22 +11947,22 @@
         <v>151</v>
       </c>
       <c r="AJ80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM80" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN80" t="n">
         <v>34</v>
       </c>
       <c r="AO80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP80" t="n">
         <v>2.03</v>
@@ -12146,22 +12146,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H82" t="n">
         <v>3.2</v>
       </c>
       <c r="I82" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K82" t="n">
         <v>1.95</v>
       </c>
       <c r="L82" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
         <v>1.1</v>
@@ -12203,7 +12203,7 @@
         <v>5.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA82" t="n">
         <v>9.5</v>
@@ -12212,7 +12212,7 @@
         <v>17</v>
       </c>
       <c r="AC82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD82" t="n">
         <v>41</v>
@@ -12236,7 +12236,7 @@
         <v>8.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL82" t="n">
         <v>15</v>
@@ -12698,81 +12698,81 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="H86" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>6.2</v>
+        <v>8.75</v>
       </c>
       <c r="J86" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="K86" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L86" t="n">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P86" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R86" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S86" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T86" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="U86" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="V86" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="W86" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="X86" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="Y86" t="n">
         <v>4.9</v>
       </c>
       <c r="Z86" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AA86" t="n">
         <v>7.1</v>
       </c>
       <c r="AB86" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="AC86" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
         <v>26</v>
       </c>
       <c r="AE86" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF86" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AG86" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH86" t="n">
         <v>90</v>
@@ -12781,22 +12781,22 @@
         <v>101</v>
       </c>
       <c r="AJ86" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AL86" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AM86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN86" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO86" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AP86" t="inlineStr"/>
       <c r="AQ86" t="inlineStr"/>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -13423,16 +13423,16 @@
         <v>13</v>
       </c>
       <c r="O91" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P91" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R91" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S91" t="n">
         <v>3.25</v>
@@ -13549,7 +13549,7 @@
         <v>3.2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2.2</v>
@@ -13594,7 +13594,7 @@
         <v>2.1</v>
       </c>
       <c r="Y92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z92" t="n">
         <v>11</v>
@@ -13609,10 +13609,10 @@
         <v>17</v>
       </c>
       <c r="AD92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF92" t="n">
         <v>6.5</v>
@@ -13681,31 +13681,31 @@
         </is>
       </c>
       <c r="G93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J93" t="n">
         <v>5</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5.5</v>
       </c>
       <c r="K93" t="n">
         <v>2.05</v>
       </c>
       <c r="L93" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M93" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
         <v>8</v>
       </c>
       <c r="O93" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P93" t="n">
         <v>2.75</v>
@@ -13717,10 +13717,10 @@
         <v>1.62</v>
       </c>
       <c r="S93" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T93" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="U93" t="n">
         <v>1.5</v>
@@ -13729,19 +13729,19 @@
         <v>2.5</v>
       </c>
       <c r="W93" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB93" t="n">
         <v>51</v>
@@ -13750,10 +13750,10 @@
         <v>41</v>
       </c>
       <c r="AD93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF93" t="n">
         <v>6.5</v>
@@ -13771,13 +13771,13 @@
         <v>6</v>
       </c>
       <c r="AK93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL93" t="n">
         <v>9</v>
       </c>
       <c r="AM93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN93" t="n">
         <v>17</v>
@@ -13795,7 +13795,7 @@
         <v>1.68</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="94">
@@ -13839,7 +13839,7 @@
         <v>4.75</v>
       </c>
       <c r="J94" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K94" t="n">
         <v>2</v>
@@ -13848,16 +13848,16 @@
         <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N94" t="n">
         <v>7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P94" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q94" t="n">
         <v>2.4</v>
@@ -13869,7 +13869,7 @@
         <v>4.5</v>
       </c>
       <c r="T94" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U94" t="n">
         <v>1.53</v>
@@ -13896,7 +13896,7 @@
         <v>15</v>
       </c>
       <c r="AC94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD94" t="n">
         <v>34</v>
@@ -13935,16 +13935,16 @@
         <v>51</v>
       </c>
       <c r="AP94" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR94" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="95">
@@ -13979,46 +13979,46 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="J95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K95" t="n">
         <v>2.38</v>
       </c>
       <c r="L95" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O95" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R95" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S95" t="n">
         <v>2.75</v>
       </c>
       <c r="T95" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U95" t="n">
         <v>1.33</v>
@@ -14027,55 +14027,55 @@
         <v>3.25</v>
       </c>
       <c r="W95" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X95" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z95" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC95" t="n">
         <v>41</v>
       </c>
-      <c r="AA95" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>51</v>
-      </c>
       <c r="AD95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF95" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH95" t="n">
         <v>51</v>
       </c>
       <c r="AI95" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ95" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AL95" t="n">
         <v>8.5</v>
       </c>
       <c r="AM95" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN95" t="n">
         <v>12</v>
@@ -14084,16 +14084,16 @@
         <v>26</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS95" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="96">
@@ -14128,10 +14128,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
         <v>1.85</v>
@@ -14146,13 +14146,13 @@
         <v>2.6</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N96" t="n">
         <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P96" t="n">
         <v>2.75</v>
@@ -14164,10 +14164,10 @@
         <v>1.62</v>
       </c>
       <c r="S96" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T96" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U96" t="n">
         <v>1.5</v>
@@ -14191,7 +14191,7 @@
         <v>15</v>
       </c>
       <c r="AB96" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC96" t="n">
         <v>41</v>
@@ -14212,7 +14212,7 @@
         <v>67</v>
       </c>
       <c r="AI96" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ96" t="n">
         <v>6</v>
@@ -14277,34 +14277,34 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I97" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J97" t="n">
         <v>6</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L97" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O97" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P97" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q97" t="n">
         <v>2.5</v>
@@ -14316,7 +14316,7 @@
         <v>5</v>
       </c>
       <c r="T97" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U97" t="n">
         <v>1.53</v>
@@ -14334,10 +14334,10 @@
         <v>11</v>
       </c>
       <c r="Z97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB97" t="n">
         <v>67</v>
@@ -14346,7 +14346,7 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE97" t="n">
         <v>6.5</v>
@@ -14367,13 +14367,13 @@
         <v>5</v>
       </c>
       <c r="AK97" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL97" t="n">
         <v>9</v>
       </c>
       <c r="AM97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN97" t="n">
         <v>17</v>
@@ -14432,13 +14432,13 @@
         <v>5.75</v>
       </c>
       <c r="I98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J98" t="n">
         <v>1.67</v>
       </c>
       <c r="K98" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L98" t="n">
         <v>10</v>
@@ -14447,10 +14447,10 @@
         <v>1.03</v>
       </c>
       <c r="N98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O98" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P98" t="n">
         <v>4.5</v>
@@ -14465,7 +14465,7 @@
         <v>2.5</v>
       </c>
       <c r="T98" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U98" t="n">
         <v>1.29</v>
@@ -14474,13 +14474,13 @@
         <v>3.5</v>
       </c>
       <c r="W98" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X98" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z98" t="n">
         <v>6</v>
@@ -14495,7 +14495,7 @@
         <v>11</v>
       </c>
       <c r="AD98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
@@ -14516,10 +14516,10 @@
         <v>29</v>
       </c>
       <c r="AK98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM98" t="n">
         <v>201</v>
@@ -14575,31 +14575,31 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H99" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J99" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K99" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L99" t="n">
         <v>4.33</v>
       </c>
       <c r="M99" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N99" t="n">
         <v>6</v>
       </c>
       <c r="O99" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P99" t="n">
         <v>2.25</v>
@@ -14614,7 +14614,7 @@
         <v>6</v>
       </c>
       <c r="T99" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U99" t="n">
         <v>1.62</v>
@@ -14632,13 +14632,13 @@
         <v>5.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC99" t="n">
         <v>23</v>
@@ -14662,7 +14662,7 @@
         <v>101</v>
       </c>
       <c r="AJ99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK99" t="n">
         <v>15</v>
@@ -14883,43 +14883,43 @@
         <v>2.1</v>
       </c>
       <c r="M101" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N101" t="n">
         <v>15</v>
       </c>
       <c r="O101" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P101" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R101" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S101" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T101" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U101" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W101" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X101" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z101" t="n">
         <v>29</v>
@@ -14934,7 +14934,7 @@
         <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE101" t="n">
         <v>15</v>
@@ -14952,10 +14952,10 @@
         <v>151</v>
       </c>
       <c r="AJ101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL101" t="n">
         <v>8.5</v>
@@ -14970,10 +14970,10 @@
         <v>21</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr"/>
@@ -15292,13 +15292,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I104" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J104" t="n">
         <v>3.6</v>
@@ -15307,7 +15307,7 @@
         <v>2.05</v>
       </c>
       <c r="L104" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M104" t="n">
         <v>1.07</v>
@@ -15346,7 +15346,7 @@
         <v>1.83</v>
       </c>
       <c r="Y104" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z104" t="n">
         <v>13</v>
@@ -15358,7 +15358,7 @@
         <v>29</v>
       </c>
       <c r="AC104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD104" t="n">
         <v>34</v>
@@ -15367,7 +15367,7 @@
         <v>8.5</v>
       </c>
       <c r="AF104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG104" t="n">
         <v>15</v>
@@ -15382,7 +15382,7 @@
         <v>7.5</v>
       </c>
       <c r="AK104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL104" t="n">
         <v>10</v>
@@ -15433,13 +15433,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J105" t="n">
         <v>1.73</v>
@@ -15448,7 +15448,7 @@
         <v>2.75</v>
       </c>
       <c r="L105" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M105" t="n">
         <v>1.02</v>
@@ -15463,16 +15463,16 @@
         <v>6</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R105" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S105" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T105" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U105" t="n">
         <v>1.25</v>
@@ -15487,28 +15487,28 @@
         <v>1.91</v>
       </c>
       <c r="Y105" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z105" t="n">
         <v>7.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB105" t="n">
         <v>9</v>
       </c>
       <c r="AC105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD105" t="n">
         <v>23</v>
       </c>
       <c r="AE105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG105" t="n">
         <v>21</v>
@@ -15520,7 +15520,7 @@
         <v>201</v>
       </c>
       <c r="AJ105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK105" t="n">
         <v>41</v>
@@ -15864,40 +15864,40 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>2.75</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J108" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K108" t="n">
         <v>1.91</v>
       </c>
       <c r="L108" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M108" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N108" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O108" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R108" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S108" t="n">
         <v>5</v>
@@ -15918,19 +15918,19 @@
         <v>1.7</v>
       </c>
       <c r="Y108" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA108" t="n">
         <v>12</v>
       </c>
-      <c r="AA108" t="n">
-        <v>11</v>
-      </c>
       <c r="AB108" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD108" t="n">
         <v>41</v>
@@ -15951,19 +15951,19 @@
         <v>451</v>
       </c>
       <c r="AJ108" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM108" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO108" t="n">
         <v>41</v>
@@ -15971,10 +15971,10 @@
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
       <c r="AR108" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="109">
@@ -17282,22 +17282,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H118" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I118" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="J118" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K118" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="L118" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M118" t="n">
         <v>1.1</v>
@@ -17324,64 +17324,64 @@
         <v>1.16</v>
       </c>
       <c r="U118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V118" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W118" t="n">
         <v>2.1</v>
       </c>
       <c r="X118" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Y118" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z118" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB118" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD118" t="n">
         <v>35</v>
       </c>
       <c r="AE118" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AF118" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AG118" t="n">
         <v>14</v>
       </c>
       <c r="AH118" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="n">
         <v>101</v>
       </c>
       <c r="AJ118" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AK118" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AL118" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM118" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AN118" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO118" t="n">
         <v>35</v>
@@ -17564,58 +17564,58 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H120" t="n">
         <v>4.1</v>
       </c>
       <c r="I120" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J120" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L120" t="n">
         <v>2.38</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2.3</v>
       </c>
       <c r="M120" t="n">
         <v>1.03</v>
       </c>
       <c r="N120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P120" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X120" t="n">
         <v>2.25</v>
-      </c>
-      <c r="S120" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U120" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V120" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W120" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X120" t="n">
-        <v>2.2</v>
       </c>
       <c r="Y120" t="n">
         <v>15</v>
@@ -17633,10 +17633,10 @@
         <v>29</v>
       </c>
       <c r="AD120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF120" t="n">
         <v>8</v>
@@ -17648,13 +17648,13 @@
         <v>41</v>
       </c>
       <c r="AI120" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL120" t="n">
         <v>8.5</v>
@@ -17668,8 +17668,12 @@
       <c r="AO120" t="n">
         <v>21</v>
       </c>
-      <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
+      <c r="AP120" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.88</v>
+      </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
     </row>
@@ -17838,83 +17842,83 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H122" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I122" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J122" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K122" t="n">
         <v>2.18</v>
       </c>
       <c r="L122" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P122" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R122" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S122" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="T122" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X122" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="Y122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA122" t="n">
         <v>8.25</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC122" t="n">
         <v>13.5</v>
       </c>
       <c r="AD122" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE122" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF122" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG122" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH122" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI122" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ122" t="n">
         <v>12.5</v>
@@ -17923,16 +17927,16 @@
         <v>23</v>
       </c>
       <c r="AL122" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM122" t="n">
         <v>60</v>
       </c>
       <c r="AN122" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO122" t="n">
         <v>35</v>
-      </c>
-      <c r="AO122" t="n">
-        <v>37</v>
       </c>
       <c r="AP122" t="inlineStr"/>
       <c r="AQ122" t="inlineStr"/>
@@ -17971,10 +17975,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I123" t="n">
         <v>1.42</v>
@@ -17983,7 +17987,7 @@
         <v>12</v>
       </c>
       <c r="K123" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L123" t="n">
         <v>2.2</v>
@@ -18019,10 +18023,10 @@
         <v>2</v>
       </c>
       <c r="W123" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X123" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y123" t="n">
         <v>15</v>
@@ -18040,25 +18044,25 @@
         <v>151</v>
       </c>
       <c r="AD123" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE123" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG123" t="n">
         <v>41</v>
       </c>
       <c r="AH123" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI123" t="n">
         <v>101</v>
       </c>
       <c r="AJ123" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AK123" t="n">
         <v>4.75</v>
@@ -18070,7 +18074,7 @@
         <v>9</v>
       </c>
       <c r="AN123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO123" t="n">
         <v>67</v>
@@ -18145,7 +18149,7 @@
         <v>3.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S124" t="n">
         <v>7</v>
@@ -18257,28 +18261,28 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="H125" t="n">
         <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J125" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K125" t="n">
         <v>1.95</v>
       </c>
       <c r="L125" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M125" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O125" t="n">
         <v>1.44</v>
@@ -18287,10 +18291,10 @@
         <v>2.63</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R125" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S125" t="n">
         <v>4.5</v>
@@ -18311,25 +18315,25 @@
         <v>1.73</v>
       </c>
       <c r="Y125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB125" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC125" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD125" t="n">
         <v>41</v>
       </c>
       <c r="AE125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF125" t="n">
         <v>6</v>
@@ -18338,25 +18342,25 @@
         <v>17</v>
       </c>
       <c r="AH125" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI125" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AJ125" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK125" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL125" t="n">
         <v>11</v>
       </c>
       <c r="AM125" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -18364,10 +18368,10 @@
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
       <c r="AR125" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="126">
@@ -18579,10 +18583,10 @@
         <v>1.75</v>
       </c>
       <c r="S127" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T127" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U127" t="n">
         <v>1.44</v>
@@ -18612,7 +18616,7 @@
         <v>51</v>
       </c>
       <c r="AD127" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE127" t="n">
         <v>9</v>
@@ -18722,10 +18726,10 @@
         <v>4</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R128" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S128" t="n">
         <v>2.75</v>
@@ -19123,13 +19127,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J131" t="n">
         <v>3.6</v>
@@ -19147,22 +19151,22 @@
         <v>13</v>
       </c>
       <c r="O131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P131" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R131" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S131" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T131" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U131" t="n">
         <v>1.36</v>
@@ -19171,19 +19175,19 @@
         <v>3</v>
       </c>
       <c r="W131" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X131" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z131" t="n">
         <v>17</v>
       </c>
       <c r="AA131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB131" t="n">
         <v>34</v>
@@ -19201,7 +19205,7 @@
         <v>6.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH131" t="n">
         <v>41</v>
@@ -19554,22 +19558,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H134" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I134" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J134" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K134" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L134" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M134" t="n">
         <v>1.04</v>
@@ -19584,10 +19588,10 @@
         <v>4</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R134" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S134" t="n">
         <v>2.75</v>
@@ -19620,13 +19624,13 @@
         <v>15</v>
       </c>
       <c r="AC134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD134" t="n">
         <v>23</v>
       </c>
       <c r="AE134" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF134" t="n">
         <v>7</v>
@@ -19695,28 +19699,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I135" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J135" t="n">
         <v>2.88</v>
       </c>
       <c r="K135" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L135" t="n">
         <v>5.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N135" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O135" t="n">
         <v>1.67</v>
@@ -19737,16 +19741,16 @@
         <v>1.1</v>
       </c>
       <c r="U135" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V135" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W135" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X135" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y135" t="n">
         <v>4.75</v>
@@ -19755,37 +19759,37 @@
         <v>7.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC135" t="n">
         <v>23</v>
       </c>
       <c r="AD135" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE135" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF135" t="n">
         <v>6.5</v>
       </c>
       <c r="AG135" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH135" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI135" t="n">
         <v>501</v>
       </c>
       <c r="AJ135" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL135" t="n">
         <v>17</v>
@@ -19794,10 +19798,10 @@
         <v>51</v>
       </c>
       <c r="AN135" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO135" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP135" t="inlineStr"/>
       <c r="AQ135" t="inlineStr"/>
@@ -19840,70 +19844,70 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H136" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I136" t="n">
         <v>1.48</v>
       </c>
       <c r="J136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K136" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L136" t="n">
         <v>2.05</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N136" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y136" t="n">
         <v>13</v>
-      </c>
-      <c r="O136" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P136" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R136" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S136" t="n">
-        <v>3</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U136" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V136" t="n">
-        <v>3</v>
-      </c>
-      <c r="W136" t="n">
-        <v>2</v>
-      </c>
-      <c r="X136" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>15</v>
       </c>
       <c r="Z136" t="n">
         <v>34</v>
       </c>
       <c r="AA136" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC136" t="n">
         <v>51</v>
@@ -19912,37 +19916,37 @@
         <v>51</v>
       </c>
       <c r="AE136" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF136" t="n">
         <v>8.5</v>
       </c>
       <c r="AG136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI136" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AJ136" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN136" t="n">
         <v>13</v>
       </c>
       <c r="AO136" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP136" t="n">
         <v>1.94</v>
@@ -19991,13 +19995,13 @@
         <v>3.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J137" t="n">
         <v>5.5</v>
       </c>
       <c r="K137" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L137" t="n">
         <v>2.4</v>
@@ -20033,13 +20037,13 @@
         <v>2.5</v>
       </c>
       <c r="W137" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X137" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z137" t="n">
         <v>23</v>
@@ -20430,13 +20434,13 @@
         <v>2.2</v>
       </c>
       <c r="M140" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N140" t="n">
         <v>13</v>
       </c>
       <c r="O140" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P140" t="n">
         <v>4</v>
@@ -20451,10 +20455,10 @@
         <v>2.75</v>
       </c>
       <c r="T140" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U140" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V140" t="n">
         <v>3.25</v>
@@ -20553,31 +20557,31 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I141" t="n">
         <v>3.6</v>
       </c>
-      <c r="I141" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J141" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K141" t="n">
         <v>2.2</v>
       </c>
       <c r="L141" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M141" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N141" t="n">
         <v>11</v>
       </c>
       <c r="O141" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P141" t="n">
         <v>3.5</v>
@@ -20592,31 +20596,31 @@
         <v>3.25</v>
       </c>
       <c r="T141" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U141" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V141" t="n">
         <v>2.75</v>
       </c>
       <c r="W141" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X141" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y141" t="n">
         <v>7.5</v>
       </c>
       <c r="Z141" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA141" t="n">
         <v>9</v>
       </c>
-      <c r="AA141" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC141" t="n">
         <v>15</v>
@@ -20640,10 +20644,10 @@
         <v>201</v>
       </c>
       <c r="AJ141" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK141" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL141" t="n">
         <v>13</v>
@@ -20835,85 +20839,85 @@
         </is>
       </c>
       <c r="G143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L143" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N143" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O143" t="n">
         <v>1.19</v>
       </c>
-      <c r="H143" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I143" t="n">
-        <v>15</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K143" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L143" t="n">
-        <v>11</v>
-      </c>
-      <c r="M143" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N143" t="n">
-        <v>9</v>
-      </c>
-      <c r="O143" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P143" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R143" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="S143" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T143" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U143" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V143" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W143" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="X143" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y143" t="n">
         <v>7.1</v>
       </c>
       <c r="Z143" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB143" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AC143" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD143" t="n">
         <v>32</v>
       </c>
       <c r="AE143" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG143" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH143" t="n">
         <v>150</v>
@@ -20922,19 +20926,19 @@
         <v>900</v>
       </c>
       <c r="AJ143" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AK143" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AL143" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM143" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AN143" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AO143" t="n">
         <v>150</v>
@@ -21681,109 +21685,109 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="H149" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="J149" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="K149" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="L149" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="M149" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N149" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O149" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P149" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R149" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S149" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="T149" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U149" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="V149" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="W149" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="X149" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="Y149" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z149" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB149" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AC149" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD149" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE149" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF149" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AG149" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ149" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AK149" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AL149" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AM149" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AN149" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AO149" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
@@ -22817,109 +22821,109 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>5.25</v>
       </c>
       <c r="I157" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J157" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K157" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L157" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P157" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R157" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S157" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W157" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="X157" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Y157" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z157" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA157" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD157" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG157" t="n">
         <v>29</v>
       </c>
-      <c r="AE157" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>23</v>
-      </c>
       <c r="AH157" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI157" t="n">
         <v>1250</v>
       </c>
       <c r="AJ157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK157" t="n">
         <v>41</v>
       </c>
       <c r="AL157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM157" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN157" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO157" t="n">
         <v>67</v>
-      </c>
-      <c r="AO157" t="n">
-        <v>51</v>
       </c>
       <c r="AP157" t="inlineStr"/>
       <c r="AQ157" t="inlineStr"/>
@@ -22958,28 +22962,28 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H158" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J158" t="n">
         <v>2.1</v>
       </c>
       <c r="K158" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L158" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -22988,16 +22992,16 @@
         <v>3</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R158" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S158" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T158" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U158" t="n">
         <v>1.44</v>
@@ -23006,10 +23010,10 @@
         <v>2.63</v>
       </c>
       <c r="W158" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X158" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y158" t="n">
         <v>5.5</v>
@@ -23021,7 +23025,7 @@
         <v>9</v>
       </c>
       <c r="AB158" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC158" t="n">
         <v>15</v>
@@ -23033,7 +23037,7 @@
         <v>8</v>
       </c>
       <c r="AF158" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG158" t="n">
         <v>23</v>
@@ -23045,13 +23049,13 @@
         <v>351</v>
       </c>
       <c r="AJ158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK158" t="n">
         <v>34</v>
       </c>
       <c r="AL158" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM158" t="n">
         <v>81</v>
@@ -23385,13 +23389,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>3.25</v>
       </c>
       <c r="I161" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J161" t="n">
         <v>3.6</v>
@@ -24658,52 +24662,52 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H170" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I170" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J170" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K170" t="n">
         <v>2.5</v>
       </c>
       <c r="L170" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M170" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O170" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P170" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R170" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S170" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T170" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U170" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V170" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W170" t="n">
         <v>1.62</v>
@@ -24715,7 +24719,7 @@
         <v>19</v>
       </c>
       <c r="Z170" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA170" t="n">
         <v>17</v>
@@ -24724,7 +24728,7 @@
         <v>51</v>
       </c>
       <c r="AC170" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD170" t="n">
         <v>34</v>
@@ -24733,7 +24737,7 @@
         <v>17</v>
       </c>
       <c r="AF170" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG170" t="n">
         <v>15</v>
@@ -24754,19 +24758,19 @@
         <v>8.5</v>
       </c>
       <c r="AM170" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN170" t="n">
         <v>12</v>
-      </c>
-      <c r="AN170" t="n">
-        <v>11</v>
       </c>
       <c r="AO170" t="n">
         <v>21</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ170" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AR170" t="inlineStr"/>
       <c r="AS170" t="inlineStr"/>
@@ -25156,16 +25160,16 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H174" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J174" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K174" t="n">
         <v>2.1</v>
@@ -25177,7 +25181,7 @@
         <v>1.06</v>
       </c>
       <c r="N174" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O174" t="n">
         <v>1.33</v>
@@ -25186,10 +25190,10 @@
         <v>3.25</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R174" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S174" t="n">
         <v>3.5</v>
@@ -25198,10 +25202,10 @@
         <v>1.29</v>
       </c>
       <c r="U174" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V174" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W174" t="n">
         <v>1.8</v>
@@ -25228,7 +25232,7 @@
         <v>29</v>
       </c>
       <c r="AE174" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF174" t="n">
         <v>6.5</v>
@@ -25243,7 +25247,7 @@
         <v>251</v>
       </c>
       <c r="AJ174" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK174" t="n">
         <v>15</v>
@@ -25252,7 +25256,7 @@
         <v>11</v>
       </c>
       <c r="AM174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN174" t="n">
         <v>23</v>
@@ -25315,10 +25319,10 @@
         <v>3.75</v>
       </c>
       <c r="M175" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N175" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O175" t="n">
         <v>1.36</v>
@@ -25327,16 +25331,16 @@
         <v>3</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R175" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S175" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T175" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U175" t="n">
         <v>1.44</v>
@@ -25441,10 +25445,10 @@
         <v>1.5</v>
       </c>
       <c r="H176" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I176" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J176" t="n">
         <v>2.1</v>
@@ -25453,64 +25457,64 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M176" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N176" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O176" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P176" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q176" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W176" t="n">
         <v>2.1</v>
       </c>
-      <c r="R176" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S176" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T176" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U176" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V176" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W176" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X176" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y176" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z176" t="n">
         <v>6.5</v>
       </c>
       <c r="AA176" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB176" t="n">
         <v>10</v>
       </c>
       <c r="AC176" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD176" t="n">
         <v>34</v>
       </c>
       <c r="AE176" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF176" t="n">
         <v>7.5</v>
@@ -25519,13 +25523,13 @@
         <v>21</v>
       </c>
       <c r="AH176" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI176" t="n">
         <v>1250</v>
       </c>
       <c r="AJ176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK176" t="n">
         <v>34</v>
@@ -25534,7 +25538,7 @@
         <v>21</v>
       </c>
       <c r="AM176" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN176" t="n">
         <v>51</v>
@@ -25609,10 +25613,10 @@
         <v>3</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R177" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S177" t="n">
         <v>4</v>
@@ -25861,46 +25865,46 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H179" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I179" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J179" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K179" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L179" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M179" t="n">
         <v>1.02</v>
       </c>
       <c r="N179" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O179" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P179" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R179" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S179" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T179" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U179" t="n">
         <v>1.25</v>
@@ -25924,7 +25928,7 @@
         <v>8.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC179" t="n">
         <v>11</v>
@@ -25933,10 +25937,10 @@
         <v>19</v>
       </c>
       <c r="AE179" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF179" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG179" t="n">
         <v>15</v>
@@ -25945,22 +25949,22 @@
         <v>41</v>
       </c>
       <c r="AI179" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ179" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL179" t="n">
         <v>19</v>
       </c>
-      <c r="AK179" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL179" t="n">
-        <v>17</v>
-      </c>
       <c r="AM179" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO179" t="n">
         <v>34</v>
@@ -26006,61 +26010,61 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I180" t="n">
         <v>3.6</v>
       </c>
-      <c r="I180" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J180" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K180" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L180" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M180" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N180" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O180" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P180" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W180" t="n">
         <v>1.62</v>
       </c>
-      <c r="R180" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S180" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T180" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U180" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V180" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W180" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X180" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y180" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z180" t="n">
         <v>11</v>
@@ -26078,28 +26082,28 @@
         <v>21</v>
       </c>
       <c r="AE180" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF180" t="n">
         <v>7</v>
       </c>
       <c r="AG180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL180" t="n">
         <v>12</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>126</v>
-      </c>
-      <c r="AJ180" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK180" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL180" t="n">
-        <v>13</v>
       </c>
       <c r="AM180" t="n">
         <v>41</v>
@@ -26592,7 +26596,7 @@
         <v>5.7</v>
       </c>
       <c r="M184" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N184" t="n">
         <v>6</v>
@@ -26855,19 +26859,19 @@
         <v>1.93</v>
       </c>
       <c r="H186" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I186" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J186" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K186" t="n">
         <v>2.12</v>
       </c>
       <c r="L186" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
@@ -26875,7 +26879,7 @@
         <v>1.31</v>
       </c>
       <c r="P186" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q186" t="n">
         <v>1.91</v>
@@ -26896,34 +26900,34 @@
         <v>2.52</v>
       </c>
       <c r="W186" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X186" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Y186" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z186" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA186" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB186" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC186" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD186" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE186" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF186" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG186" t="n">
         <v>15</v>
@@ -26935,22 +26939,22 @@
         <v>600</v>
       </c>
       <c r="AJ186" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK186" t="n">
         <v>20</v>
       </c>
       <c r="AL186" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM186" t="n">
         <v>55</v>
       </c>
       <c r="AN186" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO186" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP186" t="inlineStr"/>
       <c r="AQ186" t="inlineStr"/>
@@ -26989,36 +26993,36 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H187" t="n">
         <v>3.25</v>
       </c>
       <c r="I187" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J187" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K187" t="n">
         <v>2.07</v>
       </c>
       <c r="L187" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P187" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R187" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S187" t="n">
         <v>3.3</v>
@@ -27033,13 +27037,13 @@
         <v>2.52</v>
       </c>
       <c r="W187" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X187" t="n">
         <v>1.75</v>
       </c>
       <c r="Y187" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z187" t="n">
         <v>8</v>
@@ -27054,10 +27058,10 @@
         <v>16</v>
       </c>
       <c r="AD187" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE187" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF187" t="n">
         <v>6.4</v>
@@ -27072,7 +27076,7 @@
         <v>800</v>
       </c>
       <c r="AJ187" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK187" t="n">
         <v>23</v>
@@ -27084,7 +27088,7 @@
         <v>70</v>
       </c>
       <c r="AN187" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO187" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -1679,19 +1679,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
@@ -1703,37 +1703,37 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X9" t="n">
         <v>2.2</v>
       </c>
-      <c r="S9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1748,13 +1748,13 @@
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1763,19 +1763,19 @@
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
         <v>23</v>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2556,19 +2556,19 @@
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -2577,10 +2577,10 @@
         <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U15" t="n">
         <v>1.44</v>
@@ -2595,10 +2595,10 @@
         <v>1.95</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>10</v>
@@ -2619,13 +2619,13 @@
         <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
@@ -3832,28 +3832,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3862,10 +3862,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3904,13 +3904,13 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>67</v>
@@ -3922,7 +3922,7 @@
         <v>7.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>12</v>
@@ -3939,10 +3939,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="25">
@@ -3980,19 +3980,19 @@
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
@@ -4049,13 +4049,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF25" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF25" t="n">
-        <v>6</v>
-      </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
         <v>81</v>
@@ -4073,10 +4073,10 @@
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -4085,7 +4085,7 @@
         <v>4.9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR25" t="n">
         <v>2.1</v>
@@ -4129,10 +4129,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -4183,7 +4183,7 @@
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
         <v>11</v>
@@ -4195,10 +4195,10 @@
         <v>26</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
         <v>5.5</v>
@@ -4225,7 +4225,7 @@
         <v>26</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>34</v>
@@ -4275,10 +4275,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
         <v>11</v>
@@ -4290,13 +4290,13 @@
         <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.29</v>
@@ -4332,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA27" t="n">
         <v>9</v>
@@ -4350,7 +4350,7 @@
         <v>9.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -4365,7 +4365,7 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -4424,16 +4424,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>1.83</v>
@@ -4481,7 +4481,7 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
         <v>10</v>
@@ -4502,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
         <v>101</v>
@@ -4511,10 +4511,10 @@
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4529,7 +4529,7 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.18</v>
@@ -4681,7 +4681,7 @@
         <v>3.85</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AR29" t="n">
         <v>1.83</v>
@@ -4722,16 +4722,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4740,10 +4740,10 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4785,13 +4785,13 @@
         <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
         <v>29</v>
       </c>
       <c r="AD30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="n">
         <v>5.5</v>
@@ -4809,16 +4809,16 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
         <v>34</v>
@@ -4863,34 +4863,34 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>1.73</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q31" t="n">
         <v>3.6</v>
@@ -4920,13 +4920,13 @@
         <v>4.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA31" t="n">
         <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>29</v>
@@ -4935,7 +4935,7 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
@@ -4944,19 +4944,19 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI31" t="n">
         <v>101</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM31" t="n">
         <v>41</v>
@@ -4975,7 +4975,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>rDDodgNb</t>
+          <t>lGJ3ox9t</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4995,118 +4995,118 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.88</v>
       </c>
-      <c r="K32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="R32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S32" t="n">
         <v>6</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y32" t="n">
         <v>4.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG32" t="n">
         <v>26</v>
       </c>
-      <c r="AD32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>29</v>
-      </c>
       <c r="AH32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI32" t="n">
         <v>101</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL32" t="n">
         <v>21</v>
       </c>
-      <c r="AL32" t="n">
-        <v>19</v>
-      </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN32" t="n">
         <v>51</v>
       </c>
       <c r="AO32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5116,7 +5116,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lGJ3ox9t</t>
+          <t>xxjoTfgC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5136,43 +5136,43 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Arsenal Sarandi</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K33" t="n">
         <v>1.91</v>
       </c>
       <c r="L33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N33" t="n">
         <v>6.5</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
         <v>2.88</v>
@@ -5193,40 +5193,40 @@
         <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="Z33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA33" t="n">
         <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
         <v>21</v>
       </c>
       <c r="AD33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE33" t="n">
         <v>5.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH33" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AI33" t="n">
         <v>101</v>
@@ -5235,29 +5235,33 @@
         <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="n">
         <v>67</v>
       </c>
-      <c r="AN33" t="n">
-        <v>51</v>
-      </c>
       <c r="AO33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
+      <c r="AR33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>xxjoTfgC</t>
+          <t>AP42hBMN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5267,7 +5271,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5277,61 +5281,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="I34" t="n">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.91</v>
       </c>
-      <c r="L34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="S34" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>2.63</v>
@@ -5340,69 +5344,69 @@
         <v>1.44</v>
       </c>
       <c r="Y34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE34" t="n">
         <v>4.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AF34" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF34" t="n">
-        <v>7</v>
-      </c>
       <c r="AG34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AN34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO34" t="n">
         <v>51</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>67</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AP42hBMN</t>
+          <t>vs8bxaWP</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5412,7 +5416,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5422,31 +5426,31 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Gimnasia y Tiro</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>2.63</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>1.8</v>
       </c>
       <c r="L35" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.17</v>
@@ -5455,28 +5459,28 @@
         <v>5</v>
       </c>
       <c r="O35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S35" t="n">
+        <v>7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.73</v>
       </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>8</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V35" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="W35" t="n">
         <v>2.5</v>
@@ -5485,31 +5489,31 @@
         <v>1.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF35" t="n">
         <v>5.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH35" t="n">
         <v>101</v>
@@ -5518,36 +5522,32 @@
         <v>101</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AL35" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO35" t="n">
         <v>51</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vs8bxaWP</t>
+          <t>rDDodgNb</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5567,118 +5567,118 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gimnasia y Tiro</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
         <v>1.8</v>
       </c>
       <c r="L36" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>1.17</v>
       </c>
       <c r="N36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W36" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="X36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>26</v>
       </c>
       <c r="AD36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE36" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AH36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI36" t="n">
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO36" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5717,22 +5717,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K37" t="n">
         <v>1.83</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.13</v>
@@ -5747,10 +5747,10 @@
         <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S37" t="n">
         <v>6.5</v>
@@ -5774,10 +5774,10 @@
         <v>7</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB37" t="n">
         <v>41</v>
@@ -5792,7 +5792,7 @@
         <v>5.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG37" t="n">
         <v>23</v>
@@ -5804,19 +5804,19 @@
         <v>101</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL37" t="n">
         <v>11</v>
       </c>
       <c r="AM37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO37" t="n">
         <v>41</v>
@@ -7866,10 +7866,10 @@
         <v>4.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S52" t="n">
         <v>2.63</v>
@@ -8259,16 +8259,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I55" t="n">
         <v>6.25</v>
       </c>
       <c r="J55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
         <v>2.3</v>
@@ -8280,7 +8280,7 @@
         <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O55" t="n">
         <v>1.25</v>
@@ -8289,10 +8289,10 @@
         <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S55" t="n">
         <v>3</v>
@@ -8313,7 +8313,7 @@
         <v>1.73</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z55" t="n">
         <v>7</v>
@@ -8325,19 +8325,19 @@
         <v>10</v>
       </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD55" t="n">
         <v>29</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH55" t="n">
         <v>67</v>
@@ -8976,13 +8976,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J60" t="n">
         <v>2.4</v>
@@ -8991,13 +8991,13 @@
         <v>2.2</v>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
         <v>1.3</v>
@@ -9030,7 +9030,7 @@
         <v>1.83</v>
       </c>
       <c r="Y60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z60" t="n">
         <v>8</v>
@@ -9039,7 +9039,7 @@
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC60" t="n">
         <v>15</v>
@@ -9066,7 +9066,7 @@
         <v>12</v>
       </c>
       <c r="AK60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL60" t="n">
         <v>15</v>
@@ -9081,16 +9081,16 @@
         <v>41</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61">
@@ -9274,52 +9274,52 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="S62" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="U62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W62" t="n">
         <v>2.2</v>
@@ -9331,22 +9331,22 @@
         <v>5.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
@@ -9361,10 +9361,10 @@
         <v>101</v>
       </c>
       <c r="AJ62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL62" t="n">
         <v>15</v>
@@ -9379,16 +9379,16 @@
         <v>51</v>
       </c>
       <c r="AP62" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="63">
@@ -9528,10 +9528,10 @@
         <v>41</v>
       </c>
       <c r="AP63" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR63" t="n">
         <v>1.93</v>
@@ -9629,16 +9629,16 @@
         <v>6</v>
       </c>
       <c r="Z64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA64" t="n">
         <v>9</v>
       </c>
       <c r="AB64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD64" t="n">
         <v>29</v>
@@ -12005,28 +12005,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
         <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M81" t="n">
         <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
         <v>1.33</v>
@@ -12053,25 +12053,25 @@
         <v>2.63</v>
       </c>
       <c r="W81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X81" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
       </c>
       <c r="Z81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA81" t="n">
         <v>10</v>
       </c>
       <c r="AB81" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC81" t="n">
         <v>23</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>21</v>
       </c>
       <c r="AD81" t="n">
         <v>34</v>
@@ -12092,10 +12092,10 @@
         <v>251</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL81" t="n">
         <v>11</v>
@@ -12146,103 +12146,103 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H82" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K82" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
         <v>5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U82" t="n">
         <v>1.5</v>
       </c>
-      <c r="P82" t="n">
+      <c r="V82" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S82" t="n">
-        <v>5</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V82" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W82" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X82" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y82" t="n">
         <v>5.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC82" t="n">
         <v>17</v>
       </c>
-      <c r="AC82" t="n">
-        <v>19</v>
-      </c>
       <c r="AD82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE82" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF82" t="n">
         <v>6.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH82" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI82" t="n">
         <v>351</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL82" t="n">
         <v>15</v>
       </c>
       <c r="AM82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN82" t="n">
         <v>41</v>
@@ -12253,10 +12253,10 @@
       <c r="AP82" t="inlineStr"/>
       <c r="AQ82" t="inlineStr"/>
       <c r="AR82" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="83">
@@ -13558,10 +13558,10 @@
         <v>3.75</v>
       </c>
       <c r="M92" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O92" t="n">
         <v>1.25</v>
@@ -13570,10 +13570,10 @@
         <v>3.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S92" t="n">
         <v>3</v>
@@ -17990,7 +17990,7 @@
         <v>1.91</v>
       </c>
       <c r="L123" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M123" t="n">
         <v>1.14</v>
@@ -17999,28 +17999,28 @@
         <v>5.5</v>
       </c>
       <c r="O123" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P123" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R123" t="n">
         <v>1.33</v>
       </c>
       <c r="S123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T123" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U123" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V123" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W123" t="n">
         <v>3.75</v>
@@ -18047,7 +18047,7 @@
         <v>151</v>
       </c>
       <c r="AE123" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF123" t="n">
         <v>8.5</v>
@@ -18071,13 +18071,13 @@
         <v>12</v>
       </c>
       <c r="AM123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN123" t="n">
         <v>21</v>
       </c>
       <c r="AO123" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP123" t="inlineStr"/>
       <c r="AQ123" t="inlineStr"/>
@@ -18116,28 +18116,28 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I124" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J124" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K124" t="n">
         <v>1.8</v>
       </c>
       <c r="L124" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N124" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O124" t="n">
         <v>1.67</v>
@@ -18149,7 +18149,7 @@
         <v>3.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S124" t="n">
         <v>7</v>
@@ -18158,28 +18158,28 @@
         <v>1.1</v>
       </c>
       <c r="U124" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V124" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W124" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X124" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y124" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Z124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA124" t="n">
         <v>11</v>
       </c>
       <c r="AB124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC124" t="n">
         <v>23</v>
@@ -18194,31 +18194,31 @@
         <v>6.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH124" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI124" t="n">
         <v>101</v>
       </c>
       <c r="AJ124" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL124" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM124" t="n">
         <v>51</v>
       </c>
       <c r="AN124" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO124" t="n">
         <v>51</v>
-      </c>
-      <c r="AO124" t="n">
-        <v>67</v>
       </c>
       <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr"/>
@@ -18261,34 +18261,34 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J125" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K125" t="n">
         <v>1.95</v>
       </c>
       <c r="L125" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M125" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P125" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q125" t="n">
         <v>2.35</v>
@@ -18297,10 +18297,10 @@
         <v>1.57</v>
       </c>
       <c r="S125" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T125" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U125" t="n">
         <v>1.53</v>
@@ -18315,25 +18315,25 @@
         <v>1.73</v>
       </c>
       <c r="Y125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA125" t="n">
         <v>12</v>
       </c>
-      <c r="AA125" t="n">
-        <v>11</v>
-      </c>
       <c r="AB125" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC125" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD125" t="n">
         <v>41</v>
       </c>
       <c r="AE125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF125" t="n">
         <v>6</v>
@@ -18348,30 +18348,30 @@
         <v>351</v>
       </c>
       <c r="AJ125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM125" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN125" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO125" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
       <c r="AR125" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="126">
@@ -18424,10 +18424,10 @@
         <v>6</v>
       </c>
       <c r="M126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O126" t="n">
         <v>1.33</v>
@@ -18547,16 +18547,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H127" t="n">
         <v>4.1</v>
       </c>
       <c r="I127" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J127" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K127" t="n">
         <v>2.2</v>
@@ -18565,40 +18565,40 @@
         <v>2.05</v>
       </c>
       <c r="M127" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N127" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R127" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S127" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T127" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W127" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X127" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y127" t="n">
         <v>15</v>
@@ -18607,7 +18607,7 @@
         <v>34</v>
       </c>
       <c r="AA127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB127" t="n">
         <v>81</v>
@@ -18616,16 +18616,16 @@
         <v>51</v>
       </c>
       <c r="AD127" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF127" t="n">
         <v>8</v>
       </c>
       <c r="AG127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH127" t="n">
         <v>81</v>
@@ -18634,10 +18634,10 @@
         <v>800</v>
       </c>
       <c r="AJ127" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK127" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AL127" t="n">
         <v>9</v>
@@ -18652,16 +18652,16 @@
         <v>34</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR127" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="128">
@@ -18696,16 +18696,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I128" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J128" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K128" t="n">
         <v>2.4</v>
@@ -18726,10 +18726,10 @@
         <v>4</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R128" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S128" t="n">
         <v>2.75</v>
@@ -18768,19 +18768,19 @@
         <v>26</v>
       </c>
       <c r="AE128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG128" t="n">
         <v>21</v>
       </c>
       <c r="AH128" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI128" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ128" t="n">
         <v>15</v>
@@ -19989,28 +19989,28 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H137" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I137" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J137" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K137" t="n">
         <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M137" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O137" t="n">
         <v>1.4</v>
@@ -20037,25 +20037,25 @@
         <v>2.5</v>
       </c>
       <c r="W137" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X137" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y137" t="n">
         <v>11</v>
       </c>
       <c r="Z137" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB137" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC137" t="n">
         <v>51</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>41</v>
       </c>
       <c r="AD137" t="n">
         <v>51</v>
@@ -20079,16 +20079,16 @@
         <v>5.5</v>
       </c>
       <c r="AK137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL137" t="n">
         <v>9</v>
       </c>
       <c r="AM137" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN137" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO137" t="n">
         <v>34</v>
@@ -22962,13 +22962,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I158" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J158" t="n">
         <v>2.1</v>
@@ -22977,13 +22977,13 @@
         <v>2.2</v>
       </c>
       <c r="L158" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M158" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N158" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -22992,16 +22992,16 @@
         <v>3</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R158" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S158" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T158" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U158" t="n">
         <v>1.44</v>
@@ -23010,10 +23010,10 @@
         <v>2.63</v>
       </c>
       <c r="W158" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X158" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y158" t="n">
         <v>5.5</v>
@@ -23025,7 +23025,7 @@
         <v>9</v>
       </c>
       <c r="AB158" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC158" t="n">
         <v>15</v>
@@ -23034,7 +23034,7 @@
         <v>34</v>
       </c>
       <c r="AE158" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF158" t="n">
         <v>8</v>
@@ -23055,7 +23055,7 @@
         <v>34</v>
       </c>
       <c r="AL158" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM158" t="n">
         <v>81</v>
@@ -23064,7 +23064,7 @@
         <v>51</v>
       </c>
       <c r="AO158" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
@@ -25301,28 +25301,28 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H175" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J175" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K175" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L175" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M175" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O175" t="n">
         <v>1.36</v>
@@ -25349,25 +25349,25 @@
         <v>2.63</v>
       </c>
       <c r="W175" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X175" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y175" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z175" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA175" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB175" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC175" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD175" t="n">
         <v>29</v>
@@ -25379,31 +25379,31 @@
         <v>6.5</v>
       </c>
       <c r="AG175" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH175" t="n">
         <v>51</v>
       </c>
       <c r="AI175" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ175" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM175" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN175" t="n">
         <v>34</v>
       </c>
-      <c r="AN175" t="n">
-        <v>26</v>
-      </c>
       <c r="AO175" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="inlineStr"/>
@@ -25460,10 +25460,10 @@
         <v>6.5</v>
       </c>
       <c r="M176" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N176" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O176" t="n">
         <v>1.3</v>
@@ -25472,10 +25472,10 @@
         <v>3.4</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R176" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S176" t="n">
         <v>3.5</v>
@@ -25607,22 +25607,22 @@
         <v>9</v>
       </c>
       <c r="O177" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P177" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R177" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S177" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T177" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U177" t="n">
         <v>1.44</v>
@@ -25865,82 +25865,82 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="H179" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I179" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="J179" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K179" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L179" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M179" t="n">
         <v>1.02</v>
       </c>
       <c r="N179" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O179" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P179" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R179" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S179" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T179" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U179" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V179" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W179" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X179" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y179" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z179" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA179" t="n">
         <v>8.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD179" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE179" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF179" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG179" t="n">
         <v>15</v>
@@ -25952,28 +25952,28 @@
         <v>151</v>
       </c>
       <c r="AJ179" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK179" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL179" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AM179" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN179" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AO179" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26013,7 +26013,7 @@
         <v>2</v>
       </c>
       <c r="H180" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I180" t="n">
         <v>3.6</v>
@@ -26034,10 +26034,10 @@
         <v>13</v>
       </c>
       <c r="O180" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P180" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q180" t="n">
         <v>1.7</v>
@@ -26073,13 +26073,13 @@
         <v>8.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC180" t="n">
         <v>15</v>
       </c>
       <c r="AD180" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE180" t="n">
         <v>13</v>
@@ -26578,109 +26578,109 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="H184" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I184" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="J184" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K184" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="L184" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="M184" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N184" t="n">
         <v>6</v>
       </c>
       <c r="O184" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P184" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R184" t="n">
         <v>1.47</v>
       </c>
-      <c r="P184" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R184" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S184" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T184" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="U184" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V184" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W184" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="X184" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y184" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="Z184" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AA184" t="n">
         <v>8.5</v>
       </c>
       <c r="AB184" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC184" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AD184" t="n">
         <v>40</v>
       </c>
       <c r="AE184" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AF184" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AG184" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH184" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI184" t="n">
         <v>101</v>
       </c>
       <c r="AJ184" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AK184" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL184" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AM184" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AN184" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AO184" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP184" t="inlineStr"/>
       <c r="AQ184" t="inlineStr"/>
@@ -26719,42 +26719,42 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H185" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="I185" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K185" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L185" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P185" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R185" t="n">
         <v>1.5</v>
       </c>
       <c r="S185" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T185" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U185" t="n">
         <v>1.47</v>
@@ -26769,31 +26769,31 @@
         <v>1.75</v>
       </c>
       <c r="Y185" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Z185" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA185" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB185" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC185" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD185" t="n">
         <v>37</v>
       </c>
       <c r="AE185" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF185" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG185" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH185" t="n">
         <v>80</v>
@@ -26802,19 +26802,19 @@
         <v>800</v>
       </c>
       <c r="AJ185" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AK185" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL185" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM185" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN185" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO185" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -4278,19 +4278,19 @@
         <v>1.33</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4317,16 +4317,16 @@
         <v>1.33</v>
       </c>
       <c r="U27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y27" t="n">
         <v>6</v>
@@ -4335,10 +4335,10 @@
         <v>5.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC27" t="n">
         <v>13</v>
@@ -4353,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>81</v>
@@ -4371,7 +4371,7 @@
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN27" t="n">
         <v>81</v>
@@ -4430,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4448,10 +4448,10 @@
         <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
         <v>2.88</v>
@@ -4460,10 +4460,10 @@
         <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -4481,7 +4481,7 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="n">
         <v>10</v>
@@ -4502,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
         <v>101</v>
@@ -4514,7 +4514,7 @@
         <v>7.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4532,13 +4532,13 @@
         <v>5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR28" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="29">
@@ -4573,28 +4573,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -4630,16 +4630,16 @@
         <v>6.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD29" t="n">
         <v>41</v>
@@ -4663,7 +4663,7 @@
         <v>7.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
@@ -4678,10 +4678,10 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AR29" t="n">
         <v>1.83</v>
@@ -5435,28 +5435,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n">
         <v>2.63</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>1.8</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1.17</v>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O35" t="n">
         <v>1.67</v>
@@ -5477,10 +5477,10 @@
         <v>1.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
         <v>2.5</v>
@@ -5489,10 +5489,10 @@
         <v>1.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
         <v>11</v>
@@ -5501,7 +5501,7 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD35" t="n">
         <v>41</v>
@@ -5522,22 +5522,22 @@
         <v>101</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="n">
         <v>17</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN35" t="n">
         <v>41</v>
       </c>
       <c r="AO35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
         <v>2.8</v>
@@ -5657,7 +5657,7 @@
         <v>29</v>
       </c>
       <c r="AH36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI36" t="n">
         <v>101</v>
@@ -5717,28 +5717,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K37" t="n">
         <v>1.83</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.62</v>
@@ -5774,10 +5774,10 @@
         <v>7</v>
       </c>
       <c r="Z37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA37" t="n">
         <v>15</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>13</v>
       </c>
       <c r="AB37" t="n">
         <v>41</v>
@@ -5792,7 +5792,7 @@
         <v>5.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG37" t="n">
         <v>23</v>
@@ -5804,10 +5804,10 @@
         <v>101</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL37" t="n">
         <v>11</v>
@@ -5816,7 +5816,7 @@
         <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO37" t="n">
         <v>41</v>
@@ -9131,7 +9131,7 @@
         <v>4.33</v>
       </c>
       <c r="I61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
         <v>1.95</v>
@@ -9143,10 +9143,10 @@
         <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
         <v>1.25</v>
@@ -9173,10 +9173,10 @@
         <v>3</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X61" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y61" t="n">
         <v>6.5</v>
@@ -9188,10 +9188,10 @@
         <v>8.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD61" t="n">
         <v>29</v>
@@ -9215,7 +9215,7 @@
         <v>17</v>
       </c>
       <c r="AK61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL61" t="n">
         <v>21</v>
@@ -9423,76 +9423,76 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M63" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U63" t="n">
         <v>1.5</v>
       </c>
-      <c r="P63" t="n">
+      <c r="V63" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q63" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V63" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y63" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB63" t="n">
         <v>21</v>
       </c>
       <c r="AC63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE63" t="n">
         <v>7</v>
@@ -9501,25 +9501,25 @@
         <v>6</v>
       </c>
       <c r="AG63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AK63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL63" t="n">
         <v>13</v>
       </c>
       <c r="AM63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN63" t="n">
         <v>34</v>
@@ -9528,16 +9528,16 @@
         <v>41</v>
       </c>
       <c r="AP63" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="64">
@@ -9590,10 +9590,10 @@
         <v>5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
         <v>1.36</v>
@@ -9677,16 +9677,16 @@
         <v>41</v>
       </c>
       <c r="AP64" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="65">
@@ -12146,16 +12146,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I82" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K82" t="n">
         <v>2</v>
@@ -12167,19 +12167,19 @@
         <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P82" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R82" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="n">
         <v>4.33</v>
@@ -12200,10 +12200,10 @@
         <v>1.67</v>
       </c>
       <c r="Y82" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA82" t="n">
         <v>9</v>
@@ -12212,7 +12212,7 @@
         <v>15</v>
       </c>
       <c r="AC82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD82" t="n">
         <v>34</v>
@@ -12242,13 +12242,13 @@
         <v>15</v>
       </c>
       <c r="AM82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN82" t="n">
         <v>41</v>
       </c>
       <c r="AO82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP82" t="inlineStr"/>
       <c r="AQ82" t="inlineStr"/>
@@ -17564,22 +17564,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H120" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J120" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
         <v>2.4</v>
       </c>
       <c r="L120" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M120" t="n">
         <v>1.03</v>
@@ -17621,7 +17621,7 @@
         <v>15</v>
       </c>
       <c r="Z120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA120" t="n">
         <v>13</v>
@@ -17630,7 +17630,7 @@
         <v>41</v>
       </c>
       <c r="AC120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD120" t="n">
         <v>29</v>
@@ -17654,13 +17654,13 @@
         <v>10</v>
       </c>
       <c r="AK120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL120" t="n">
         <v>8.5</v>
       </c>
       <c r="AM120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN120" t="n">
         <v>13</v>
@@ -17669,10 +17669,10 @@
         <v>21</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
@@ -17975,7 +17975,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H123" t="n">
         <v>3.2</v>
@@ -17984,13 +17984,13 @@
         <v>1.42</v>
       </c>
       <c r="J123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K123" t="n">
         <v>1.91</v>
       </c>
       <c r="L123" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M123" t="n">
         <v>1.14</v>
@@ -18008,7 +18008,7 @@
         <v>3.1</v>
       </c>
       <c r="R123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S123" t="n">
         <v>6.5</v>
@@ -18023,25 +18023,25 @@
         <v>2.1</v>
       </c>
       <c r="W123" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X123" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y123" t="n">
         <v>15</v>
       </c>
       <c r="Z123" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA123" t="n">
         <v>41</v>
       </c>
       <c r="AB123" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AC123" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD123" t="n">
         <v>151</v>
@@ -18062,16 +18062,16 @@
         <v>101</v>
       </c>
       <c r="AJ123" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AK123" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AL123" t="n">
         <v>12</v>
       </c>
       <c r="AM123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN123" t="n">
         <v>21</v>
@@ -18122,7 +18122,7 @@
         <v>2.8</v>
       </c>
       <c r="I124" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J124" t="n">
         <v>3</v>
@@ -18131,7 +18131,7 @@
         <v>1.8</v>
       </c>
       <c r="L124" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M124" t="n">
         <v>1.17</v>
@@ -18149,7 +18149,7 @@
         <v>3.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S124" t="n">
         <v>7</v>
@@ -18158,10 +18158,10 @@
         <v>1.1</v>
       </c>
       <c r="U124" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V124" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W124" t="n">
         <v>2.63</v>
@@ -18197,7 +18197,7 @@
         <v>26</v>
       </c>
       <c r="AH124" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI124" t="n">
         <v>101</v>
@@ -18218,7 +18218,7 @@
         <v>41</v>
       </c>
       <c r="AO124" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H126" t="n">
         <v>3.6</v>
@@ -18415,7 +18415,7 @@
         <v>6.25</v>
       </c>
       <c r="J126" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K126" t="n">
         <v>2.1</v>
@@ -18424,16 +18424,16 @@
         <v>6</v>
       </c>
       <c r="M126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P126" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q126" t="n">
         <v>2.1</v>
@@ -18460,13 +18460,13 @@
         <v>1.67</v>
       </c>
       <c r="Y126" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z126" t="n">
         <v>6.5</v>
       </c>
       <c r="AA126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB126" t="n">
         <v>11</v>
@@ -18484,7 +18484,7 @@
         <v>7</v>
       </c>
       <c r="AG126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH126" t="n">
         <v>67</v>
@@ -18696,22 +18696,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H128" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J128" t="n">
         <v>1.91</v>
       </c>
       <c r="K128" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M128" t="n">
         <v>1.03</v>
@@ -18726,16 +18726,16 @@
         <v>4</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R128" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S128" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T128" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U128" t="n">
         <v>1.33</v>
@@ -18744,22 +18744,22 @@
         <v>3.25</v>
       </c>
       <c r="W128" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X128" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y128" t="n">
         <v>7</v>
       </c>
       <c r="Z128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA128" t="n">
         <v>8.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC128" t="n">
         <v>12</v>
@@ -18783,22 +18783,22 @@
         <v>351</v>
       </c>
       <c r="AJ128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK128" t="n">
         <v>34</v>
       </c>
       <c r="AL128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM128" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN128" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO128" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP128" t="n">
         <v>2.03</v>
@@ -18807,10 +18807,10 @@
         <v>1.83</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="129">
@@ -25442,13 +25442,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H176" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I176" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J176" t="n">
         <v>2.1</v>
@@ -25457,7 +25457,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M176" t="n">
         <v>1.06</v>
@@ -25472,7 +25472,7 @@
         <v>3.4</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R176" t="n">
         <v>1.8</v>
@@ -25490,10 +25490,10 @@
         <v>2.75</v>
       </c>
       <c r="W176" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X176" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y176" t="n">
         <v>6</v>
@@ -25517,7 +25517,7 @@
         <v>9</v>
       </c>
       <c r="AF176" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG176" t="n">
         <v>21</v>
@@ -25538,7 +25538,7 @@
         <v>21</v>
       </c>
       <c r="AM176" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN176" t="n">
         <v>51</v>
@@ -25583,22 +25583,22 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H177" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I177" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J177" t="n">
         <v>4</v>
       </c>
       <c r="K177" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L177" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M177" t="n">
         <v>1.07</v>
@@ -25625,28 +25625,28 @@
         <v>1.2</v>
       </c>
       <c r="U177" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V177" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W177" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X177" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y177" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z177" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA177" t="n">
         <v>12</v>
       </c>
       <c r="AB177" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC177" t="n">
         <v>29</v>
@@ -25655,22 +25655,22 @@
         <v>41</v>
       </c>
       <c r="AE177" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF177" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG177" t="n">
         <v>17</v>
       </c>
       <c r="AH177" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI177" t="n">
         <v>351</v>
       </c>
       <c r="AJ177" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK177" t="n">
         <v>9.5</v>
@@ -25679,10 +25679,10 @@
         <v>9.5</v>
       </c>
       <c r="AM177" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN177" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO177" t="n">
         <v>34</v>
@@ -26010,22 +26010,22 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H180" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I180" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J180" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K180" t="n">
         <v>2.3</v>
       </c>
       <c r="L180" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M180" t="n">
         <v>1.04</v>
@@ -26040,10 +26040,10 @@
         <v>4.33</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R180" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S180" t="n">
         <v>2.63</v>
@@ -26058,43 +26058,43 @@
         <v>3.25</v>
       </c>
       <c r="W180" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X180" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y180" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA180" t="n">
         <v>9</v>
       </c>
-      <c r="Z180" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA180" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB180" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC180" t="n">
         <v>15</v>
       </c>
       <c r="AD180" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE180" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF180" t="n">
         <v>7</v>
       </c>
       <c r="AG180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH180" t="n">
         <v>41</v>
       </c>
       <c r="AI180" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ180" t="n">
         <v>13</v>
@@ -26106,13 +26106,13 @@
         <v>12</v>
       </c>
       <c r="AM180" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN180" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO180" t="n">
         <v>26</v>
-      </c>
-      <c r="AO180" t="n">
-        <v>29</v>
       </c>
       <c r="AP180" t="n">
         <v>2.03</v>
@@ -26856,13 +26856,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H186" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I186" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J186" t="n">
         <v>2.45</v>
@@ -26876,28 +26876,28 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P186" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="Q186" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R186" t="n">
         <v>1.7</v>
       </c>
       <c r="S186" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T186" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U186" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="V186" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="W186" t="n">
         <v>1.75</v>
@@ -26993,105 +26993,105 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="J187" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K187" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L187" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P187" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Q187" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R187" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S187" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T187" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U187" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V187" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="W187" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="X187" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y187" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z187" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA187" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB187" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC187" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD187" t="n">
         <v>30</v>
       </c>
       <c r="AE187" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF187" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AG187" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH187" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AI187" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ187" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK187" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL187" t="n">
         <v>14</v>
       </c>
       <c r="AM187" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN187" t="n">
         <v>45</v>
       </c>
       <c r="AO187" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP187" t="inlineStr"/>
       <c r="AQ187" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-09.xlsx
@@ -4424,28 +4424,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>1.83</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4472,10 +4472,10 @@
         <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
@@ -4487,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>23</v>
@@ -4499,7 +4499,7 @@
         <v>5.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG28" t="n">
         <v>23</v>
@@ -4511,16 +4511,16 @@
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>19</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN28" t="n">
         <v>41</v>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
@@ -4582,19 +4582,19 @@
         <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -4603,10 +4603,10 @@
         <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
         <v>4.5</v>
@@ -4630,7 +4630,7 @@
         <v>6.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -4639,7 +4639,7 @@
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
         <v>41</v>
@@ -4678,16 +4678,16 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="30">
@@ -5723,16 +5723,16 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J37" t="n">
         <v>4.75</v>
       </c>
       <c r="K37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.14</v>
@@ -5741,10 +5741,10 @@
         <v>5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q37" t="n">
         <v>3.1</v>
@@ -5774,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA37" t="n">
         <v>15</v>
@@ -5807,7 +5807,7 @@
         <v>5</v>
       </c>
       <c r="AK37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL37" t="n">
         <v>11</v>
@@ -5816,7 +5816,7 @@
         <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO37" t="n">
         <v>41</v>
@@ -9572,97 +9572,97 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>11</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X64" t="n">
         <v>1.8</v>
       </c>
-      <c r="H64" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N64" t="n">
-        <v>10</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V64" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W64" t="n">
-        <v>2</v>
-      </c>
-      <c r="X64" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Y64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC64" t="n">
         <v>15</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>17</v>
       </c>
       <c r="AD64" t="n">
         <v>29</v>
       </c>
       <c r="AE64" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG64" t="n">
         <v>19</v>
       </c>
       <c r="AH64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL64" t="n">
         <v>15</v>
@@ -9677,16 +9677,16 @@
         <v>41</v>
       </c>
       <c r="AP64" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="65">
